--- a/s_d/麻吉12月.xlsx
+++ b/s_d/麻吉12月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162FB6B6-2C53-4729-8852-A6F292545631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03069038-34F9-4768-83A0-08928FF93519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="12.4" sheetId="5" r:id="rId4"/>
     <sheet name="12.5" sheetId="6" r:id="rId5"/>
     <sheet name="12.6" sheetId="7" r:id="rId6"/>
+    <sheet name="12.7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -22671,11 +22672,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B25FC4C-0769-4B56-8023-363B7EE72B32}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31">
@@ -25379,4 +25383,3155 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D47D5CB-D9C9-4F35-88AE-A8293AF43A4B}">
+  <dimension ref="A1:P86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31">
+        <v>36197</v>
+      </c>
+      <c r="B1" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="31">
+        <v>2.01912071053221E+20</v>
+      </c>
+      <c r="D1" s="32">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31">
+        <v>267</v>
+      </c>
+      <c r="F1" s="31">
+        <v>267</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="38">
+        <v>43806.453472222223</v>
+      </c>
+      <c r="J1" s="38">
+        <v>43806.453541666669</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>36196</v>
+      </c>
+      <c r="B2" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="33">
+        <v>2.01912071052541E+20</v>
+      </c>
+      <c r="D2" s="34">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33">
+        <v>387</v>
+      </c>
+      <c r="F2" s="33">
+        <v>387</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="40">
+        <v>43806.452777777777</v>
+      </c>
+      <c r="J2" s="40">
+        <v>43806.453344907408</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>36195</v>
+      </c>
+      <c r="B3" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2.01912071052371E+20</v>
+      </c>
+      <c r="D3" s="34">
+        <v>3</v>
+      </c>
+      <c r="E3" s="33">
+        <v>1152</v>
+      </c>
+      <c r="F3" s="33">
+        <v>1152</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="40">
+        <v>43806.452777777777</v>
+      </c>
+      <c r="J3" s="40">
+        <v>43806.4531712963</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>36194</v>
+      </c>
+      <c r="B4" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="33">
+        <v>2.01912071052211E+20</v>
+      </c>
+      <c r="D4" s="34">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33">
+        <v>511</v>
+      </c>
+      <c r="F4" s="33">
+        <v>511</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="40">
+        <v>43806.452777777777</v>
+      </c>
+      <c r="J4" s="40">
+        <v>43806.452986111108</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="11">
+        <v>50000</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>36193</v>
+      </c>
+      <c r="B5" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2.0191207105206102E+20</v>
+      </c>
+      <c r="D5" s="34">
+        <v>3</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1040</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1040</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="40">
+        <v>43806.452777777777</v>
+      </c>
+      <c r="J5" s="40">
+        <v>43806.452800925923</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="11">
+        <v>20000</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>36192</v>
+      </c>
+      <c r="B6" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="33">
+        <v>2.0191207105149098E+20</v>
+      </c>
+      <c r="D6" s="34">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33">
+        <v>399</v>
+      </c>
+      <c r="F6" s="33">
+        <v>399</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="40">
+        <v>43806.45208333333</v>
+      </c>
+      <c r="J6" s="40">
+        <v>43806.452615740738</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>66094.399999999994</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>36191</v>
+      </c>
+      <c r="B7" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2.0191207105133101E+20</v>
+      </c>
+      <c r="D7" s="34">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33">
+        <v>1307</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1307</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="40">
+        <v>43806.45208333333</v>
+      </c>
+      <c r="J7" s="40">
+        <v>43806.452418981484</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="11">
+        <v>-672.74</v>
+      </c>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>36190</v>
+      </c>
+      <c r="B8" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2.0191207105116101E+20</v>
+      </c>
+      <c r="D8" s="34">
+        <v>3</v>
+      </c>
+      <c r="E8" s="33">
+        <v>396</v>
+      </c>
+      <c r="F8" s="33">
+        <v>396</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="40">
+        <v>43806.45208333333</v>
+      </c>
+      <c r="J8" s="40">
+        <v>43806.452222222222</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>36189</v>
+      </c>
+      <c r="B9" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="33">
+        <v>2.01912071051001E+20</v>
+      </c>
+      <c r="D9" s="34">
+        <v>3</v>
+      </c>
+      <c r="E9" s="33">
+        <v>970</v>
+      </c>
+      <c r="F9" s="33">
+        <v>970</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="40">
+        <v>43806.45208333333</v>
+      </c>
+      <c r="J9" s="40">
+        <v>43806.452037037037</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>36188</v>
+      </c>
+      <c r="B10" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2.01912071050441E+20</v>
+      </c>
+      <c r="D10" s="34">
+        <v>3</v>
+      </c>
+      <c r="E10" s="33">
+        <v>992</v>
+      </c>
+      <c r="F10" s="33">
+        <v>992</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="40">
+        <v>43806.451388888891</v>
+      </c>
+      <c r="J10" s="40">
+        <v>43806.451828703706</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>36187</v>
+      </c>
+      <c r="B11" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2.0191207105012099E+20</v>
+      </c>
+      <c r="D11" s="34">
+        <v>3</v>
+      </c>
+      <c r="E11" s="33">
+        <v>150</v>
+      </c>
+      <c r="F11" s="33">
+        <v>150</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="40">
+        <v>43806.451388888891</v>
+      </c>
+      <c r="J11" s="40">
+        <v>43806.451493055552</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>36186</v>
+      </c>
+      <c r="B12" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="33">
+        <v>2.0191207104957101E+20</v>
+      </c>
+      <c r="D12" s="34">
+        <v>3</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1273</v>
+      </c>
+      <c r="F12" s="33">
+        <v>1273</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="40">
+        <v>43806.451388888891</v>
+      </c>
+      <c r="J12" s="40">
+        <v>43806.451296296298</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>36185</v>
+      </c>
+      <c r="B13" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="33">
+        <v>2.01912071049411E+20</v>
+      </c>
+      <c r="D13" s="34">
+        <v>3</v>
+      </c>
+      <c r="E13" s="33">
+        <v>553</v>
+      </c>
+      <c r="F13" s="33">
+        <v>553</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="40">
+        <v>43806.450694444444</v>
+      </c>
+      <c r="J13" s="40">
+        <v>43806.451122685183</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>36184</v>
+      </c>
+      <c r="B14" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="33">
+        <v>2.0191207104926099E+20</v>
+      </c>
+      <c r="D14" s="34">
+        <v>2</v>
+      </c>
+      <c r="E14" s="33">
+        <v>820</v>
+      </c>
+      <c r="F14" s="33">
+        <v>820</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="40">
+        <v>43806.450694444444</v>
+      </c>
+      <c r="J14" s="40">
+        <v>43806.450949074075</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>36183</v>
+      </c>
+      <c r="B15" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2.0191207104910098E+20</v>
+      </c>
+      <c r="D15" s="34">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1274</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1274</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="40">
+        <v>43806.450694444444</v>
+      </c>
+      <c r="J15" s="40">
+        <v>43806.450775462959</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>36182</v>
+      </c>
+      <c r="B16" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2.0191207104855101E+20</v>
+      </c>
+      <c r="D16" s="34">
+        <v>3</v>
+      </c>
+      <c r="E16" s="33">
+        <v>739</v>
+      </c>
+      <c r="F16" s="33">
+        <v>739</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="40">
+        <v>43806.45</v>
+      </c>
+      <c r="J16" s="40">
+        <v>43806.450601851851</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>36181</v>
+      </c>
+      <c r="B17" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="33">
+        <v>2.01912071048391E+20</v>
+      </c>
+      <c r="D17" s="34">
+        <v>3</v>
+      </c>
+      <c r="E17" s="33">
+        <v>519</v>
+      </c>
+      <c r="F17" s="33">
+        <v>519</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="40">
+        <v>43806.45</v>
+      </c>
+      <c r="J17" s="40">
+        <v>43806.450416666667</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>36180</v>
+      </c>
+      <c r="B18" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="33">
+        <v>2.0191207104824099E+20</v>
+      </c>
+      <c r="D18" s="34">
+        <v>3</v>
+      </c>
+      <c r="E18" s="33">
+        <v>382</v>
+      </c>
+      <c r="F18" s="33">
+        <v>382</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="40">
+        <v>43806.45</v>
+      </c>
+      <c r="J18" s="40">
+        <v>43806.450231481482</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>36179</v>
+      </c>
+      <c r="B19" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="33">
+        <v>2.0191207104807099E+20</v>
+      </c>
+      <c r="D19" s="34">
+        <v>3</v>
+      </c>
+      <c r="E19" s="33">
+        <v>1317</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1317</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="40">
+        <v>43806.45</v>
+      </c>
+      <c r="J19" s="40">
+        <v>43806.450046296297</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35">
+        <v>36178</v>
+      </c>
+      <c r="B20" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2.0191207104751102E+20</v>
+      </c>
+      <c r="D20" s="36">
+        <v>3</v>
+      </c>
+      <c r="E20" s="35">
+        <v>698</v>
+      </c>
+      <c r="F20" s="35">
+        <v>698</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="42">
+        <v>43806.449305555558</v>
+      </c>
+      <c r="J20" s="42">
+        <v>43806.449861111112</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>36177</v>
+      </c>
+      <c r="B21" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="31">
+        <v>2.01912071047361E+20</v>
+      </c>
+      <c r="D21" s="32">
+        <v>3</v>
+      </c>
+      <c r="E21" s="31">
+        <v>886</v>
+      </c>
+      <c r="F21" s="31">
+        <v>886</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="38">
+        <v>43806.449305555558</v>
+      </c>
+      <c r="J21" s="38">
+        <v>43806.449675925927</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>36176</v>
+      </c>
+      <c r="B22" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="33">
+        <v>2.0191207104718101E+20</v>
+      </c>
+      <c r="D22" s="34">
+        <v>3</v>
+      </c>
+      <c r="E22" s="33">
+        <v>461</v>
+      </c>
+      <c r="F22" s="33">
+        <v>461</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="40">
+        <v>43806.449305555558</v>
+      </c>
+      <c r="J22" s="40">
+        <v>43806.449467592596</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>36175</v>
+      </c>
+      <c r="B23" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2.01912071047021E+20</v>
+      </c>
+      <c r="D23" s="34">
+        <v>3</v>
+      </c>
+      <c r="E23" s="33">
+        <v>507</v>
+      </c>
+      <c r="F23" s="33">
+        <v>507</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="40">
+        <v>43806.449305555558</v>
+      </c>
+      <c r="J23" s="40">
+        <v>43806.449293981481</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>36174</v>
+      </c>
+      <c r="B24" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="33">
+        <v>2.0191207104647099E+20</v>
+      </c>
+      <c r="D24" s="34">
+        <v>3</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1295</v>
+      </c>
+      <c r="F24" s="33">
+        <v>1295</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="40">
+        <v>43806.448611111111</v>
+      </c>
+      <c r="J24" s="40">
+        <v>43806.449120370373</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>36173</v>
+      </c>
+      <c r="B25" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="33">
+        <v>2.0191207104631099E+20</v>
+      </c>
+      <c r="D25" s="34">
+        <v>3</v>
+      </c>
+      <c r="E25" s="33">
+        <v>372</v>
+      </c>
+      <c r="F25" s="33">
+        <v>372</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="40">
+        <v>43806.448611111111</v>
+      </c>
+      <c r="J25" s="40">
+        <v>43806.448935185188</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>36172</v>
+      </c>
+      <c r="B26" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="33">
+        <v>2.0191207104607099E+20</v>
+      </c>
+      <c r="D26" s="34">
+        <v>3</v>
+      </c>
+      <c r="E26" s="33">
+        <v>853</v>
+      </c>
+      <c r="F26" s="33">
+        <v>853</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="40">
+        <v>43806.448611111111</v>
+      </c>
+      <c r="J26" s="40">
+        <v>43806.448645833334</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>36171</v>
+      </c>
+      <c r="B27" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2.0191207104552101E+20</v>
+      </c>
+      <c r="D27" s="34">
+        <v>2</v>
+      </c>
+      <c r="E27" s="33">
+        <v>149</v>
+      </c>
+      <c r="F27" s="33">
+        <v>149</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="40">
+        <v>43806.447916666664</v>
+      </c>
+      <c r="J27" s="40">
+        <v>43806.448460648149</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>36170</v>
+      </c>
+      <c r="B28" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2.0191207104534099E+20</v>
+      </c>
+      <c r="D28" s="34">
+        <v>3</v>
+      </c>
+      <c r="E28" s="33">
+        <v>718</v>
+      </c>
+      <c r="F28" s="33">
+        <v>718</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="40">
+        <v>43806.447916666664</v>
+      </c>
+      <c r="J28" s="40">
+        <v>43806.448252314818</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>36169</v>
+      </c>
+      <c r="B29" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="33">
+        <v>2.01912071045151E+20</v>
+      </c>
+      <c r="D29" s="34">
+        <v>3</v>
+      </c>
+      <c r="E29" s="33">
+        <v>219</v>
+      </c>
+      <c r="F29" s="33">
+        <v>219</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="40">
+        <v>43806.447916666664</v>
+      </c>
+      <c r="J29" s="40">
+        <v>43806.448009259257</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>36168</v>
+      </c>
+      <c r="B30" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="33">
+        <v>2.0191207104456101E+20</v>
+      </c>
+      <c r="D30" s="34">
+        <v>5</v>
+      </c>
+      <c r="E30" s="33">
+        <v>2472</v>
+      </c>
+      <c r="F30" s="33">
+        <v>2472</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="40">
+        <v>43806.447916666664</v>
+      </c>
+      <c r="J30" s="40">
+        <v>43806.447777777779</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>36166</v>
+      </c>
+      <c r="B31" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="33">
+        <v>2.0191207104351099E+20</v>
+      </c>
+      <c r="D31" s="34">
+        <v>2</v>
+      </c>
+      <c r="E31" s="33">
+        <v>1003</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1003</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="40">
+        <v>43806.446527777778</v>
+      </c>
+      <c r="J31" s="40">
+        <v>43806.447060185186</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>36165</v>
+      </c>
+      <c r="B32" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="33">
+        <v>2.0191207104336101E+20</v>
+      </c>
+      <c r="D32" s="34">
+        <v>2</v>
+      </c>
+      <c r="E32" s="33">
+        <v>189</v>
+      </c>
+      <c r="F32" s="33">
+        <v>189</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="40">
+        <v>43806.446527777778</v>
+      </c>
+      <c r="J32" s="40">
+        <v>43806.446817129632</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
+        <v>36164</v>
+      </c>
+      <c r="B33" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="33">
+        <v>2.0191207104308101E+20</v>
+      </c>
+      <c r="D33" s="34">
+        <v>2</v>
+      </c>
+      <c r="E33" s="33">
+        <v>612</v>
+      </c>
+      <c r="F33" s="33">
+        <v>612</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="40">
+        <v>43806.446527777778</v>
+      </c>
+      <c r="J33" s="40">
+        <v>43806.446585648147</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
+        <v>36163</v>
+      </c>
+      <c r="B34" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="33">
+        <v>2.0191207104251101E+20</v>
+      </c>
+      <c r="D34" s="34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="33">
+        <v>767</v>
+      </c>
+      <c r="F34" s="33">
+        <v>767</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="40">
+        <v>43806.445833333331</v>
+      </c>
+      <c r="J34" s="40">
+        <v>43806.44636574074</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33">
+        <v>36162</v>
+      </c>
+      <c r="B35" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="33">
+        <v>2.0191207104235101E+20</v>
+      </c>
+      <c r="D35" s="34">
+        <v>2</v>
+      </c>
+      <c r="E35" s="33">
+        <v>480</v>
+      </c>
+      <c r="F35" s="33">
+        <v>480</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="40">
+        <v>43806.445833333331</v>
+      </c>
+      <c r="J35" s="40">
+        <v>43806.446192129632</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>36161</v>
+      </c>
+      <c r="B36" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="33">
+        <v>2.0191207104218101E+20</v>
+      </c>
+      <c r="D36" s="34">
+        <v>2</v>
+      </c>
+      <c r="E36" s="33">
+        <v>453</v>
+      </c>
+      <c r="F36" s="33">
+        <v>453</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="40">
+        <v>43806.445833333331</v>
+      </c>
+      <c r="J36" s="40">
+        <v>43806.445949074077</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>36160</v>
+      </c>
+      <c r="B37" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="33">
+        <v>2.0191207104159098E+20</v>
+      </c>
+      <c r="D37" s="34">
+        <v>2</v>
+      </c>
+      <c r="E37" s="33">
+        <v>1435</v>
+      </c>
+      <c r="F37" s="33">
+        <v>1435</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="40">
+        <v>43806.445833333331</v>
+      </c>
+      <c r="J37" s="40">
+        <v>43806.445740740739</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>36159</v>
+      </c>
+      <c r="B38" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="33">
+        <v>2.0191207104141099E+20</v>
+      </c>
+      <c r="D38" s="34">
+        <v>2</v>
+      </c>
+      <c r="E38" s="33">
+        <v>858</v>
+      </c>
+      <c r="F38" s="33">
+        <v>858</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="40">
+        <v>43806.445138888892</v>
+      </c>
+      <c r="J38" s="40">
+        <v>43806.445555555554</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>36158</v>
+      </c>
+      <c r="B39" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="33">
+        <v>2.0191207104125098E+20</v>
+      </c>
+      <c r="D39" s="34">
+        <v>2</v>
+      </c>
+      <c r="E39" s="33">
+        <v>418</v>
+      </c>
+      <c r="F39" s="33">
+        <v>418</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="40">
+        <v>43806.445138888892</v>
+      </c>
+      <c r="J39" s="40">
+        <v>43806.445381944446</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35">
+        <v>36157</v>
+      </c>
+      <c r="B40" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="35">
+        <v>2.01912071041111E+20</v>
+      </c>
+      <c r="D40" s="36">
+        <v>2</v>
+      </c>
+      <c r="E40" s="35">
+        <v>1048</v>
+      </c>
+      <c r="F40" s="35">
+        <v>1048</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="42">
+        <v>43806.445138888892</v>
+      </c>
+      <c r="J40" s="42">
+        <v>43806.445219907408</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
+        <v>36156</v>
+      </c>
+      <c r="B41" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="31">
+        <v>2.0191207104056099E+20</v>
+      </c>
+      <c r="D41" s="32">
+        <v>2</v>
+      </c>
+      <c r="E41" s="31">
+        <v>109</v>
+      </c>
+      <c r="F41" s="31">
+        <v>109</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="38">
+        <v>43806.445138888892</v>
+      </c>
+      <c r="J41" s="38">
+        <v>43806.444976851853</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>36155</v>
+      </c>
+      <c r="B42" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="33">
+        <v>2.0191207104035101E+20</v>
+      </c>
+      <c r="D42" s="34">
+        <v>2</v>
+      </c>
+      <c r="E42" s="33">
+        <v>129</v>
+      </c>
+      <c r="F42" s="33">
+        <v>129</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="40">
+        <v>43806.444444444445</v>
+      </c>
+      <c r="J42" s="40">
+        <v>43806.444814814815</v>
+      </c>
+      <c r="K42" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33">
+        <v>36154</v>
+      </c>
+      <c r="B43" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="33">
+        <v>2.0191207104021099E+20</v>
+      </c>
+      <c r="D43" s="34">
+        <v>2</v>
+      </c>
+      <c r="E43" s="33">
+        <v>847</v>
+      </c>
+      <c r="F43" s="33">
+        <v>847</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="40">
+        <v>43806.444444444445</v>
+      </c>
+      <c r="J43" s="40">
+        <v>43806.444652777776</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>36153</v>
+      </c>
+      <c r="B44" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="33">
+        <v>2.0191207104005099E+20</v>
+      </c>
+      <c r="D44" s="34">
+        <v>2</v>
+      </c>
+      <c r="E44" s="33">
+        <v>157.9</v>
+      </c>
+      <c r="F44" s="33">
+        <v>157.9</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="40">
+        <v>43806.444444444445</v>
+      </c>
+      <c r="J44" s="40">
+        <v>43806.444456018522</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>36152</v>
+      </c>
+      <c r="B45" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="33">
+        <v>2.0191207103950101E+20</v>
+      </c>
+      <c r="D45" s="34">
+        <v>2</v>
+      </c>
+      <c r="E45" s="33">
+        <v>190</v>
+      </c>
+      <c r="F45" s="33">
+        <v>190</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="40">
+        <v>43806.443749999999</v>
+      </c>
+      <c r="J45" s="40">
+        <v>43806.44427083333</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
+        <v>36151</v>
+      </c>
+      <c r="B46" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="33">
+        <v>2.01912071039341E+20</v>
+      </c>
+      <c r="D46" s="34">
+        <v>2</v>
+      </c>
+      <c r="E46" s="33">
+        <v>397</v>
+      </c>
+      <c r="F46" s="33">
+        <v>397</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="40">
+        <v>43806.443749999999</v>
+      </c>
+      <c r="J46" s="40">
+        <v>43806.444108796299</v>
+      </c>
+      <c r="K46" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>36150</v>
+      </c>
+      <c r="B47" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="33">
+        <v>2.0191207103921101E+20</v>
+      </c>
+      <c r="D47" s="34">
+        <v>2</v>
+      </c>
+      <c r="E47" s="33">
+        <v>115</v>
+      </c>
+      <c r="F47" s="33">
+        <v>115</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="40">
+        <v>43806.443749999999</v>
+      </c>
+      <c r="J47" s="40">
+        <v>43806.44394675926</v>
+      </c>
+      <c r="K47" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>36149</v>
+      </c>
+      <c r="B48" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="33">
+        <v>2.0191207103907099E+20</v>
+      </c>
+      <c r="D48" s="34">
+        <v>2</v>
+      </c>
+      <c r="E48" s="33">
+        <v>158</v>
+      </c>
+      <c r="F48" s="33">
+        <v>158</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="40">
+        <v>43806.443749999999</v>
+      </c>
+      <c r="J48" s="40">
+        <v>43806.443726851852</v>
+      </c>
+      <c r="K48" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
+        <v>36148</v>
+      </c>
+      <c r="B49" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="33">
+        <v>2.0191207103848101E+20</v>
+      </c>
+      <c r="D49" s="34">
+        <v>2</v>
+      </c>
+      <c r="E49" s="33">
+        <v>658</v>
+      </c>
+      <c r="F49" s="33">
+        <v>658</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="40">
+        <v>43806.443055555559</v>
+      </c>
+      <c r="J49" s="40">
+        <v>43806.443564814814</v>
+      </c>
+      <c r="K49" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33">
+        <v>36147</v>
+      </c>
+      <c r="B50" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="33">
+        <v>2.0191207103834099E+20</v>
+      </c>
+      <c r="D50" s="34">
+        <v>1</v>
+      </c>
+      <c r="E50" s="33">
+        <v>29.9</v>
+      </c>
+      <c r="F50" s="33">
+        <v>29.9</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="40">
+        <v>43806.443055555559</v>
+      </c>
+      <c r="J50" s="40">
+        <v>43806.443402777775</v>
+      </c>
+      <c r="K50" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
+        <v>36146</v>
+      </c>
+      <c r="B51" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="33">
+        <v>2.0191207103819101E+20</v>
+      </c>
+      <c r="D51" s="34">
+        <v>2</v>
+      </c>
+      <c r="E51" s="33">
+        <v>383</v>
+      </c>
+      <c r="F51" s="33">
+        <v>383</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="40">
+        <v>43806.443055555559</v>
+      </c>
+      <c r="J51" s="40">
+        <v>43806.443159722221</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="33">
+        <v>36145</v>
+      </c>
+      <c r="B52" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="33">
+        <v>2.0191207103757101E+20</v>
+      </c>
+      <c r="D52" s="34">
+        <v>2</v>
+      </c>
+      <c r="E52" s="33">
+        <v>827</v>
+      </c>
+      <c r="F52" s="33">
+        <v>827</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="40">
+        <v>43806.443055555559</v>
+      </c>
+      <c r="J52" s="40">
+        <v>43806.442986111113</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
+        <v>36144</v>
+      </c>
+      <c r="B53" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="33">
+        <v>2.0191207103743099E+20</v>
+      </c>
+      <c r="D53" s="34">
+        <v>1</v>
+      </c>
+      <c r="E53" s="33">
+        <v>279</v>
+      </c>
+      <c r="F53" s="33">
+        <v>279</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="40">
+        <v>43806.442361111112</v>
+      </c>
+      <c r="J53" s="40">
+        <v>43806.442812499998</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33">
+        <v>36143</v>
+      </c>
+      <c r="B54" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="33">
+        <v>2.0191207103728101E+20</v>
+      </c>
+      <c r="D54" s="34">
+        <v>2</v>
+      </c>
+      <c r="E54" s="33">
+        <v>137</v>
+      </c>
+      <c r="F54" s="33">
+        <v>137</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="40">
+        <v>43806.442361111112</v>
+      </c>
+      <c r="J54" s="40">
+        <v>43806.44263888889</v>
+      </c>
+      <c r="K54" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33">
+        <v>36142</v>
+      </c>
+      <c r="B55" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="33">
+        <v>2.0191207103714099E+20</v>
+      </c>
+      <c r="D55" s="34">
+        <v>2</v>
+      </c>
+      <c r="E55" s="33">
+        <v>58</v>
+      </c>
+      <c r="F55" s="33">
+        <v>58</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="40">
+        <v>43806.442361111112</v>
+      </c>
+      <c r="J55" s="40">
+        <v>43806.442430555559</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33">
+        <v>36141</v>
+      </c>
+      <c r="B56" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="33">
+        <v>2.0191207103653102E+20</v>
+      </c>
+      <c r="D56" s="34">
+        <v>2</v>
+      </c>
+      <c r="E56" s="33">
+        <v>805.9</v>
+      </c>
+      <c r="F56" s="33">
+        <v>805.9</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="40">
+        <v>43806.441666666666</v>
+      </c>
+      <c r="J56" s="40">
+        <v>43806.442245370374</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
+        <v>36140</v>
+      </c>
+      <c r="B57" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="33">
+        <v>2.01912071036391E+20</v>
+      </c>
+      <c r="D57" s="34">
+        <v>2</v>
+      </c>
+      <c r="E57" s="33">
+        <v>209</v>
+      </c>
+      <c r="F57" s="33">
+        <v>209</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="40">
+        <v>43806.441666666666</v>
+      </c>
+      <c r="J57" s="40">
+        <v>43806.442083333335</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="33">
+        <v>36139</v>
+      </c>
+      <c r="B58" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="33">
+        <v>2.0191207103625101E+20</v>
+      </c>
+      <c r="D58" s="34">
+        <v>2</v>
+      </c>
+      <c r="E58" s="33">
+        <v>164</v>
+      </c>
+      <c r="F58" s="33">
+        <v>164</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="40">
+        <v>43806.441666666666</v>
+      </c>
+      <c r="J58" s="40">
+        <v>43806.44189814815</v>
+      </c>
+      <c r="K58" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33">
+        <v>36138</v>
+      </c>
+      <c r="B59" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="33">
+        <v>2.0191207103549099E+20</v>
+      </c>
+      <c r="D59" s="34">
+        <v>2</v>
+      </c>
+      <c r="E59" s="33">
+        <v>249</v>
+      </c>
+      <c r="F59" s="33">
+        <v>249</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="40">
+        <v>43806.440972222219</v>
+      </c>
+      <c r="J59" s="40">
+        <v>43806.441481481481</v>
+      </c>
+      <c r="K59" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35">
+        <v>36137</v>
+      </c>
+      <c r="B60" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="35">
+        <v>2.0191207103534101E+20</v>
+      </c>
+      <c r="D60" s="36">
+        <v>2</v>
+      </c>
+      <c r="E60" s="35">
+        <v>109</v>
+      </c>
+      <c r="F60" s="35">
+        <v>109</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="42">
+        <v>43806.440972222219</v>
+      </c>
+      <c r="J60" s="42">
+        <v>43806.440798611111</v>
+      </c>
+      <c r="K60" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
+        <v>36136</v>
+      </c>
+      <c r="B61" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="31">
+        <v>2.01912071034341E+20</v>
+      </c>
+      <c r="D61" s="32">
+        <v>2</v>
+      </c>
+      <c r="E61" s="31">
+        <v>553</v>
+      </c>
+      <c r="F61" s="31">
+        <v>553</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="38">
+        <v>43806.44027777778</v>
+      </c>
+      <c r="J61" s="38">
+        <v>43806.440555555557</v>
+      </c>
+      <c r="K61" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33">
+        <v>36135</v>
+      </c>
+      <c r="B62" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="33">
+        <v>2.0191207103412099E+20</v>
+      </c>
+      <c r="D62" s="34">
+        <v>2</v>
+      </c>
+      <c r="E62" s="33">
+        <v>866</v>
+      </c>
+      <c r="F62" s="33">
+        <v>866</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="40">
+        <v>43806.44027777778</v>
+      </c>
+      <c r="J62" s="40">
+        <v>43806.410787037035</v>
+      </c>
+      <c r="K62" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33">
+        <v>36134</v>
+      </c>
+      <c r="B63" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="33">
+        <v>2.0191207095120101E+20</v>
+      </c>
+      <c r="D63" s="34">
+        <v>2</v>
+      </c>
+      <c r="E63" s="33">
+        <v>770</v>
+      </c>
+      <c r="F63" s="33">
+        <v>770</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="40">
+        <v>43806.410416666666</v>
+      </c>
+      <c r="J63" s="40">
+        <v>43806.410474537035</v>
+      </c>
+      <c r="K63" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35">
+        <v>36133</v>
+      </c>
+      <c r="B64" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="35">
+        <v>2.0191207094953099E+20</v>
+      </c>
+      <c r="D64" s="36">
+        <v>2</v>
+      </c>
+      <c r="E64" s="35">
+        <v>632</v>
+      </c>
+      <c r="F64" s="35">
+        <v>632</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="42">
+        <v>43806.409722222219</v>
+      </c>
+      <c r="J64" s="42">
+        <v>43806.409409722219</v>
+      </c>
+      <c r="K64" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="31">
+        <v>36220</v>
+      </c>
+      <c r="B65" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="31">
+        <v>2.0191207212141101E+20</v>
+      </c>
+      <c r="D65" s="32">
+        <v>3</v>
+      </c>
+      <c r="E65" s="31">
+        <v>1573</v>
+      </c>
+      <c r="F65" s="31">
+        <v>1573</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="38">
+        <v>43806.88958333333</v>
+      </c>
+      <c r="J65" s="38">
+        <v>43806.890011574076</v>
+      </c>
+      <c r="K65" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="33">
+        <v>36219</v>
+      </c>
+      <c r="B66" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="33">
+        <v>2.0191207212122099E+20</v>
+      </c>
+      <c r="D66" s="34">
+        <v>3</v>
+      </c>
+      <c r="E66" s="33">
+        <v>1494</v>
+      </c>
+      <c r="F66" s="33">
+        <v>1494</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="40">
+        <v>43806.88958333333</v>
+      </c>
+      <c r="J66" s="40">
+        <v>43806.889803240738</v>
+      </c>
+      <c r="K66" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33">
+        <v>36218</v>
+      </c>
+      <c r="B67" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="33">
+        <v>2.0191207212105099E+20</v>
+      </c>
+      <c r="D67" s="34">
+        <v>3</v>
+      </c>
+      <c r="E67" s="33">
+        <v>855</v>
+      </c>
+      <c r="F67" s="33">
+        <v>855</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="40">
+        <v>43806.88958333333</v>
+      </c>
+      <c r="J67" s="40">
+        <v>43806.889606481483</v>
+      </c>
+      <c r="K67" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
+        <v>36217</v>
+      </c>
+      <c r="B68" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="33">
+        <v>2.0191207212036099E+20</v>
+      </c>
+      <c r="D68" s="34">
+        <v>2</v>
+      </c>
+      <c r="E68" s="33">
+        <v>341</v>
+      </c>
+      <c r="F68" s="33">
+        <v>341</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="40">
+        <v>43806.888888888891</v>
+      </c>
+      <c r="J68" s="40">
+        <v>43806.88925925926</v>
+      </c>
+      <c r="K68" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
+        <v>36216</v>
+      </c>
+      <c r="B69" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="33">
+        <v>2.0191207212019099E+20</v>
+      </c>
+      <c r="D69" s="34">
+        <v>3</v>
+      </c>
+      <c r="E69" s="33">
+        <v>1036</v>
+      </c>
+      <c r="F69" s="33">
+        <v>1036</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="40">
+        <v>43806.888888888891</v>
+      </c>
+      <c r="J69" s="40">
+        <v>43806.889062499999</v>
+      </c>
+      <c r="K69" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="33">
+        <v>36215</v>
+      </c>
+      <c r="B70" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="33">
+        <v>2.01912072120001E+20</v>
+      </c>
+      <c r="D70" s="34">
+        <v>2</v>
+      </c>
+      <c r="E70" s="33">
+        <v>336</v>
+      </c>
+      <c r="F70" s="33">
+        <v>336</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="40">
+        <v>43806.888888888891</v>
+      </c>
+      <c r="J70" s="40">
+        <v>43806.888842592591</v>
+      </c>
+      <c r="K70" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="33">
+        <v>36213</v>
+      </c>
+      <c r="B71" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="33">
+        <v>2.0191207211942101E+20</v>
+      </c>
+      <c r="D71" s="34">
+        <v>3</v>
+      </c>
+      <c r="E71" s="33">
+        <v>419.9</v>
+      </c>
+      <c r="F71" s="33">
+        <v>419.9</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="40">
+        <v>43806.888194444444</v>
+      </c>
+      <c r="J71" s="40">
+        <v>43806.88863425926</v>
+      </c>
+      <c r="K71" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="33">
+        <v>36212</v>
+      </c>
+      <c r="B72" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="33">
+        <v>2.0191207211856101E+20</v>
+      </c>
+      <c r="D72" s="34">
+        <v>2</v>
+      </c>
+      <c r="E72" s="33">
+        <v>427</v>
+      </c>
+      <c r="F72" s="33">
+        <v>427</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="40">
+        <v>43806.888194444444</v>
+      </c>
+      <c r="J72" s="40">
+        <v>43806.888113425928</v>
+      </c>
+      <c r="K72" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="33">
+        <v>36211</v>
+      </c>
+      <c r="B73" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="33">
+        <v>2.01912072118191E+20</v>
+      </c>
+      <c r="D73" s="34">
+        <v>3</v>
+      </c>
+      <c r="E73" s="33">
+        <v>1568.9</v>
+      </c>
+      <c r="F73" s="33">
+        <v>1568.9</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="40">
+        <v>43806.887499999997</v>
+      </c>
+      <c r="J73" s="40">
+        <v>43806.887685185182</v>
+      </c>
+      <c r="K73" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="33">
+        <v>36210</v>
+      </c>
+      <c r="B74" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="33">
+        <v>2.0191207211740099E+20</v>
+      </c>
+      <c r="D74" s="34">
+        <v>3</v>
+      </c>
+      <c r="E74" s="33">
+        <v>284</v>
+      </c>
+      <c r="F74" s="33">
+        <v>284</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="40">
+        <v>43806.887499999997</v>
+      </c>
+      <c r="J74" s="40">
+        <v>43806.887152777781</v>
+      </c>
+      <c r="K74" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="33">
+        <v>36209</v>
+      </c>
+      <c r="B75" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="33">
+        <v>2.01912072117051E+20</v>
+      </c>
+      <c r="D75" s="34">
+        <v>3</v>
+      </c>
+      <c r="E75" s="33">
+        <v>1039</v>
+      </c>
+      <c r="F75" s="33">
+        <v>1039</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="40">
+        <v>43806.886805555558</v>
+      </c>
+      <c r="J75" s="40">
+        <v>43806.886817129627</v>
+      </c>
+      <c r="K75" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="33">
+        <v>36208</v>
+      </c>
+      <c r="B76" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="33">
+        <v>2.0191207211647101E+20</v>
+      </c>
+      <c r="D76" s="34">
+        <v>4</v>
+      </c>
+      <c r="E76" s="33">
+        <v>2442</v>
+      </c>
+      <c r="F76" s="33">
+        <v>2442</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="40">
+        <v>43806.886111111111</v>
+      </c>
+      <c r="J76" s="40">
+        <v>43806.88658564815</v>
+      </c>
+      <c r="K76" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="33">
+        <v>36207</v>
+      </c>
+      <c r="B77" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="33">
+        <v>2.0191207211605098E+20</v>
+      </c>
+      <c r="D77" s="34">
+        <v>3</v>
+      </c>
+      <c r="E77" s="33">
+        <v>1107</v>
+      </c>
+      <c r="F77" s="33">
+        <v>1107</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="40">
+        <v>43806.886111111111</v>
+      </c>
+      <c r="J77" s="40">
+        <v>43806.886134259257</v>
+      </c>
+      <c r="K77" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="33">
+        <v>36206</v>
+      </c>
+      <c r="B78" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="33">
+        <v>2.0191207211548099E+20</v>
+      </c>
+      <c r="D78" s="34">
+        <v>3</v>
+      </c>
+      <c r="E78" s="33">
+        <v>951</v>
+      </c>
+      <c r="F78" s="33">
+        <v>951</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="40">
+        <v>43806.885416666664</v>
+      </c>
+      <c r="J78" s="40">
+        <v>43806.885868055557</v>
+      </c>
+      <c r="K78" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33">
+        <v>36205</v>
+      </c>
+      <c r="B79" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="33">
+        <v>2.0191207211527101E+20</v>
+      </c>
+      <c r="D79" s="34">
+        <v>2</v>
+      </c>
+      <c r="E79" s="33">
+        <v>351</v>
+      </c>
+      <c r="F79" s="33">
+        <v>351</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="40">
+        <v>43806.885416666664</v>
+      </c>
+      <c r="J79" s="40">
+        <v>43806.885682870372</v>
+      </c>
+      <c r="K79" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="33">
+        <v>36204</v>
+      </c>
+      <c r="B80" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="33">
+        <v>2.01912072115111E+20</v>
+      </c>
+      <c r="D80" s="34">
+        <v>3</v>
+      </c>
+      <c r="E80" s="33">
+        <v>1569</v>
+      </c>
+      <c r="F80" s="33">
+        <v>1569</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="40">
+        <v>43806.885416666664</v>
+      </c>
+      <c r="J80" s="40">
+        <v>43806.885497685187</v>
+      </c>
+      <c r="K80" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="33">
+        <v>36203</v>
+      </c>
+      <c r="B81" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="33">
+        <v>2.01912072114541E+20</v>
+      </c>
+      <c r="D81" s="34">
+        <v>3</v>
+      </c>
+      <c r="E81" s="33">
+        <v>1482</v>
+      </c>
+      <c r="F81" s="33">
+        <v>1482</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="40">
+        <v>43806.884722222225</v>
+      </c>
+      <c r="J81" s="40">
+        <v>43806.885231481479</v>
+      </c>
+      <c r="K81" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="33">
+        <v>36202</v>
+      </c>
+      <c r="B82" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="33">
+        <v>2.0191207211427099E+20</v>
+      </c>
+      <c r="D82" s="34">
+        <v>3</v>
+      </c>
+      <c r="E82" s="33">
+        <v>809</v>
+      </c>
+      <c r="F82" s="33">
+        <v>809</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="40">
+        <v>43806.884722222225</v>
+      </c>
+      <c r="J82" s="40">
+        <v>43806.88480324074</v>
+      </c>
+      <c r="K82" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="35">
+        <v>36201</v>
+      </c>
+      <c r="B83" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="35">
+        <v>2.0191207211350101E+20</v>
+      </c>
+      <c r="D83" s="36">
+        <v>3</v>
+      </c>
+      <c r="E83" s="35">
+        <v>650</v>
+      </c>
+      <c r="F83" s="35">
+        <v>650</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="42">
+        <v>43806.884027777778</v>
+      </c>
+      <c r="J83" s="42">
+        <v>43806.884467592594</v>
+      </c>
+      <c r="K83" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31">
+        <v>36224</v>
+      </c>
+      <c r="B84" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C84" s="31">
+        <v>2.0191207212409101E+20</v>
+      </c>
+      <c r="D84" s="32">
+        <v>2</v>
+      </c>
+      <c r="E84" s="31">
+        <v>231</v>
+      </c>
+      <c r="F84" s="31">
+        <v>231</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="38">
+        <v>43806.89166666667</v>
+      </c>
+      <c r="J84" s="38">
+        <v>43806.891736111109</v>
+      </c>
+      <c r="K84" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="33">
+        <v>36223</v>
+      </c>
+      <c r="B85" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C85" s="33">
+        <v>2.0191207212352101E+20</v>
+      </c>
+      <c r="D85" s="34">
+        <v>3</v>
+      </c>
+      <c r="E85" s="33">
+        <v>959</v>
+      </c>
+      <c r="F85" s="33">
+        <v>959</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="40">
+        <v>43806.890972222223</v>
+      </c>
+      <c r="J85" s="40">
+        <v>43806.891527777778</v>
+      </c>
+      <c r="K85" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="35">
+        <v>36221</v>
+      </c>
+      <c r="B86" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C86" s="35">
+        <v>2.0191207212329101E+20</v>
+      </c>
+      <c r="D86" s="36">
+        <v>3</v>
+      </c>
+      <c r="E86" s="35">
+        <v>335</v>
+      </c>
+      <c r="F86" s="35">
+        <v>335</v>
+      </c>
+      <c r="G86" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="42">
+        <v>43806.890972222223</v>
+      </c>
+      <c r="J86" s="42">
+        <v>43806.89025462963</v>
+      </c>
+      <c r="K86" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" display="javascript:;" xr:uid="{F219494E-47D9-4D45-B995-0610F12AEE91}"/>
+    <hyperlink ref="K2" r:id="rId2" display="javascript:;" xr:uid="{D3DAFF9E-DCB8-4DEE-9D37-33F5506F307C}"/>
+    <hyperlink ref="K3" r:id="rId3" display="javascript:;" xr:uid="{6F5F606A-0E4F-40BA-BA58-35AF7F6AE78B}"/>
+    <hyperlink ref="K4" r:id="rId4" display="javascript:;" xr:uid="{55FE3698-1E37-45A9-BB18-132379711D35}"/>
+    <hyperlink ref="K5" r:id="rId5" display="javascript:;" xr:uid="{58C33172-CA1F-41A6-9953-98D9B9B14FEE}"/>
+    <hyperlink ref="K6" r:id="rId6" display="javascript:;" xr:uid="{BB06903C-152C-48BD-AFCA-1B888BFA8AF9}"/>
+    <hyperlink ref="K7" r:id="rId7" display="javascript:;" xr:uid="{75CAC9C2-241F-48E6-B58B-BEFD3B6893C2}"/>
+    <hyperlink ref="K8" r:id="rId8" display="javascript:;" xr:uid="{4EC0F474-3DAE-4F3F-BBA7-3CE694958699}"/>
+    <hyperlink ref="K9" r:id="rId9" display="javascript:;" xr:uid="{CEBB4057-22E9-4CC8-B61D-C83E86CF94E3}"/>
+    <hyperlink ref="K10" r:id="rId10" display="javascript:;" xr:uid="{3981B659-B99C-4461-8B71-6CE1AA4434B1}"/>
+    <hyperlink ref="K11" r:id="rId11" display="javascript:;" xr:uid="{28166BEF-9322-43A5-BE8B-B26256A44876}"/>
+    <hyperlink ref="K12" r:id="rId12" display="javascript:;" xr:uid="{7E37265F-16B8-4291-8AFF-8883E74CFC37}"/>
+    <hyperlink ref="K13" r:id="rId13" display="javascript:;" xr:uid="{814A1EB7-2982-4BA4-8FF5-65BCF46EA7A8}"/>
+    <hyperlink ref="K14" r:id="rId14" display="javascript:;" xr:uid="{BFC814DA-AE65-4BA8-A26E-795D1784FAC2}"/>
+    <hyperlink ref="K15" r:id="rId15" display="javascript:;" xr:uid="{B767A5B9-9F0E-4348-AF46-F67505601BD7}"/>
+    <hyperlink ref="K16" r:id="rId16" display="javascript:;" xr:uid="{38ED081F-350E-491D-A886-14277CE013B8}"/>
+    <hyperlink ref="K17" r:id="rId17" display="javascript:;" xr:uid="{A1E041F1-385B-4DC7-93CA-134E72036E20}"/>
+    <hyperlink ref="K18" r:id="rId18" display="javascript:;" xr:uid="{90BBB836-0D50-4DE4-A54E-698102C8C842}"/>
+    <hyperlink ref="K19" r:id="rId19" display="javascript:;" xr:uid="{FD0911E6-3505-4F07-AF43-ADB4A2C953A4}"/>
+    <hyperlink ref="K20" r:id="rId20" display="javascript:;" xr:uid="{167D2770-2D01-4849-A049-743768670550}"/>
+    <hyperlink ref="K21" r:id="rId21" display="javascript:;" xr:uid="{A9B8131C-E509-405B-85C2-3A7852F556F4}"/>
+    <hyperlink ref="K22" r:id="rId22" display="javascript:;" xr:uid="{F02FA1A4-7AC4-4EA4-85D2-EAC5C08B5C4E}"/>
+    <hyperlink ref="K23" r:id="rId23" display="javascript:;" xr:uid="{E9289242-C035-4347-B33C-3849C333391C}"/>
+    <hyperlink ref="K24" r:id="rId24" display="javascript:;" xr:uid="{7FC493DE-ED1E-4468-B62B-11E2C44FA091}"/>
+    <hyperlink ref="K25" r:id="rId25" display="javascript:;" xr:uid="{3A6DD23F-38E6-4CB0-8966-FF187BFAC9B9}"/>
+    <hyperlink ref="K26" r:id="rId26" display="javascript:;" xr:uid="{736E72CC-374B-47DF-A1CD-13F102779519}"/>
+    <hyperlink ref="K27" r:id="rId27" display="javascript:;" xr:uid="{34AAB277-7CCB-448E-B346-E9F18484CF29}"/>
+    <hyperlink ref="K28" r:id="rId28" display="javascript:;" xr:uid="{72953C8F-8E28-4EB8-9D8B-4016AC117820}"/>
+    <hyperlink ref="K29" r:id="rId29" display="javascript:;" xr:uid="{D08BD7A0-2E8A-408E-B9FC-9675F7CFC71D}"/>
+    <hyperlink ref="K30" r:id="rId30" display="javascript:;" xr:uid="{B39C10EF-B0DC-4F08-AD49-065358DF3A1B}"/>
+    <hyperlink ref="K31" r:id="rId31" display="javascript:;" xr:uid="{B39B2E9E-911B-443C-B8BA-B45784C33986}"/>
+    <hyperlink ref="K32" r:id="rId32" display="javascript:;" xr:uid="{51E19EE7-22A2-4CD6-9B65-67A54392071C}"/>
+    <hyperlink ref="K33" r:id="rId33" display="javascript:;" xr:uid="{1CF34563-94FC-4E59-BBBA-132A1E7DFB36}"/>
+    <hyperlink ref="K34" r:id="rId34" display="javascript:;" xr:uid="{1C7F53F7-A90D-43C9-BEA9-F14C0D0A07C5}"/>
+    <hyperlink ref="K35" r:id="rId35" display="javascript:;" xr:uid="{EAB65E5D-F14D-4EAF-AF7D-9E39F410EC69}"/>
+    <hyperlink ref="K36" r:id="rId36" display="javascript:;" xr:uid="{FEBFDFC5-D65D-4956-9804-8D7C3F10F908}"/>
+    <hyperlink ref="K37" r:id="rId37" display="javascript:;" xr:uid="{FBB306F8-2FF6-4C40-BF3C-95D5F5038F1B}"/>
+    <hyperlink ref="K38" r:id="rId38" display="javascript:;" xr:uid="{F1565BF8-A984-403A-A698-49FA6D51DFE1}"/>
+    <hyperlink ref="K39" r:id="rId39" display="javascript:;" xr:uid="{5753DD44-6907-4208-9508-85FEBEC27116}"/>
+    <hyperlink ref="K40" r:id="rId40" display="javascript:;" xr:uid="{59ECF38D-78C4-4841-860A-75A63BBF42B1}"/>
+    <hyperlink ref="K41" r:id="rId41" display="javascript:;" xr:uid="{85A9B539-3913-4AF5-89FE-E6991787C747}"/>
+    <hyperlink ref="K42" r:id="rId42" display="javascript:;" xr:uid="{A6E7E9FC-3A71-44E6-8554-2FC47B474EBE}"/>
+    <hyperlink ref="K43" r:id="rId43" display="javascript:;" xr:uid="{F7B7E509-C24B-47E9-A546-C9FCFABCF391}"/>
+    <hyperlink ref="K44" r:id="rId44" display="javascript:;" xr:uid="{12F67ED8-0082-413E-9EAC-BAE48AF8A89C}"/>
+    <hyperlink ref="K45" r:id="rId45" display="javascript:;" xr:uid="{3B249350-140D-4EA0-80B2-D80BD376CAD6}"/>
+    <hyperlink ref="K46" r:id="rId46" display="javascript:;" xr:uid="{2A28B517-B310-456A-8358-B7BCC1E7FDFD}"/>
+    <hyperlink ref="K47" r:id="rId47" display="javascript:;" xr:uid="{C2202FB2-8E12-4A9B-9626-C0FBCE5D8635}"/>
+    <hyperlink ref="K48" r:id="rId48" display="javascript:;" xr:uid="{98D2AF8A-77A9-46A8-9BA1-C1AAF61887EA}"/>
+    <hyperlink ref="K49" r:id="rId49" display="javascript:;" xr:uid="{1C32A5EB-7105-4084-8168-97117FB627C3}"/>
+    <hyperlink ref="K50" r:id="rId50" display="javascript:;" xr:uid="{949935CC-4D68-43A5-BE7F-F3F621301207}"/>
+    <hyperlink ref="K51" r:id="rId51" display="javascript:;" xr:uid="{5F44EAEF-27CB-43AA-B608-97C8615B93D5}"/>
+    <hyperlink ref="K52" r:id="rId52" display="javascript:;" xr:uid="{1D44DF65-7B9E-4578-8D82-6E1921A5B737}"/>
+    <hyperlink ref="K53" r:id="rId53" display="javascript:;" xr:uid="{2D5400CF-A0B7-44A2-80D3-20CDA4D77207}"/>
+    <hyperlink ref="K54" r:id="rId54" display="javascript:;" xr:uid="{D7B773C5-EE86-4382-BABD-1D779F14FA53}"/>
+    <hyperlink ref="K55" r:id="rId55" display="javascript:;" xr:uid="{3E87BF8A-A95B-4440-87E3-346E01E1BEC9}"/>
+    <hyperlink ref="K56" r:id="rId56" display="javascript:;" xr:uid="{56D4BD5A-1FAA-4E5C-9BDD-158BDF2DC2CD}"/>
+    <hyperlink ref="K57" r:id="rId57" display="javascript:;" xr:uid="{F8417500-F795-4B75-BB7D-3F92DC815D67}"/>
+    <hyperlink ref="K58" r:id="rId58" display="javascript:;" xr:uid="{FDC8A086-B9E4-492B-AFCA-ACD9878F0342}"/>
+    <hyperlink ref="K59" r:id="rId59" display="javascript:;" xr:uid="{FFFB8CE4-C721-4699-9592-9300320FC2FC}"/>
+    <hyperlink ref="K60" r:id="rId60" display="javascript:;" xr:uid="{870F6C17-DCAD-4283-8CD1-F869B848B32D}"/>
+    <hyperlink ref="K61" r:id="rId61" display="javascript:;" xr:uid="{7167A389-6927-4EE2-8974-7B9E324E86CA}"/>
+    <hyperlink ref="K62" r:id="rId62" display="javascript:;" xr:uid="{3057172D-92E1-4C02-ADC7-0AA59A670DD9}"/>
+    <hyperlink ref="K63" r:id="rId63" display="javascript:;" xr:uid="{8606D0AB-D3FC-4A8B-B903-11254A5680B2}"/>
+    <hyperlink ref="K64" r:id="rId64" display="javascript:;" xr:uid="{FB93F650-DA27-4E16-A60E-BDED206B0010}"/>
+    <hyperlink ref="K65" r:id="rId65" display="javascript:;" xr:uid="{2A87E0EF-1D95-42C8-A263-DAEB2B0E373D}"/>
+    <hyperlink ref="K66" r:id="rId66" display="javascript:;" xr:uid="{40B878CF-A934-4E95-86EB-DACA0D945620}"/>
+    <hyperlink ref="K67" r:id="rId67" display="javascript:;" xr:uid="{0F666438-0F73-425B-92AF-CD6A7CBEBFE5}"/>
+    <hyperlink ref="K68" r:id="rId68" display="javascript:;" xr:uid="{26C2342C-E3FC-48F0-887A-EF8D08D3ADE1}"/>
+    <hyperlink ref="K69" r:id="rId69" display="javascript:;" xr:uid="{260C06A0-63DA-46A9-B1DC-F5323F4DDBFC}"/>
+    <hyperlink ref="K70" r:id="rId70" display="javascript:;" xr:uid="{A9C6FEFC-62D2-492B-A7E2-724A27F60D15}"/>
+    <hyperlink ref="K71" r:id="rId71" display="javascript:;" xr:uid="{FDA26BB8-F634-4AC9-A6BA-CD3D1A606BFA}"/>
+    <hyperlink ref="K72" r:id="rId72" display="javascript:;" xr:uid="{3697148D-AC03-48A5-B921-80A8916186C6}"/>
+    <hyperlink ref="K73" r:id="rId73" display="javascript:;" xr:uid="{AEE98034-CAF8-4D27-82B1-EAE3C40C4BE7}"/>
+    <hyperlink ref="K74" r:id="rId74" display="javascript:;" xr:uid="{9E1C84D2-6215-4F05-8A2B-460E86446E83}"/>
+    <hyperlink ref="K75" r:id="rId75" display="javascript:;" xr:uid="{19097419-50AE-4E25-8ACD-CD76753F4DD2}"/>
+    <hyperlink ref="K76" r:id="rId76" display="javascript:;" xr:uid="{2473616B-2A3F-4EC7-ADEF-E1A375DCEF42}"/>
+    <hyperlink ref="K77" r:id="rId77" display="javascript:;" xr:uid="{27207BD9-FE39-4CFC-9143-DCE82DE00EBA}"/>
+    <hyperlink ref="K78" r:id="rId78" display="javascript:;" xr:uid="{B8F7CFFF-A356-40DC-A9BA-2447B3421746}"/>
+    <hyperlink ref="K79" r:id="rId79" display="javascript:;" xr:uid="{E1558C86-16DD-4AFE-97EB-CCEC04AC3C16}"/>
+    <hyperlink ref="K80" r:id="rId80" display="javascript:;" xr:uid="{9C49AC8E-AACF-4CC0-92E8-67F59A9154E9}"/>
+    <hyperlink ref="K81" r:id="rId81" display="javascript:;" xr:uid="{D8A54144-9728-4589-B84D-2098901D4EEB}"/>
+    <hyperlink ref="K82" r:id="rId82" display="javascript:;" xr:uid="{BF50136C-5D89-4DB2-80CD-CA23D95357C4}"/>
+    <hyperlink ref="K83" r:id="rId83" display="javascript:;" xr:uid="{71C325BE-5E0A-4FFE-8C31-4C2C2E502587}"/>
+    <hyperlink ref="K84" r:id="rId84" display="javascript:;" xr:uid="{3F578740-3314-41DE-9658-865F112AB8C2}"/>
+    <hyperlink ref="K85" r:id="rId85" display="javascript:;" xr:uid="{EE43801A-2E1C-4C09-B856-3C67D6FB7AB0}"/>
+    <hyperlink ref="K86" r:id="rId86" display="javascript:;" xr:uid="{84E50FBC-3EF3-401C-A1B6-CA2D59718515}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+</worksheet>
 </file>
--- a/s_d/麻吉12月.xlsx
+++ b/s_d/麻吉12月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03069038-34F9-4768-83A0-08928FF93519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2553B422-B8D3-44C7-963E-01302D931814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="12.5" sheetId="6" r:id="rId5"/>
     <sheet name="12.6" sheetId="7" r:id="rId6"/>
     <sheet name="12.7" sheetId="8" r:id="rId7"/>
+    <sheet name="12.8" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -165,12 +166,30 @@
       <t>订单发货</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>查看详情 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0066CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>订单发货</t>
+    </r>
+  </si>
+  <si>
+    <t>无订单</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +249,28 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0066CC"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -332,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -488,6 +529,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25389,8 +25473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D47D5CB-D9C9-4F35-88AE-A8293AF43A4B}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28534,4 +28618,2924 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B5F6B0-CE3D-4BC9-B039-3F87BB829862}">
+  <dimension ref="A1:P80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54">
+        <v>36295</v>
+      </c>
+      <c r="B1" s="54">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2.0191208151927099E+20</v>
+      </c>
+      <c r="D1" s="55">
+        <v>1</v>
+      </c>
+      <c r="E1" s="54">
+        <v>29.9</v>
+      </c>
+      <c r="F1" s="54">
+        <v>29.9</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="54"/>
+      <c r="J1" s="56">
+        <v>43807.638391203705</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="63">
+        <v>29.9</v>
+      </c>
+      <c r="F2" s="63">
+        <v>29.9</v>
+      </c>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
+        <v>36294</v>
+      </c>
+      <c r="B3" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="35">
+        <v>2.0191208151854101E+20</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35">
+        <v>29.9</v>
+      </c>
+      <c r="F3" s="35">
+        <v>29.9</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="42">
+        <v>43807.638194444444</v>
+      </c>
+      <c r="J3" s="42">
+        <v>43807.635497685187</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58">
+        <v>36290</v>
+      </c>
+      <c r="B4" s="58">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="58">
+        <v>2.01912081220351E+20</v>
+      </c>
+      <c r="D4" s="59">
+        <v>3</v>
+      </c>
+      <c r="E4" s="58">
+        <v>1838</v>
+      </c>
+      <c r="F4" s="58">
+        <v>1838</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="60">
+        <v>43807.513888888891</v>
+      </c>
+      <c r="J4" s="60">
+        <v>43807.513124999998</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>36288</v>
+      </c>
+      <c r="B5" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2.0191208121818101E+20</v>
+      </c>
+      <c r="D5" s="32">
+        <v>4</v>
+      </c>
+      <c r="E5" s="31">
+        <v>817</v>
+      </c>
+      <c r="F5" s="31">
+        <v>817</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="38">
+        <v>43807.512499999997</v>
+      </c>
+      <c r="J5" s="38">
+        <v>43807.512638888889</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>36287</v>
+      </c>
+      <c r="B6" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="33">
+        <v>2.01912081217341E+20</v>
+      </c>
+      <c r="D6" s="34">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33">
+        <v>834</v>
+      </c>
+      <c r="F6" s="33">
+        <v>834</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="40">
+        <v>43807.511805555558</v>
+      </c>
+      <c r="J6" s="40">
+        <v>43807.512164351851</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>36286</v>
+      </c>
+      <c r="B7" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2.0191208121702099E+20</v>
+      </c>
+      <c r="D7" s="34">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33">
+        <v>99.8</v>
+      </c>
+      <c r="F7" s="33">
+        <v>99.8</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="40">
+        <v>43807.511805555558</v>
+      </c>
+      <c r="J7" s="40">
+        <v>43807.511736111112</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>36285</v>
+      </c>
+      <c r="B8" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2.0191208121640101E+20</v>
+      </c>
+      <c r="D8" s="34">
+        <v>3</v>
+      </c>
+      <c r="E8" s="33">
+        <v>575</v>
+      </c>
+      <c r="F8" s="33">
+        <v>575</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="40">
+        <v>43807.511111111111</v>
+      </c>
+      <c r="J8" s="40">
+        <v>43807.51153935185</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>36284</v>
+      </c>
+      <c r="B9" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="33">
+        <v>2.0191208121623101E+20</v>
+      </c>
+      <c r="D9" s="34">
+        <v>3</v>
+      </c>
+      <c r="E9" s="33">
+        <v>488</v>
+      </c>
+      <c r="F9" s="33">
+        <v>488</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="40">
+        <v>43807.511111111111</v>
+      </c>
+      <c r="J9" s="40">
+        <v>43807.511307870373</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="11">
+        <v>50000</v>
+      </c>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>36283</v>
+      </c>
+      <c r="B10" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2.0191208121605099E+20</v>
+      </c>
+      <c r="D10" s="34">
+        <v>3</v>
+      </c>
+      <c r="E10" s="33">
+        <v>714</v>
+      </c>
+      <c r="F10" s="33">
+        <v>714</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="40">
+        <v>43807.511111111111</v>
+      </c>
+      <c r="J10" s="40">
+        <v>43807.511134259257</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="11">
+        <v>20000</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>36282</v>
+      </c>
+      <c r="B11" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2.0191208121548099E+20</v>
+      </c>
+      <c r="D11" s="34">
+        <v>3</v>
+      </c>
+      <c r="E11" s="33">
+        <v>387</v>
+      </c>
+      <c r="F11" s="33">
+        <v>387</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="40">
+        <v>43807.510416666664</v>
+      </c>
+      <c r="J11" s="40">
+        <v>43807.510925925926</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <v>72318.2</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>36281</v>
+      </c>
+      <c r="B12" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="33">
+        <v>2.0191208121531099E+20</v>
+      </c>
+      <c r="D12" s="34">
+        <v>3</v>
+      </c>
+      <c r="E12" s="33">
+        <v>695</v>
+      </c>
+      <c r="F12" s="33">
+        <v>695</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="40">
+        <v>43807.510416666664</v>
+      </c>
+      <c r="J12" s="40">
+        <v>43807.510636574072</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="11">
+        <v>-3000.94</v>
+      </c>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>36280</v>
+      </c>
+      <c r="B13" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="33">
+        <v>2.0191208121503098E+20</v>
+      </c>
+      <c r="D13" s="34">
+        <v>3</v>
+      </c>
+      <c r="E13" s="33">
+        <v>199</v>
+      </c>
+      <c r="F13" s="33">
+        <v>199</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="40">
+        <v>43807.510416666664</v>
+      </c>
+      <c r="J13" s="40">
+        <v>43807.510370370372</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>36279</v>
+      </c>
+      <c r="B14" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="33">
+        <v>2.0191208121442101E+20</v>
+      </c>
+      <c r="D14" s="34">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <v>1390</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1390</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="40">
+        <v>43807.509722222225</v>
+      </c>
+      <c r="J14" s="40">
+        <v>43807.510138888887</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>36278</v>
+      </c>
+      <c r="B15" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2.01912081214201E+20</v>
+      </c>
+      <c r="D15" s="34">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33">
+        <v>763</v>
+      </c>
+      <c r="F15" s="33">
+        <v>763</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="40">
+        <v>43807.509722222225</v>
+      </c>
+      <c r="J15" s="40">
+        <v>43807.509918981479</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
+        <v>36277</v>
+      </c>
+      <c r="B16" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="35">
+        <v>2.0191208121405099E+20</v>
+      </c>
+      <c r="D16" s="36">
+        <v>3</v>
+      </c>
+      <c r="E16" s="35">
+        <v>224</v>
+      </c>
+      <c r="F16" s="35">
+        <v>224</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="42">
+        <v>43807.509722222225</v>
+      </c>
+      <c r="J16" s="42">
+        <v>43807.509699074071</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58">
+        <v>36276</v>
+      </c>
+      <c r="B17" s="58">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="58">
+        <v>2.0191208121343099E+20</v>
+      </c>
+      <c r="D17" s="59">
+        <v>3</v>
+      </c>
+      <c r="E17" s="58">
+        <v>1068.9000000000001</v>
+      </c>
+      <c r="F17" s="58">
+        <v>1068.9000000000001</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="60">
+        <v>43807.509027777778</v>
+      </c>
+      <c r="J17" s="60">
+        <v>43807.508831018517</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>36274</v>
+      </c>
+      <c r="B18" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="31">
+        <v>2.0191208121214101E+20</v>
+      </c>
+      <c r="D18" s="32">
+        <v>3</v>
+      </c>
+      <c r="E18" s="31">
+        <v>652</v>
+      </c>
+      <c r="F18" s="31">
+        <v>652</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="38">
+        <v>43807.508333333331</v>
+      </c>
+      <c r="J18" s="38">
+        <v>43807.508437500001</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>36273</v>
+      </c>
+      <c r="B19" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="33">
+        <v>2.0191208121155099E+20</v>
+      </c>
+      <c r="D19" s="34">
+        <v>3</v>
+      </c>
+      <c r="E19" s="33">
+        <v>638</v>
+      </c>
+      <c r="F19" s="33">
+        <v>638</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="40">
+        <v>43807.508333333331</v>
+      </c>
+      <c r="J19" s="40">
+        <v>43807.508229166669</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>36272</v>
+      </c>
+      <c r="B20" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="33">
+        <v>2.01912081211371E+20</v>
+      </c>
+      <c r="D20" s="34">
+        <v>3</v>
+      </c>
+      <c r="E20" s="33">
+        <v>1357</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1357</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="40">
+        <v>43807.507638888892</v>
+      </c>
+      <c r="J20" s="40">
+        <v>43807.508020833331</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>36271</v>
+      </c>
+      <c r="B21" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="33">
+        <v>2.0191208121121099E+20</v>
+      </c>
+      <c r="D21" s="34">
+        <v>2</v>
+      </c>
+      <c r="E21" s="33">
+        <v>1233</v>
+      </c>
+      <c r="F21" s="33">
+        <v>1233</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="40">
+        <v>43807.507638888892</v>
+      </c>
+      <c r="J21" s="40">
+        <v>43807.507847222223</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>36270</v>
+      </c>
+      <c r="B22" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="33">
+        <v>2.01912081211021E+20</v>
+      </c>
+      <c r="D22" s="34">
+        <v>3</v>
+      </c>
+      <c r="E22" s="33">
+        <v>378</v>
+      </c>
+      <c r="F22" s="33">
+        <v>378</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="40">
+        <v>43807.507638888892</v>
+      </c>
+      <c r="J22" s="40">
+        <v>43807.507615740738</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>36269</v>
+      </c>
+      <c r="B23" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2.01912081210451E+20</v>
+      </c>
+      <c r="D23" s="34">
+        <v>3</v>
+      </c>
+      <c r="E23" s="33">
+        <v>722</v>
+      </c>
+      <c r="F23" s="33">
+        <v>722</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="40">
+        <v>43807.506944444445</v>
+      </c>
+      <c r="J23" s="40">
+        <v>43807.507395833331</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>36268</v>
+      </c>
+      <c r="B24" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="33">
+        <v>2.0191208121026101E+20</v>
+      </c>
+      <c r="D24" s="34">
+        <v>3</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1288</v>
+      </c>
+      <c r="F24" s="33">
+        <v>1288</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="40">
+        <v>43807.506944444445</v>
+      </c>
+      <c r="J24" s="40">
+        <v>43807.507199074076</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>36267</v>
+      </c>
+      <c r="B25" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="33">
+        <v>2.0191208121008099E+20</v>
+      </c>
+      <c r="D25" s="34">
+        <v>3</v>
+      </c>
+      <c r="E25" s="33">
+        <v>783</v>
+      </c>
+      <c r="F25" s="33">
+        <v>783</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="40">
+        <v>43807.506944444445</v>
+      </c>
+      <c r="J25" s="40">
+        <v>43807.506990740738</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>36266</v>
+      </c>
+      <c r="B26" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="33">
+        <v>2.0191208120947101E+20</v>
+      </c>
+      <c r="D26" s="34">
+        <v>3</v>
+      </c>
+      <c r="E26" s="33">
+        <v>669</v>
+      </c>
+      <c r="F26" s="33">
+        <v>669</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="40">
+        <v>43807.506249999999</v>
+      </c>
+      <c r="J26" s="40">
+        <v>43807.50677083333</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>36265</v>
+      </c>
+      <c r="B27" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2.01912081209151E+20</v>
+      </c>
+      <c r="D27" s="34">
+        <v>3</v>
+      </c>
+      <c r="E27" s="33">
+        <v>202</v>
+      </c>
+      <c r="F27" s="33">
+        <v>202</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="40">
+        <v>43807.506249999999</v>
+      </c>
+      <c r="J27" s="40">
+        <v>43807.506342592591</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>36264</v>
+      </c>
+      <c r="B28" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2.0191208120856101E+20</v>
+      </c>
+      <c r="D28" s="34">
+        <v>3</v>
+      </c>
+      <c r="E28" s="33">
+        <v>1523</v>
+      </c>
+      <c r="F28" s="33">
+        <v>1523</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="40">
+        <v>43807.506249999999</v>
+      </c>
+      <c r="J28" s="40">
+        <v>43807.50613425926</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>36263</v>
+      </c>
+      <c r="B29" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="33">
+        <v>2.0191208120838101E+20</v>
+      </c>
+      <c r="D29" s="34">
+        <v>3</v>
+      </c>
+      <c r="E29" s="33">
+        <v>577</v>
+      </c>
+      <c r="F29" s="33">
+        <v>577</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="40">
+        <v>43807.505555555559</v>
+      </c>
+      <c r="J29" s="40">
+        <v>43807.505949074075</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>36262</v>
+      </c>
+      <c r="B30" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="33">
+        <v>2.01912081208181E+20</v>
+      </c>
+      <c r="D30" s="34">
+        <v>2</v>
+      </c>
+      <c r="E30" s="33">
+        <v>995</v>
+      </c>
+      <c r="F30" s="33">
+        <v>995</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="40">
+        <v>43807.505555555559</v>
+      </c>
+      <c r="J30" s="40">
+        <v>43807.505682870367</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>36261</v>
+      </c>
+      <c r="B31" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="33">
+        <v>2.0191208120759101E+20</v>
+      </c>
+      <c r="D31" s="34">
+        <v>2</v>
+      </c>
+      <c r="E31" s="33">
+        <v>518</v>
+      </c>
+      <c r="F31" s="33">
+        <v>518</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="40">
+        <v>43807.505555555559</v>
+      </c>
+      <c r="J31" s="40">
+        <v>43807.505462962959</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>36260</v>
+      </c>
+      <c r="B32" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="33">
+        <v>2.0191208120740099E+20</v>
+      </c>
+      <c r="D32" s="34">
+        <v>3</v>
+      </c>
+      <c r="E32" s="33">
+        <v>709</v>
+      </c>
+      <c r="F32" s="33">
+        <v>709</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="40">
+        <v>43807.504861111112</v>
+      </c>
+      <c r="J32" s="40">
+        <v>43807.505266203705</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
+        <v>36259</v>
+      </c>
+      <c r="B33" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="33">
+        <v>2.0191208120723099E+20</v>
+      </c>
+      <c r="D33" s="34">
+        <v>3</v>
+      </c>
+      <c r="E33" s="33">
+        <v>1001</v>
+      </c>
+      <c r="F33" s="33">
+        <v>1001</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="40">
+        <v>43807.504861111112</v>
+      </c>
+      <c r="J33" s="40">
+        <v>43807.505069444444</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
+        <v>36258</v>
+      </c>
+      <c r="B34" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="33">
+        <v>2.0191208120706099E+20</v>
+      </c>
+      <c r="D34" s="34">
+        <v>3</v>
+      </c>
+      <c r="E34" s="33">
+        <v>1170</v>
+      </c>
+      <c r="F34" s="33">
+        <v>1170</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="40">
+        <v>43807.504861111112</v>
+      </c>
+      <c r="J34" s="40">
+        <v>43807.504884259259</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35">
+        <v>36257</v>
+      </c>
+      <c r="B35" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="35">
+        <v>2.0191208120649099E+20</v>
+      </c>
+      <c r="D35" s="36">
+        <v>3</v>
+      </c>
+      <c r="E35" s="35">
+        <v>271</v>
+      </c>
+      <c r="F35" s="35">
+        <v>271</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="42">
+        <v>43807.504166666666</v>
+      </c>
+      <c r="J35" s="42">
+        <v>43807.504212962966</v>
+      </c>
+      <c r="K35" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
+        <v>36256</v>
+      </c>
+      <c r="B36" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="31">
+        <v>2.0191208120549101E+20</v>
+      </c>
+      <c r="D36" s="32">
+        <v>2</v>
+      </c>
+      <c r="E36" s="31">
+        <v>858</v>
+      </c>
+      <c r="F36" s="31">
+        <v>858</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="38">
+        <v>43807.503472222219</v>
+      </c>
+      <c r="J36" s="38">
+        <v>43807.503969907404</v>
+      </c>
+      <c r="K36" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>36255</v>
+      </c>
+      <c r="B37" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="33">
+        <v>2.01912081205281E+20</v>
+      </c>
+      <c r="D37" s="34">
+        <v>5</v>
+      </c>
+      <c r="E37" s="33">
+        <v>794</v>
+      </c>
+      <c r="F37" s="33">
+        <v>794</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="40">
+        <v>43807.503472222219</v>
+      </c>
+      <c r="J37" s="40">
+        <v>43807.503622685188</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>36254</v>
+      </c>
+      <c r="B38" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="33">
+        <v>2.0191208120434101E+20</v>
+      </c>
+      <c r="D38" s="34">
+        <v>3</v>
+      </c>
+      <c r="E38" s="33">
+        <v>1784</v>
+      </c>
+      <c r="F38" s="33">
+        <v>1784</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="40">
+        <v>43807.50277777778</v>
+      </c>
+      <c r="J38" s="40">
+        <v>43807.503113425926</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>36253</v>
+      </c>
+      <c r="B39" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="33">
+        <v>2.01912081204131E+20</v>
+      </c>
+      <c r="D39" s="34">
+        <v>3</v>
+      </c>
+      <c r="E39" s="33">
+        <v>402</v>
+      </c>
+      <c r="F39" s="33">
+        <v>402</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="40">
+        <v>43807.50277777778</v>
+      </c>
+      <c r="J39" s="40">
+        <v>43807.502893518518</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33">
+        <v>36252</v>
+      </c>
+      <c r="B40" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="33">
+        <v>2.01912081203571E+20</v>
+      </c>
+      <c r="D40" s="34">
+        <v>3</v>
+      </c>
+      <c r="E40" s="33">
+        <v>798</v>
+      </c>
+      <c r="F40" s="33">
+        <v>798</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="40">
+        <v>43807.50277777778</v>
+      </c>
+      <c r="J40" s="40">
+        <v>43807.50271990741</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
+        <v>36251</v>
+      </c>
+      <c r="B41" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="33">
+        <v>2.0191208120337102E+20</v>
+      </c>
+      <c r="D41" s="34">
+        <v>3</v>
+      </c>
+      <c r="E41" s="33">
+        <v>156</v>
+      </c>
+      <c r="F41" s="33">
+        <v>156</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="40">
+        <v>43807.502083333333</v>
+      </c>
+      <c r="J41" s="40">
+        <v>43807.502465277779</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>36250</v>
+      </c>
+      <c r="B42" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="33">
+        <v>2.0191208120313099E+20</v>
+      </c>
+      <c r="D42" s="34">
+        <v>3</v>
+      </c>
+      <c r="E42" s="33">
+        <v>799</v>
+      </c>
+      <c r="F42" s="33">
+        <v>799</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="40">
+        <v>43807.502083333333</v>
+      </c>
+      <c r="J42" s="40">
+        <v>43807.502164351848</v>
+      </c>
+      <c r="K42" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33">
+        <v>36249</v>
+      </c>
+      <c r="B43" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="33">
+        <v>2.0191208120251099E+20</v>
+      </c>
+      <c r="D43" s="34">
+        <v>3</v>
+      </c>
+      <c r="E43" s="33">
+        <v>1444</v>
+      </c>
+      <c r="F43" s="33">
+        <v>1444</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="40">
+        <v>43807.501388888886</v>
+      </c>
+      <c r="J43" s="40">
+        <v>43807.501898148148</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>36248</v>
+      </c>
+      <c r="B44" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="33">
+        <v>2.0191208120230101E+20</v>
+      </c>
+      <c r="D44" s="34">
+        <v>3</v>
+      </c>
+      <c r="E44" s="33">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="33">
+        <v>1200</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="40">
+        <v>43807.501388888886</v>
+      </c>
+      <c r="J44" s="40">
+        <v>43807.501689814817</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>36247</v>
+      </c>
+      <c r="B45" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="33">
+        <v>2.01912081202141E+20</v>
+      </c>
+      <c r="D45" s="34">
+        <v>4</v>
+      </c>
+      <c r="E45" s="33">
+        <v>636</v>
+      </c>
+      <c r="F45" s="33">
+        <v>636</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="40">
+        <v>43807.501388888886</v>
+      </c>
+      <c r="J45" s="40">
+        <v>43807.501504629632</v>
+      </c>
+      <c r="K45" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="P45" s="62"/>
+    </row>
+    <row r="46" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
+        <v>36246</v>
+      </c>
+      <c r="B46" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="33">
+        <v>2.0191208120125099E+20</v>
+      </c>
+      <c r="D46" s="34">
+        <v>2</v>
+      </c>
+      <c r="E46" s="33">
+        <v>270</v>
+      </c>
+      <c r="F46" s="33">
+        <v>270</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="40">
+        <v>43807.500694444447</v>
+      </c>
+      <c r="J46" s="40">
+        <v>43807.500914351855</v>
+      </c>
+      <c r="K46" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="62"/>
+    </row>
+    <row r="47" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>36245</v>
+      </c>
+      <c r="B47" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="33">
+        <v>2.01912081201061E+20</v>
+      </c>
+      <c r="D47" s="34">
+        <v>3</v>
+      </c>
+      <c r="E47" s="33">
+        <v>1054</v>
+      </c>
+      <c r="F47" s="33">
+        <v>1054</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="40">
+        <v>43807.500694444447</v>
+      </c>
+      <c r="J47" s="40">
+        <v>43807.500706018516</v>
+      </c>
+      <c r="K47" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="62"/>
+    </row>
+    <row r="48" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>36244</v>
+      </c>
+      <c r="B48" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="33">
+        <v>2.0191208120048101E+20</v>
+      </c>
+      <c r="D48" s="34">
+        <v>3</v>
+      </c>
+      <c r="E48" s="33">
+        <v>802</v>
+      </c>
+      <c r="F48" s="33">
+        <v>802</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="40">
+        <v>43807.5</v>
+      </c>
+      <c r="J48" s="40">
+        <v>43807.500509259262</v>
+      </c>
+      <c r="K48" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
+        <v>36243</v>
+      </c>
+      <c r="B49" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="33">
+        <v>2.01912081200321E+20</v>
+      </c>
+      <c r="D49" s="34">
+        <v>3</v>
+      </c>
+      <c r="E49" s="33">
+        <v>1040</v>
+      </c>
+      <c r="F49" s="33">
+        <v>1040</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="40">
+        <v>43807.5</v>
+      </c>
+      <c r="J49" s="40">
+        <v>43807.5002662037</v>
+      </c>
+      <c r="K49" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33">
+        <v>36242</v>
+      </c>
+      <c r="B50" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="33">
+        <v>2.01912081200101E+20</v>
+      </c>
+      <c r="D50" s="34">
+        <v>3</v>
+      </c>
+      <c r="E50" s="33">
+        <v>566</v>
+      </c>
+      <c r="F50" s="33">
+        <v>566</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="40">
+        <v>43807.5</v>
+      </c>
+      <c r="J50" s="40">
+        <v>43807.500057870369</v>
+      </c>
+      <c r="K50" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
+        <v>36241</v>
+      </c>
+      <c r="B51" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="33">
+        <v>2.01912081159531E+20</v>
+      </c>
+      <c r="D51" s="34">
+        <v>2</v>
+      </c>
+      <c r="E51" s="33">
+        <v>452</v>
+      </c>
+      <c r="F51" s="33">
+        <v>452</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="40">
+        <v>43807.499305555553</v>
+      </c>
+      <c r="J51" s="40">
+        <v>43807.4996875</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="33">
+        <v>36240</v>
+      </c>
+      <c r="B52" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="33">
+        <v>2.01912081159191E+20</v>
+      </c>
+      <c r="D52" s="34">
+        <v>3</v>
+      </c>
+      <c r="E52" s="33">
+        <v>825</v>
+      </c>
+      <c r="F52" s="33">
+        <v>825</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="40">
+        <v>43807.499305555553</v>
+      </c>
+      <c r="J52" s="40">
+        <v>43807.499479166669</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
+        <v>36239</v>
+      </c>
+      <c r="B53" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="33">
+        <v>2.0191208115858099E+20</v>
+      </c>
+      <c r="D53" s="34">
+        <v>3</v>
+      </c>
+      <c r="E53" s="33">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="F53" s="33">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="40">
+        <v>43807.499305555553</v>
+      </c>
+      <c r="J53" s="40">
+        <v>43807.499201388891</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>36238</v>
+      </c>
+      <c r="B54" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="35">
+        <v>2.0191208115830099E+20</v>
+      </c>
+      <c r="D54" s="36">
+        <v>3</v>
+      </c>
+      <c r="E54" s="35">
+        <v>229.9</v>
+      </c>
+      <c r="F54" s="35">
+        <v>229.9</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="42">
+        <v>43807.498611111114</v>
+      </c>
+      <c r="J54" s="42">
+        <v>43807.498668981483</v>
+      </c>
+      <c r="K54" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="58">
+        <v>36334</v>
+      </c>
+      <c r="B55" s="58">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="58">
+        <v>2.01912082122091E+20</v>
+      </c>
+      <c r="D55" s="59">
+        <v>2</v>
+      </c>
+      <c r="E55" s="58">
+        <v>677</v>
+      </c>
+      <c r="F55" s="58">
+        <v>677</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="60">
+        <v>43807.890277777777</v>
+      </c>
+      <c r="J55" s="60">
+        <v>43807.889618055553</v>
+      </c>
+      <c r="K55" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31">
+        <v>36332</v>
+      </c>
+      <c r="B56" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="31">
+        <v>2.0191208212031101E+20</v>
+      </c>
+      <c r="D56" s="32">
+        <v>3</v>
+      </c>
+      <c r="E56" s="31">
+        <v>849</v>
+      </c>
+      <c r="F56" s="31">
+        <v>849</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="38">
+        <v>43807.888888888891</v>
+      </c>
+      <c r="J56" s="38">
+        <v>43807.889155092591</v>
+      </c>
+      <c r="K56" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
+        <v>36331</v>
+      </c>
+      <c r="B57" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="33">
+        <v>2.01912082119201E+20</v>
+      </c>
+      <c r="D57" s="34">
+        <v>2</v>
+      </c>
+      <c r="E57" s="33">
+        <v>660</v>
+      </c>
+      <c r="F57" s="33">
+        <v>660</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="40">
+        <v>43807.888194444444</v>
+      </c>
+      <c r="J57" s="40">
+        <v>43807.888275462959</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="33">
+        <v>36330</v>
+      </c>
+      <c r="B58" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="33">
+        <v>2.01912082116471E+20</v>
+      </c>
+      <c r="D58" s="34">
+        <v>2</v>
+      </c>
+      <c r="E58" s="33">
+        <v>368</v>
+      </c>
+      <c r="F58" s="33">
+        <v>368</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="40">
+        <v>43807.886111111111</v>
+      </c>
+      <c r="J58" s="40">
+        <v>43807.886597222219</v>
+      </c>
+      <c r="K58" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33">
+        <v>36329</v>
+      </c>
+      <c r="B59" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="33">
+        <v>2.0191208211625099E+20</v>
+      </c>
+      <c r="D59" s="34">
+        <v>3</v>
+      </c>
+      <c r="E59" s="33">
+        <v>1540</v>
+      </c>
+      <c r="F59" s="33">
+        <v>1540</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="40">
+        <v>43807.886111111111</v>
+      </c>
+      <c r="J59" s="40">
+        <v>43807.885879629626</v>
+      </c>
+      <c r="K59" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="33">
+        <v>36328</v>
+      </c>
+      <c r="B60" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="33">
+        <v>2.0191208211526101E+20</v>
+      </c>
+      <c r="D60" s="34">
+        <v>3</v>
+      </c>
+      <c r="E60" s="33">
+        <v>2068</v>
+      </c>
+      <c r="F60" s="33">
+        <v>2068</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="40">
+        <v>43807.885416666664</v>
+      </c>
+      <c r="J60" s="40">
+        <v>43807.885092592594</v>
+      </c>
+      <c r="K60" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
+        <v>36327</v>
+      </c>
+      <c r="B61" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="33">
+        <v>2.0191208211418101E+20</v>
+      </c>
+      <c r="D61" s="34">
+        <v>3</v>
+      </c>
+      <c r="E61" s="33">
+        <v>926</v>
+      </c>
+      <c r="F61" s="33">
+        <v>926</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="40">
+        <v>43807.884722222225</v>
+      </c>
+      <c r="J61" s="40">
+        <v>43807.884108796294</v>
+      </c>
+      <c r="K61" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33">
+        <v>36326</v>
+      </c>
+      <c r="B62" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="33">
+        <v>2.0191208211252101E+20</v>
+      </c>
+      <c r="D62" s="34">
+        <v>3</v>
+      </c>
+      <c r="E62" s="33">
+        <v>1010</v>
+      </c>
+      <c r="F62" s="33">
+        <v>1010</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="40">
+        <v>43807.883333333331</v>
+      </c>
+      <c r="J62" s="40">
+        <v>43807.883888888886</v>
+      </c>
+      <c r="K62" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33">
+        <v>36325</v>
+      </c>
+      <c r="B63" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="33">
+        <v>2.0191208211236101E+20</v>
+      </c>
+      <c r="D63" s="34">
+        <v>3</v>
+      </c>
+      <c r="E63" s="33">
+        <v>329.9</v>
+      </c>
+      <c r="F63" s="33">
+        <v>329.9</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="40">
+        <v>43807.883333333331</v>
+      </c>
+      <c r="J63" s="40">
+        <v>43807.883518518516</v>
+      </c>
+      <c r="K63" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="33">
+        <v>36324</v>
+      </c>
+      <c r="B64" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="33">
+        <v>2.0191208211204099E+20</v>
+      </c>
+      <c r="D64" s="34">
+        <v>3</v>
+      </c>
+      <c r="E64" s="33">
+        <v>829</v>
+      </c>
+      <c r="F64" s="33">
+        <v>829</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="40">
+        <v>43807.883333333331</v>
+      </c>
+      <c r="J64" s="40">
+        <v>43807.883333333331</v>
+      </c>
+      <c r="K64" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="33">
+        <v>36323</v>
+      </c>
+      <c r="B65" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="33">
+        <v>2.01912082111451E+20</v>
+      </c>
+      <c r="D65" s="34">
+        <v>3</v>
+      </c>
+      <c r="E65" s="33">
+        <v>229</v>
+      </c>
+      <c r="F65" s="33">
+        <v>229</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="40">
+        <v>43807.882638888892</v>
+      </c>
+      <c r="J65" s="40">
+        <v>43807.883101851854</v>
+      </c>
+      <c r="K65" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="35">
+        <v>36322</v>
+      </c>
+      <c r="B66" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="35">
+        <v>2.0191208211126102E+20</v>
+      </c>
+      <c r="D66" s="36">
+        <v>3</v>
+      </c>
+      <c r="E66" s="35">
+        <v>1517</v>
+      </c>
+      <c r="F66" s="35">
+        <v>1517</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="42">
+        <v>43807.882638888892</v>
+      </c>
+      <c r="J66" s="42">
+        <v>43807.882893518516</v>
+      </c>
+      <c r="K66" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31">
+        <v>36321</v>
+      </c>
+      <c r="B67" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="31">
+        <v>2.0191208211105101E+20</v>
+      </c>
+      <c r="D67" s="32">
+        <v>2</v>
+      </c>
+      <c r="E67" s="31">
+        <v>582</v>
+      </c>
+      <c r="F67" s="31">
+        <v>582</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="38">
+        <v>43807.882638888892</v>
+      </c>
+      <c r="J67" s="38">
+        <v>43807.882094907407</v>
+      </c>
+      <c r="K67" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
+        <v>36320</v>
+      </c>
+      <c r="B68" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="33">
+        <v>2.0191208211001102E+20</v>
+      </c>
+      <c r="D68" s="34">
+        <v>3</v>
+      </c>
+      <c r="E68" s="33">
+        <v>2227</v>
+      </c>
+      <c r="F68" s="33">
+        <v>2227</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="40">
+        <v>43807.881944444445</v>
+      </c>
+      <c r="J68" s="40">
+        <v>43807.880868055552</v>
+      </c>
+      <c r="K68" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
+        <v>36319</v>
+      </c>
+      <c r="B69" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="33">
+        <v>2.0191208210801099E+20</v>
+      </c>
+      <c r="D69" s="34">
+        <v>2</v>
+      </c>
+      <c r="E69" s="33">
+        <v>684</v>
+      </c>
+      <c r="F69" s="33">
+        <v>684</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="40">
+        <v>43807.880555555559</v>
+      </c>
+      <c r="J69" s="40">
+        <v>43807.880520833336</v>
+      </c>
+      <c r="K69" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="33">
+        <v>36318</v>
+      </c>
+      <c r="B70" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="33">
+        <v>2.01912082107421E+20</v>
+      </c>
+      <c r="D70" s="34">
+        <v>3</v>
+      </c>
+      <c r="E70" s="33">
+        <v>1244</v>
+      </c>
+      <c r="F70" s="33">
+        <v>1244</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="40">
+        <v>43807.879861111112</v>
+      </c>
+      <c r="J70" s="40">
+        <v>43807.880277777775</v>
+      </c>
+      <c r="K70" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="35">
+        <v>36317</v>
+      </c>
+      <c r="B71" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="35">
+        <v>2.0191208210722098E+20</v>
+      </c>
+      <c r="D71" s="36">
+        <v>2</v>
+      </c>
+      <c r="E71" s="35">
+        <v>590</v>
+      </c>
+      <c r="F71" s="35">
+        <v>590</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="42">
+        <v>43807.879861111112</v>
+      </c>
+      <c r="J71" s="42">
+        <v>43807.873645833337</v>
+      </c>
+      <c r="K71" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="58">
+        <v>36313</v>
+      </c>
+      <c r="B72" s="58">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="58">
+        <v>2.01912082055261E+20</v>
+      </c>
+      <c r="D72" s="59">
+        <v>3</v>
+      </c>
+      <c r="E72" s="58">
+        <v>607</v>
+      </c>
+      <c r="F72" s="58">
+        <v>607</v>
+      </c>
+      <c r="G72" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="60">
+        <v>43807.871527777781</v>
+      </c>
+      <c r="J72" s="60">
+        <v>43807.86824074074</v>
+      </c>
+      <c r="K72" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>36311</v>
+      </c>
+      <c r="B73" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="31">
+        <v>2.0191208204935099E+20</v>
+      </c>
+      <c r="D73" s="32">
+        <v>3</v>
+      </c>
+      <c r="E73" s="31">
+        <v>560</v>
+      </c>
+      <c r="F73" s="31">
+        <v>560</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="38">
+        <v>43807.867361111108</v>
+      </c>
+      <c r="J73" s="38">
+        <v>43807.867511574077</v>
+      </c>
+      <c r="K73" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="33">
+        <v>36310</v>
+      </c>
+      <c r="B74" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="33">
+        <v>2.0191208204857102E+20</v>
+      </c>
+      <c r="D74" s="34">
+        <v>3</v>
+      </c>
+      <c r="E74" s="33">
+        <v>540</v>
+      </c>
+      <c r="F74" s="33">
+        <v>540</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="40">
+        <v>43807.867361111108</v>
+      </c>
+      <c r="J74" s="40">
+        <v>43807.866932870369</v>
+      </c>
+      <c r="K74" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="35">
+        <v>36309</v>
+      </c>
+      <c r="B75" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="35">
+        <v>2.0191208204801101E+20</v>
+      </c>
+      <c r="D75" s="36">
+        <v>2</v>
+      </c>
+      <c r="E75" s="35">
+        <v>861</v>
+      </c>
+      <c r="F75" s="35">
+        <v>861</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="42">
+        <v>43807.866666666669</v>
+      </c>
+      <c r="J75" s="42">
+        <v>43807.866631944446</v>
+      </c>
+      <c r="K75" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31">
+        <v>36306</v>
+      </c>
+      <c r="B76" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="31">
+        <v>2.01912082047411E+20</v>
+      </c>
+      <c r="D76" s="32">
+        <v>2</v>
+      </c>
+      <c r="E76" s="31">
+        <v>867</v>
+      </c>
+      <c r="F76" s="31">
+        <v>867</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="38">
+        <v>43807.865972222222</v>
+      </c>
+      <c r="J76" s="38">
+        <v>43807.858287037037</v>
+      </c>
+      <c r="K76" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="33">
+        <v>36305</v>
+      </c>
+      <c r="B77" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="33">
+        <v>2.01912082033131E+20</v>
+      </c>
+      <c r="D77" s="34">
+        <v>3</v>
+      </c>
+      <c r="E77" s="33">
+        <v>362.7</v>
+      </c>
+      <c r="F77" s="33">
+        <v>362.7</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="40">
+        <v>43807.856249999997</v>
+      </c>
+      <c r="J77" s="40">
+        <v>43807.856354166666</v>
+      </c>
+      <c r="K77" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="33">
+        <v>36304</v>
+      </c>
+      <c r="B78" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="33">
+        <v>2.01912082032561E+20</v>
+      </c>
+      <c r="D78" s="34">
+        <v>3</v>
+      </c>
+      <c r="E78" s="33">
+        <v>1089</v>
+      </c>
+      <c r="F78" s="33">
+        <v>1089</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="40">
+        <v>43807.856249999997</v>
+      </c>
+      <c r="J78" s="40">
+        <v>43807.856122685182</v>
+      </c>
+      <c r="K78" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33">
+        <v>36303</v>
+      </c>
+      <c r="B79" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="33">
+        <v>2.0191208203229099E+20</v>
+      </c>
+      <c r="D79" s="34">
+        <v>3</v>
+      </c>
+      <c r="E79" s="33">
+        <v>878</v>
+      </c>
+      <c r="F79" s="33">
+        <v>878</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="40">
+        <v>43807.855555555558</v>
+      </c>
+      <c r="J79" s="40">
+        <v>43807.855844907404</v>
+      </c>
+      <c r="K79" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35">
+        <v>36302</v>
+      </c>
+      <c r="B80" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="35">
+        <v>2.0191208203208101E+20</v>
+      </c>
+      <c r="D80" s="36">
+        <v>3</v>
+      </c>
+      <c r="E80" s="35">
+        <v>608</v>
+      </c>
+      <c r="F80" s="35">
+        <v>608</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="42">
+        <v>43807.855555555558</v>
+      </c>
+      <c r="J80" s="42">
+        <v>43807.855555555558</v>
+      </c>
+      <c r="K80" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" display="javascript:;" xr:uid="{61E41432-06F1-471F-BA67-1F82626F98CF}"/>
+    <hyperlink ref="K4" r:id="rId2" display="javascript:;" xr:uid="{DFBD0AA3-6B75-4919-9DA7-3D19188DF0A9}"/>
+    <hyperlink ref="K5" r:id="rId3" display="javascript:;" xr:uid="{1B315F83-8358-4E63-9B09-969688697EA2}"/>
+    <hyperlink ref="K6" r:id="rId4" display="javascript:;" xr:uid="{5C631768-4E50-4707-9793-AF49170EA78F}"/>
+    <hyperlink ref="K8" r:id="rId5" display="javascript:;" xr:uid="{A54E62C9-3524-4FFA-AB3F-B238A88F3959}"/>
+    <hyperlink ref="K9" r:id="rId6" display="javascript:;" xr:uid="{49D47505-4AC3-45F9-8578-58EFE63562D1}"/>
+    <hyperlink ref="K10" r:id="rId7" display="javascript:;" xr:uid="{710CCE81-5E9B-43FD-B042-1F37BD02AF74}"/>
+    <hyperlink ref="K11" r:id="rId8" display="javascript:;" xr:uid="{96976459-2C72-4D98-9748-9F5A79DA6F74}"/>
+    <hyperlink ref="K12" r:id="rId9" display="javascript:;" xr:uid="{7E4EEC76-1196-49A3-8C8C-AF27390A4296}"/>
+    <hyperlink ref="K13" r:id="rId10" display="javascript:;" xr:uid="{52B441B5-FA3A-44F8-9C64-9930579DD574}"/>
+    <hyperlink ref="K14" r:id="rId11" display="javascript:;" xr:uid="{A90D87CB-6C5F-4709-A295-7B6B93E217D4}"/>
+    <hyperlink ref="K15" r:id="rId12" display="javascript:;" xr:uid="{6E1C0F36-C4F8-4EB6-9002-464B67981E14}"/>
+    <hyperlink ref="K16" r:id="rId13" display="javascript:;" xr:uid="{2D72643E-BDB5-4AC2-92CC-EAB6131F9898}"/>
+    <hyperlink ref="K17" r:id="rId14" display="javascript:;" xr:uid="{8EE381B2-DB43-4A1A-BFEF-F0A1ED26443A}"/>
+    <hyperlink ref="K18" r:id="rId15" display="javascript:;" xr:uid="{9D083AC9-3FCE-45A8-9E6A-9FC6FEF55228}"/>
+    <hyperlink ref="K19" r:id="rId16" display="javascript:;" xr:uid="{B683AC71-F7FC-4223-9574-D7F344E82591}"/>
+    <hyperlink ref="K20" r:id="rId17" display="javascript:;" xr:uid="{63888C9A-E391-4486-B08E-3C951AD28EF4}"/>
+    <hyperlink ref="K21" r:id="rId18" display="javascript:;" xr:uid="{89ED69C8-E3B5-4C55-B7C2-D1BF0B1A0901}"/>
+    <hyperlink ref="K22" r:id="rId19" display="javascript:;" xr:uid="{76159C01-C49B-43DD-BF44-92FC5ACBAA04}"/>
+    <hyperlink ref="K23" r:id="rId20" display="javascript:;" xr:uid="{1407A240-5F45-4923-B359-6D80FD3272B8}"/>
+    <hyperlink ref="K24" r:id="rId21" display="javascript:;" xr:uid="{74E85C88-891B-46FF-A19A-3AE45C923C4E}"/>
+    <hyperlink ref="K25" r:id="rId22" display="javascript:;" xr:uid="{CE2F71B7-8DDD-4EAD-B20D-BC6369CF8C68}"/>
+    <hyperlink ref="K26" r:id="rId23" display="javascript:;" xr:uid="{1D75125A-E209-48E8-9AA2-C610058A8F44}"/>
+    <hyperlink ref="K28" r:id="rId24" display="javascript:;" xr:uid="{D1626EF3-AB47-442C-A1FF-DA1BD4CA93DE}"/>
+    <hyperlink ref="K29" r:id="rId25" display="javascript:;" xr:uid="{6B1FB0F6-B6F8-4173-A690-1D7C55774C71}"/>
+    <hyperlink ref="K30" r:id="rId26" display="javascript:;" xr:uid="{4B6147DA-2599-4883-B310-22A4CA6FECA9}"/>
+    <hyperlink ref="K31" r:id="rId27" display="javascript:;" xr:uid="{11D40079-B53C-4C23-A611-CBCEB0933B8F}"/>
+    <hyperlink ref="K32" r:id="rId28" display="javascript:;" xr:uid="{65C79487-C486-495A-97C2-156702E73918}"/>
+    <hyperlink ref="K33" r:id="rId29" display="javascript:;" xr:uid="{218A4F80-E7A5-4D16-824B-34261A8B7C58}"/>
+    <hyperlink ref="K34" r:id="rId30" display="javascript:;" xr:uid="{A60421FF-88E0-4BC8-8E93-05C0A440E4F3}"/>
+    <hyperlink ref="K35" r:id="rId31" display="javascript:;" xr:uid="{8F7FF106-EFC9-48AB-BE7D-8B1288041234}"/>
+    <hyperlink ref="K36" r:id="rId32" display="javascript:;" xr:uid="{912D155B-B5A2-4ED9-A9DF-7F3C0EF7C4FE}"/>
+    <hyperlink ref="K37" r:id="rId33" display="javascript:;" xr:uid="{52B57BB7-2135-4C3B-91E6-5FDF7B370896}"/>
+    <hyperlink ref="K38" r:id="rId34" display="javascript:;" xr:uid="{417E923A-B8E9-4807-B0E9-8C52D7358ED3}"/>
+    <hyperlink ref="K39" r:id="rId35" display="javascript:;" xr:uid="{6F93F22C-724C-4668-8AE9-29B4274F79AC}"/>
+    <hyperlink ref="K40" r:id="rId36" display="javascript:;" xr:uid="{8F184874-913B-4FF1-A2C9-0D59329AEC2E}"/>
+    <hyperlink ref="K41" r:id="rId37" display="javascript:;" xr:uid="{F25BDBF7-5155-465F-A31E-8B05F5580105}"/>
+    <hyperlink ref="K42" r:id="rId38" display="javascript:;" xr:uid="{B6B0819B-8FD1-4B92-A956-B3ABAEAA3AB7}"/>
+    <hyperlink ref="K43" r:id="rId39" display="javascript:;" xr:uid="{4F2CAD9E-CA66-4A94-995F-AD0D0CC1C9AC}"/>
+    <hyperlink ref="K44" r:id="rId40" display="javascript:;" xr:uid="{C00CC529-BFE2-41A4-B181-7237BEE2E473}"/>
+    <hyperlink ref="K45" r:id="rId41" display="javascript:;" xr:uid="{EB0DC2E0-DC98-4229-9EA7-78B23A0AAD64}"/>
+    <hyperlink ref="K46" r:id="rId42" display="javascript:;" xr:uid="{522991BF-F64F-4A4B-819F-E57B6234F1EF}"/>
+    <hyperlink ref="K47" r:id="rId43" display="javascript:;" xr:uid="{218DC814-7F3F-4362-A641-6073A9276F0D}"/>
+    <hyperlink ref="K48" r:id="rId44" display="javascript:;" xr:uid="{CC202966-DDE0-4A43-880A-98DAFBE179BA}"/>
+    <hyperlink ref="K49" r:id="rId45" display="javascript:;" xr:uid="{C4AE8FAB-152A-415C-B567-70A1256770CE}"/>
+    <hyperlink ref="K50" r:id="rId46" display="javascript:;" xr:uid="{A4037B6D-B6BC-49A6-9CAF-3CE059A45E2E}"/>
+    <hyperlink ref="K51" r:id="rId47" display="javascript:;" xr:uid="{DE24EE2E-6C12-4970-BC2D-E80B9F352C36}"/>
+    <hyperlink ref="K52" r:id="rId48" display="javascript:;" xr:uid="{62F1EEDF-CDD8-403F-9557-E66BD8853EAF}"/>
+    <hyperlink ref="K53" r:id="rId49" display="javascript:;" xr:uid="{9D86A72E-9582-4359-AA50-D767628EFA1E}"/>
+    <hyperlink ref="K54" r:id="rId50" display="javascript:;" xr:uid="{76C12F01-72EC-4A7F-A2C0-25D7D7300DBB}"/>
+    <hyperlink ref="K55" r:id="rId51" display="javascript:;" xr:uid="{0F117156-2A54-4FCC-848F-04A9C23EF595}"/>
+    <hyperlink ref="K56" r:id="rId52" display="javascript:;" xr:uid="{45E690E2-499F-4111-B10F-0F9475F095DD}"/>
+    <hyperlink ref="K57" r:id="rId53" display="javascript:;" xr:uid="{8566D5A4-DF96-4DD0-A940-6C68BFB0AC3B}"/>
+    <hyperlink ref="K58" r:id="rId54" display="javascript:;" xr:uid="{17F59DD1-E453-49A9-9FB3-3CD7C727BD58}"/>
+    <hyperlink ref="K59" r:id="rId55" display="javascript:;" xr:uid="{6518D2C2-9C60-45B1-BC9C-4F1378426EA2}"/>
+    <hyperlink ref="K60" r:id="rId56" display="javascript:;" xr:uid="{AFA559C6-41F8-4158-B9B4-5A4B3494F987}"/>
+    <hyperlink ref="K61" r:id="rId57" display="javascript:;" xr:uid="{CCFAB92E-3687-414B-8862-FE88F355EBED}"/>
+    <hyperlink ref="K62" r:id="rId58" display="javascript:;" xr:uid="{96FA37D0-48AE-4501-AA53-418B0B626075}"/>
+    <hyperlink ref="K63" r:id="rId59" display="javascript:;" xr:uid="{A9F7AA8C-F5CB-424E-9DA2-3737ADB98F94}"/>
+    <hyperlink ref="K64" r:id="rId60" display="javascript:;" xr:uid="{21669B2D-0A75-4AD3-8FED-474E3DC63E88}"/>
+    <hyperlink ref="K65" r:id="rId61" display="javascript:;" xr:uid="{8DED47F9-2B0A-417D-B53B-7FD726466DA3}"/>
+    <hyperlink ref="K66" r:id="rId62" display="javascript:;" xr:uid="{8A2DFCF1-38BA-4690-AA27-4E8C95CEB849}"/>
+    <hyperlink ref="K67" r:id="rId63" display="javascript:;" xr:uid="{4E0DDBE7-0535-4C49-ADFB-A39A26110EB3}"/>
+    <hyperlink ref="K68" r:id="rId64" display="javascript:;" xr:uid="{91CE9CAD-8F13-4966-8C55-2336F3C7EC24}"/>
+    <hyperlink ref="K69" r:id="rId65" display="javascript:;" xr:uid="{E5CC1F4E-9A7C-49C6-83F1-219850183E8F}"/>
+    <hyperlink ref="K70" r:id="rId66" display="javascript:;" xr:uid="{C3FC99FA-948F-4455-9549-1BE862A135EC}"/>
+    <hyperlink ref="K71" r:id="rId67" display="javascript:;" xr:uid="{B1EBAFB3-6494-4E58-98A4-BA1A7BF0E2CF}"/>
+    <hyperlink ref="K72" r:id="rId68" display="javascript:;" xr:uid="{B8A3D01D-C7C0-4F71-95E1-8511DB17D532}"/>
+    <hyperlink ref="K73" r:id="rId69" display="javascript:;" xr:uid="{430094B4-134C-4BBC-9366-C370E5094F5A}"/>
+    <hyperlink ref="K74" r:id="rId70" display="javascript:;" xr:uid="{DF6AEDB4-DA1C-4C2A-BD0A-21F87F8D94B3}"/>
+    <hyperlink ref="K75" r:id="rId71" display="javascript:;" xr:uid="{3CF90149-2B35-4F0F-A8A3-3CD9BE8B7B2F}"/>
+    <hyperlink ref="K76" r:id="rId72" display="javascript:;" xr:uid="{624048EE-7E3E-4894-B4D7-70FC3002669A}"/>
+    <hyperlink ref="K77" r:id="rId73" display="javascript:;" xr:uid="{BB34E414-38CC-4625-92AD-53428E9576E8}"/>
+    <hyperlink ref="K78" r:id="rId74" display="javascript:;" xr:uid="{8ED58143-7600-4EBF-8F09-E08BE3ECF118}"/>
+    <hyperlink ref="K79" r:id="rId75" display="javascript:;" xr:uid="{A8D56185-5D14-47E0-90A9-488F669D75DD}"/>
+    <hyperlink ref="K80" r:id="rId76" display="javascript:;" xr:uid="{B8660A01-EEC9-4FEF-8EB6-86D078C21095}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+</worksheet>
 </file>
--- a/s_d/麻吉12月.xlsx
+++ b/s_d/麻吉12月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D41AD6-0366-48FA-A2C1-8179FFF54A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11C2BC-52D6-4AC4-88F9-097F7A5359F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="12.12" sheetId="13" r:id="rId12"/>
     <sheet name="12.13" sheetId="14" r:id="rId13"/>
     <sheet name="12.14" sheetId="15" r:id="rId14"/>
+    <sheet name="12.15" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -397,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -617,6 +618,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19140,8 +19144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCACB5A9-D218-4600-AB3B-2EE83C0BA737}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21240,6 +21244,4996 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE138863-73CA-4498-99B7-AA426118608A}">
+  <dimension ref="A1:P138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46">
+        <v>37142</v>
+      </c>
+      <c r="B1" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="46">
+        <v>2.0191215145724101E+20</v>
+      </c>
+      <c r="D1" s="47">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46">
+        <v>265</v>
+      </c>
+      <c r="F1" s="46">
+        <v>265</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="58">
+        <v>43814.622916666667</v>
+      </c>
+      <c r="J1" s="58">
+        <v>43814.623148148145</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48">
+        <v>37141</v>
+      </c>
+      <c r="B2" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="48">
+        <v>2.0191215145707101E+20</v>
+      </c>
+      <c r="D2" s="49">
+        <v>3</v>
+      </c>
+      <c r="E2" s="48">
+        <v>1387</v>
+      </c>
+      <c r="F2" s="48">
+        <v>1387</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="60">
+        <v>43814.622916666667</v>
+      </c>
+      <c r="J2" s="60">
+        <v>43814.622476851851</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48">
+        <v>37140</v>
+      </c>
+      <c r="B3" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="48">
+        <v>2.01912151456111E+20</v>
+      </c>
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+      <c r="E3" s="48">
+        <v>790</v>
+      </c>
+      <c r="F3" s="48">
+        <v>790</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="60">
+        <v>43814.62222222222</v>
+      </c>
+      <c r="J3" s="60">
+        <v>43814.62232638889</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48">
+        <v>37139</v>
+      </c>
+      <c r="B4" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="48">
+        <v>2.01912151455551E+20</v>
+      </c>
+      <c r="D4" s="49">
+        <v>2</v>
+      </c>
+      <c r="E4" s="48">
+        <v>1198</v>
+      </c>
+      <c r="F4" s="48">
+        <v>1198</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="60">
+        <v>43814.62222222222</v>
+      </c>
+      <c r="J4" s="60">
+        <v>43814.622118055559</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="11">
+        <v>50000</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>37138</v>
+      </c>
+      <c r="B5" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="48">
+        <v>2.01912151455381E+20</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48">
+        <v>462</v>
+      </c>
+      <c r="F5" s="48">
+        <v>462</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="60">
+        <v>43814.621527777781</v>
+      </c>
+      <c r="J5" s="60">
+        <v>43814.616990740738</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="11">
+        <v>20000</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>37137</v>
+      </c>
+      <c r="B6" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="48">
+        <v>2.01912151446501E+20</v>
+      </c>
+      <c r="D6" s="49">
+        <v>3</v>
+      </c>
+      <c r="E6" s="48">
+        <v>427</v>
+      </c>
+      <c r="F6" s="48">
+        <v>427</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="60">
+        <v>43814.615277777775</v>
+      </c>
+      <c r="J6" s="60">
+        <v>43814.615798611114</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>69802.3</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48">
+        <v>37136</v>
+      </c>
+      <c r="B7" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="48">
+        <v>2.0191215144636101E+20</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48">
+        <v>143</v>
+      </c>
+      <c r="F7" s="48">
+        <v>143</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="60">
+        <v>43814.615277777775</v>
+      </c>
+      <c r="J7" s="60">
+        <v>43814.615578703706</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="11">
+        <v>-374.94</v>
+      </c>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48">
+        <v>37135</v>
+      </c>
+      <c r="B8" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="48">
+        <v>2.0191215144619101E+20</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1</v>
+      </c>
+      <c r="E8" s="48">
+        <v>375</v>
+      </c>
+      <c r="F8" s="48">
+        <v>375</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="60">
+        <v>43814.615277777775</v>
+      </c>
+      <c r="J8" s="60">
+        <v>43814.615208333336</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
+        <v>37134</v>
+      </c>
+      <c r="B9" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="48">
+        <v>2.0191215144546101E+20</v>
+      </c>
+      <c r="D9" s="49">
+        <v>2</v>
+      </c>
+      <c r="E9" s="48">
+        <v>547</v>
+      </c>
+      <c r="F9" s="48">
+        <v>547</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="60">
+        <v>43814.614583333336</v>
+      </c>
+      <c r="J9" s="60">
+        <v>43814.615023148152</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
+        <v>37133</v>
+      </c>
+      <c r="B10" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="48">
+        <v>2.0191215144520099E+20</v>
+      </c>
+      <c r="D10" s="49">
+        <v>1</v>
+      </c>
+      <c r="E10" s="48">
+        <v>78</v>
+      </c>
+      <c r="F10" s="48">
+        <v>78</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="60">
+        <v>43814.614583333336</v>
+      </c>
+      <c r="J10" s="60">
+        <v>43814.614722222221</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48">
+        <v>37132</v>
+      </c>
+      <c r="B11" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="48">
+        <v>2.0191215144455101E+20</v>
+      </c>
+      <c r="D11" s="49">
+        <v>2</v>
+      </c>
+      <c r="E11" s="48">
+        <v>280</v>
+      </c>
+      <c r="F11" s="48">
+        <v>280</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="60">
+        <v>43814.614583333336</v>
+      </c>
+      <c r="J11" s="60">
+        <v>43814.606585648151</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48">
+        <v>37131</v>
+      </c>
+      <c r="B12" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="48">
+        <v>2.0191215143320099E+20</v>
+      </c>
+      <c r="D12" s="49">
+        <v>2</v>
+      </c>
+      <c r="E12" s="48">
+        <v>547</v>
+      </c>
+      <c r="F12" s="48">
+        <v>547</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="60">
+        <v>43814.606249999997</v>
+      </c>
+      <c r="J12" s="60">
+        <v>43814.606412037036</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48">
+        <v>37130</v>
+      </c>
+      <c r="B13" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="48">
+        <v>2.0191215143300101E+20</v>
+      </c>
+      <c r="D13" s="49">
+        <v>2</v>
+      </c>
+      <c r="E13" s="48">
+        <v>567</v>
+      </c>
+      <c r="F13" s="48">
+        <v>567</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="60">
+        <v>43814.606249999997</v>
+      </c>
+      <c r="J13" s="60">
+        <v>43814.606192129628</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48">
+        <v>37129</v>
+      </c>
+      <c r="B14" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="48">
+        <v>2.0191215143240099E+20</v>
+      </c>
+      <c r="D14" s="49">
+        <v>2</v>
+      </c>
+      <c r="E14" s="48">
+        <v>438</v>
+      </c>
+      <c r="F14" s="48">
+        <v>438</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="60">
+        <v>43814.605555555558</v>
+      </c>
+      <c r="J14" s="60">
+        <v>43814.601979166669</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
+        <v>37128</v>
+      </c>
+      <c r="B15" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="42">
+        <v>2.0191215142643099E+20</v>
+      </c>
+      <c r="D15" s="43">
+        <v>1</v>
+      </c>
+      <c r="E15" s="42">
+        <v>465</v>
+      </c>
+      <c r="F15" s="42">
+        <v>465</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="54">
+        <v>43814.601388888892</v>
+      </c>
+      <c r="J15" s="54">
+        <v>43814.6018287037</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46">
+        <v>37126</v>
+      </c>
+      <c r="B16" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="46">
+        <v>2.0191215142627099E+20</v>
+      </c>
+      <c r="D16" s="47">
+        <v>2</v>
+      </c>
+      <c r="E16" s="46">
+        <v>779</v>
+      </c>
+      <c r="F16" s="46">
+        <v>779</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="58">
+        <v>43814.601388888892</v>
+      </c>
+      <c r="J16" s="58">
+        <v>43814.601620370369</v>
+      </c>
+      <c r="K16" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="48">
+        <v>37125</v>
+      </c>
+      <c r="B17" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="48">
+        <v>2.0191215142610099E+20</v>
+      </c>
+      <c r="D17" s="49">
+        <v>3</v>
+      </c>
+      <c r="E17" s="48">
+        <v>378</v>
+      </c>
+      <c r="F17" s="48">
+        <v>378</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="60">
+        <v>43814.601388888892</v>
+      </c>
+      <c r="J17" s="60">
+        <v>43814.601435185185</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48">
+        <v>37124</v>
+      </c>
+      <c r="B18" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="48">
+        <v>2.0191215142549101E+20</v>
+      </c>
+      <c r="D18" s="49">
+        <v>1</v>
+      </c>
+      <c r="E18" s="48">
+        <v>39.9</v>
+      </c>
+      <c r="F18" s="48">
+        <v>39.9</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="60">
+        <v>43814.601388888892</v>
+      </c>
+      <c r="J18" s="60">
+        <v>43814.60119212963</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42">
+        <v>37123</v>
+      </c>
+      <c r="B19" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="42">
+        <v>2.0191215142526101E+20</v>
+      </c>
+      <c r="D19" s="43">
+        <v>1</v>
+      </c>
+      <c r="E19" s="42">
+        <v>33</v>
+      </c>
+      <c r="F19" s="42">
+        <v>33</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="54">
+        <v>43814.600694444445</v>
+      </c>
+      <c r="J19" s="54">
+        <v>43814.600925925923</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46">
+        <v>37122</v>
+      </c>
+      <c r="B20" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="46">
+        <v>2.01912151425061E+20</v>
+      </c>
+      <c r="D20" s="47">
+        <v>1</v>
+      </c>
+      <c r="E20" s="46">
+        <v>620</v>
+      </c>
+      <c r="F20" s="46">
+        <v>620</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="58">
+        <v>43814.600694444445</v>
+      </c>
+      <c r="J20" s="58">
+        <v>43814.592488425929</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48">
+        <v>37121</v>
+      </c>
+      <c r="B21" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="48">
+        <v>2.0191215141300099E+20</v>
+      </c>
+      <c r="D21" s="49">
+        <v>2</v>
+      </c>
+      <c r="E21" s="48">
+        <v>622</v>
+      </c>
+      <c r="F21" s="48">
+        <v>622</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="60">
+        <v>43814.592361111114</v>
+      </c>
+      <c r="J21" s="60">
+        <v>43814.592280092591</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="48">
+        <v>37120</v>
+      </c>
+      <c r="B22" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="48">
+        <v>2.0191215141244099E+20</v>
+      </c>
+      <c r="D22" s="49">
+        <v>2</v>
+      </c>
+      <c r="E22" s="48">
+        <v>160</v>
+      </c>
+      <c r="F22" s="48">
+        <v>160</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="60">
+        <v>43814.591666666667</v>
+      </c>
+      <c r="J22" s="60">
+        <v>43814.592129629629</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48">
+        <v>37119</v>
+      </c>
+      <c r="B23" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="48">
+        <v>2.0191215141232099E+20</v>
+      </c>
+      <c r="D23" s="49">
+        <v>2</v>
+      </c>
+      <c r="E23" s="48">
+        <v>768</v>
+      </c>
+      <c r="F23" s="48">
+        <v>768</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="60">
+        <v>43814.591666666667</v>
+      </c>
+      <c r="J23" s="60">
+        <v>43814.586550925924</v>
+      </c>
+      <c r="K23" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48">
+        <v>37118</v>
+      </c>
+      <c r="B24" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="48">
+        <v>2.0191215140422101E+20</v>
+      </c>
+      <c r="D24" s="49">
+        <v>3</v>
+      </c>
+      <c r="E24" s="48">
+        <v>229.9</v>
+      </c>
+      <c r="F24" s="48">
+        <v>229.9</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="60">
+        <v>43814.586111111108</v>
+      </c>
+      <c r="J24" s="60">
+        <v>43814.586122685185</v>
+      </c>
+      <c r="K24" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="48">
+        <v>37117</v>
+      </c>
+      <c r="B25" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="48">
+        <v>2.01912151403491E+20</v>
+      </c>
+      <c r="D25" s="49">
+        <v>1</v>
+      </c>
+      <c r="E25" s="48">
+        <v>373</v>
+      </c>
+      <c r="F25" s="48">
+        <v>373</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="60">
+        <v>43814.585416666669</v>
+      </c>
+      <c r="J25" s="60">
+        <v>43814.585949074077</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="48">
+        <v>37116</v>
+      </c>
+      <c r="B26" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="48">
+        <v>2.01912151403371E+20</v>
+      </c>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="48">
+        <v>487</v>
+      </c>
+      <c r="F26" s="48">
+        <v>487</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="60">
+        <v>43814.585416666669</v>
+      </c>
+      <c r="J26" s="60">
+        <v>43814.585775462961</v>
+      </c>
+      <c r="K26" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48">
+        <v>37115</v>
+      </c>
+      <c r="B27" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="48">
+        <v>2.01912151403101E+20</v>
+      </c>
+      <c r="D27" s="49">
+        <v>3</v>
+      </c>
+      <c r="E27" s="48">
+        <v>549</v>
+      </c>
+      <c r="F27" s="48">
+        <v>549</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="60">
+        <v>43814.585416666669</v>
+      </c>
+      <c r="J27" s="60">
+        <v>43814.585462962961</v>
+      </c>
+      <c r="K27" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="48">
+        <v>37114</v>
+      </c>
+      <c r="B28" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="48">
+        <v>2.0191215140254099E+20</v>
+      </c>
+      <c r="D28" s="49">
+        <v>2</v>
+      </c>
+      <c r="E28" s="48">
+        <v>148</v>
+      </c>
+      <c r="F28" s="48">
+        <v>148</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="60">
+        <v>43814.585416666669</v>
+      </c>
+      <c r="J28" s="60">
+        <v>43814.585185185184</v>
+      </c>
+      <c r="K28" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48">
+        <v>37113</v>
+      </c>
+      <c r="B29" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="48">
+        <v>2.0191215140228101E+20</v>
+      </c>
+      <c r="D29" s="49">
+        <v>1</v>
+      </c>
+      <c r="E29" s="48">
+        <v>99</v>
+      </c>
+      <c r="F29" s="48">
+        <v>99</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="60">
+        <v>43814.584722222222</v>
+      </c>
+      <c r="J29" s="60">
+        <v>43814.584930555553</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="48">
+        <v>37112</v>
+      </c>
+      <c r="B30" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="48">
+        <v>2.0191215134025099E+20</v>
+      </c>
+      <c r="D30" s="49">
+        <v>1</v>
+      </c>
+      <c r="E30" s="48">
+        <v>189</v>
+      </c>
+      <c r="F30" s="48">
+        <v>189</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="60">
+        <v>43814.569444444445</v>
+      </c>
+      <c r="J30" s="60">
+        <v>43814.569733796299</v>
+      </c>
+      <c r="K30" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="48">
+        <v>37111</v>
+      </c>
+      <c r="B31" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="48">
+        <v>2.0191215133901101E+20</v>
+      </c>
+      <c r="D31" s="49">
+        <v>3</v>
+      </c>
+      <c r="E31" s="48">
+        <v>264</v>
+      </c>
+      <c r="F31" s="48">
+        <v>264</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="60">
+        <v>43814.568749999999</v>
+      </c>
+      <c r="J31" s="60">
+        <v>43814.568761574075</v>
+      </c>
+      <c r="K31" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="48">
+        <v>37110</v>
+      </c>
+      <c r="B32" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="48">
+        <v>2.01912151331531E+20</v>
+      </c>
+      <c r="D32" s="49">
+        <v>2</v>
+      </c>
+      <c r="E32" s="48">
+        <v>298</v>
+      </c>
+      <c r="F32" s="48">
+        <v>298</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="60">
+        <v>43814.563888888886</v>
+      </c>
+      <c r="J32" s="60">
+        <v>43814.563807870371</v>
+      </c>
+      <c r="K32" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="48">
+        <v>37109</v>
+      </c>
+      <c r="B33" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="48">
+        <v>2.01912151331291E+20</v>
+      </c>
+      <c r="D33" s="49">
+        <v>4</v>
+      </c>
+      <c r="E33" s="48">
+        <v>756</v>
+      </c>
+      <c r="F33" s="48">
+        <v>756</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="60">
+        <v>43814.563194444447</v>
+      </c>
+      <c r="J33" s="60">
+        <v>43814.563530092593</v>
+      </c>
+      <c r="K33" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="48">
+        <v>37108</v>
+      </c>
+      <c r="B34" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="48">
+        <v>2.0191215133108099E+20</v>
+      </c>
+      <c r="D34" s="49">
+        <v>5</v>
+      </c>
+      <c r="E34" s="48">
+        <v>645</v>
+      </c>
+      <c r="F34" s="48">
+        <v>645</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="60">
+        <v>43814.563194444447</v>
+      </c>
+      <c r="J34" s="60">
+        <v>43814.563287037039</v>
+      </c>
+      <c r="K34" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="48">
+        <v>37107</v>
+      </c>
+      <c r="B35" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="48">
+        <v>2.01912151316231E+20</v>
+      </c>
+      <c r="D35" s="49">
+        <v>2</v>
+      </c>
+      <c r="E35" s="48">
+        <v>660</v>
+      </c>
+      <c r="F35" s="48">
+        <v>660</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="60">
+        <v>43814.552777777775</v>
+      </c>
+      <c r="J35" s="60">
+        <v>43814.553043981483</v>
+      </c>
+      <c r="K35" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48">
+        <v>37106</v>
+      </c>
+      <c r="B36" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="48">
+        <v>2.01912151315491E+20</v>
+      </c>
+      <c r="D36" s="49">
+        <v>1</v>
+      </c>
+      <c r="E36" s="48">
+        <v>469</v>
+      </c>
+      <c r="F36" s="48">
+        <v>469</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="60">
+        <v>43814.552083333336</v>
+      </c>
+      <c r="J36" s="60">
+        <v>43814.55263888889</v>
+      </c>
+      <c r="K36" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="48">
+        <v>37105</v>
+      </c>
+      <c r="B37" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="48">
+        <v>2.01912151315251E+20</v>
+      </c>
+      <c r="D37" s="49">
+        <v>1</v>
+      </c>
+      <c r="E37" s="48">
+        <v>370</v>
+      </c>
+      <c r="F37" s="48">
+        <v>370</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="60">
+        <v>43814.552083333336</v>
+      </c>
+      <c r="J37" s="60">
+        <v>43814.552372685182</v>
+      </c>
+      <c r="K37" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42">
+        <v>37104</v>
+      </c>
+      <c r="B38" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="42">
+        <v>2.01912151314571E+20</v>
+      </c>
+      <c r="D38" s="43">
+        <v>1</v>
+      </c>
+      <c r="E38" s="42">
+        <v>469</v>
+      </c>
+      <c r="F38" s="42">
+        <v>469</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="54">
+        <v>43814.552083333336</v>
+      </c>
+      <c r="J38" s="54">
+        <v>43814.552048611113</v>
+      </c>
+      <c r="K38" s="55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="46">
+        <v>37102</v>
+      </c>
+      <c r="B39" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="46">
+        <v>2.01912151237031E+20</v>
+      </c>
+      <c r="D39" s="47">
+        <v>1</v>
+      </c>
+      <c r="E39" s="46">
+        <v>760</v>
+      </c>
+      <c r="F39" s="46">
+        <v>760</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="58">
+        <v>43814.525694444441</v>
+      </c>
+      <c r="J39" s="58">
+        <v>43814.525682870371</v>
+      </c>
+      <c r="K39" s="72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="46">
+        <v>37099</v>
+      </c>
+      <c r="B40" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="46">
+        <v>2.0191215122254099E+20</v>
+      </c>
+      <c r="D40" s="47">
+        <v>2</v>
+      </c>
+      <c r="E40" s="46">
+        <v>942</v>
+      </c>
+      <c r="F40" s="46">
+        <v>942</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="58">
+        <v>43814.515972222223</v>
+      </c>
+      <c r="J40" s="58">
+        <v>43814.515833333331</v>
+      </c>
+      <c r="K40" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="48">
+        <v>37098</v>
+      </c>
+      <c r="B41" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="48">
+        <v>2.0191215122237099E+20</v>
+      </c>
+      <c r="D41" s="49">
+        <v>2</v>
+      </c>
+      <c r="E41" s="48">
+        <v>268</v>
+      </c>
+      <c r="F41" s="48">
+        <v>268</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="60">
+        <v>43814.515277777777</v>
+      </c>
+      <c r="J41" s="60">
+        <v>43814.508680555555</v>
+      </c>
+      <c r="K41" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="48">
+        <v>37097</v>
+      </c>
+      <c r="B42" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="48">
+        <v>2.0191215121207099E+20</v>
+      </c>
+      <c r="D42" s="49">
+        <v>1</v>
+      </c>
+      <c r="E42" s="48">
+        <v>375</v>
+      </c>
+      <c r="F42" s="48">
+        <v>375</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="60">
+        <v>43814.508333333331</v>
+      </c>
+      <c r="J42" s="60">
+        <v>43814.508344907408</v>
+      </c>
+      <c r="K42" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="48">
+        <v>37096</v>
+      </c>
+      <c r="B43" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="48">
+        <v>2.0191215121145099E+20</v>
+      </c>
+      <c r="D43" s="49">
+        <v>3</v>
+      </c>
+      <c r="E43" s="48">
+        <v>515</v>
+      </c>
+      <c r="F43" s="48">
+        <v>515</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="60">
+        <v>43814.507638888892</v>
+      </c>
+      <c r="J43" s="60">
+        <v>43814.508020833331</v>
+      </c>
+      <c r="K43" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="48">
+        <v>37095</v>
+      </c>
+      <c r="B44" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="48">
+        <v>2.0191215121114101E+20</v>
+      </c>
+      <c r="D44" s="49">
+        <v>2</v>
+      </c>
+      <c r="E44" s="48">
+        <v>89</v>
+      </c>
+      <c r="F44" s="48">
+        <v>89</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="60">
+        <v>43814.507638888892</v>
+      </c>
+      <c r="J44" s="60">
+        <v>43814.507743055554</v>
+      </c>
+      <c r="K44" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48">
+        <v>37094</v>
+      </c>
+      <c r="B45" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="48">
+        <v>2.0191215121056101E+20</v>
+      </c>
+      <c r="D45" s="49">
+        <v>3</v>
+      </c>
+      <c r="E45" s="48">
+        <v>411</v>
+      </c>
+      <c r="F45" s="48">
+        <v>411</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="60">
+        <v>43814.507638888892</v>
+      </c>
+      <c r="J45" s="60">
+        <v>43814.507303240738</v>
+      </c>
+      <c r="K45" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="48">
+        <v>37093</v>
+      </c>
+      <c r="B46" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="48">
+        <v>2.0191215120923099E+20</v>
+      </c>
+      <c r="D46" s="49">
+        <v>1</v>
+      </c>
+      <c r="E46" s="48">
+        <v>189</v>
+      </c>
+      <c r="F46" s="48">
+        <v>189</v>
+      </c>
+      <c r="G46" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="60">
+        <v>43814.506249999999</v>
+      </c>
+      <c r="J46" s="60">
+        <v>43814.506504629629</v>
+      </c>
+      <c r="K46" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="48">
+        <v>37092</v>
+      </c>
+      <c r="B47" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="48">
+        <v>2.0191215120902101E+20</v>
+      </c>
+      <c r="D47" s="49">
+        <v>4</v>
+      </c>
+      <c r="E47" s="48">
+        <v>756</v>
+      </c>
+      <c r="F47" s="48">
+        <v>756</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="60">
+        <v>43814.506249999999</v>
+      </c>
+      <c r="J47" s="60">
+        <v>43814.506273148145</v>
+      </c>
+      <c r="K47" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="48">
+        <v>37091</v>
+      </c>
+      <c r="B48" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="48">
+        <v>2.0191215120839098E+20</v>
+      </c>
+      <c r="D48" s="49">
+        <v>1</v>
+      </c>
+      <c r="E48" s="48">
+        <v>370</v>
+      </c>
+      <c r="F48" s="48">
+        <v>370</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="60">
+        <v>43814.505555555559</v>
+      </c>
+      <c r="J48" s="60">
+        <v>43814.506006944444</v>
+      </c>
+      <c r="K48" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="48">
+        <v>37090</v>
+      </c>
+      <c r="B49" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="48">
+        <v>2.01912151208191E+20</v>
+      </c>
+      <c r="D49" s="49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="48">
+        <v>768</v>
+      </c>
+      <c r="F49" s="48">
+        <v>768</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="60">
+        <v>43814.505555555559</v>
+      </c>
+      <c r="J49" s="60">
+        <v>43814.50577546296</v>
+      </c>
+      <c r="K49" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="48">
+        <v>37088</v>
+      </c>
+      <c r="B50" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="48">
+        <v>2.0191215105304101E+20</v>
+      </c>
+      <c r="D50" s="49">
+        <v>1</v>
+      </c>
+      <c r="E50" s="48">
+        <v>115</v>
+      </c>
+      <c r="F50" s="48">
+        <v>115</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="60">
+        <v>43814.453472222223</v>
+      </c>
+      <c r="J50" s="60">
+        <v>43814.4534375</v>
+      </c>
+      <c r="K50" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="48">
+        <v>37087</v>
+      </c>
+      <c r="B51" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="48">
+        <v>2.0191215105244099E+20</v>
+      </c>
+      <c r="D51" s="49">
+        <v>3</v>
+      </c>
+      <c r="E51" s="48">
+        <v>843.9</v>
+      </c>
+      <c r="F51" s="48">
+        <v>843.9</v>
+      </c>
+      <c r="G51" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="60">
+        <v>43814.452777777777</v>
+      </c>
+      <c r="J51" s="60">
+        <v>43814.453229166669</v>
+      </c>
+      <c r="K51" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="48">
+        <v>37086</v>
+      </c>
+      <c r="B52" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="48">
+        <v>2.0191215105228099E+20</v>
+      </c>
+      <c r="D52" s="49">
+        <v>3</v>
+      </c>
+      <c r="E52" s="48">
+        <v>901</v>
+      </c>
+      <c r="F52" s="48">
+        <v>901</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="60">
+        <v>43814.452777777777</v>
+      </c>
+      <c r="J52" s="60">
+        <v>43814.453009259261</v>
+      </c>
+      <c r="K52" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="48">
+        <v>37085</v>
+      </c>
+      <c r="B53" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="48">
+        <v>2.0191215105211099E+20</v>
+      </c>
+      <c r="D53" s="49">
+        <v>2</v>
+      </c>
+      <c r="E53" s="48">
+        <v>367</v>
+      </c>
+      <c r="F53" s="48">
+        <v>367</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="60">
+        <v>43814.452777777777</v>
+      </c>
+      <c r="J53" s="60">
+        <v>43814.452824074076</v>
+      </c>
+      <c r="K53" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="48">
+        <v>37084</v>
+      </c>
+      <c r="B54" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="48">
+        <v>2.0191215105148099E+20</v>
+      </c>
+      <c r="D54" s="49">
+        <v>3</v>
+      </c>
+      <c r="E54" s="48">
+        <v>322</v>
+      </c>
+      <c r="F54" s="48">
+        <v>322</v>
+      </c>
+      <c r="G54" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="60">
+        <v>43814.45208333333</v>
+      </c>
+      <c r="J54" s="60">
+        <v>43814.451412037037</v>
+      </c>
+      <c r="K54" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="48">
+        <v>37083</v>
+      </c>
+      <c r="B55" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="48">
+        <v>2.0191215104949099E+20</v>
+      </c>
+      <c r="D55" s="49">
+        <v>3</v>
+      </c>
+      <c r="E55" s="48">
+        <v>647</v>
+      </c>
+      <c r="F55" s="48">
+        <v>647</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="60">
+        <v>43814.450694444444</v>
+      </c>
+      <c r="J55" s="60">
+        <v>43814.451203703706</v>
+      </c>
+      <c r="K55" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="48">
+        <v>37082</v>
+      </c>
+      <c r="B56" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="48">
+        <v>2.01912151049301E+20</v>
+      </c>
+      <c r="D56" s="49">
+        <v>4</v>
+      </c>
+      <c r="E56" s="48">
+        <v>1817</v>
+      </c>
+      <c r="F56" s="48">
+        <v>1817</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="60">
+        <v>43814.450694444444</v>
+      </c>
+      <c r="J56" s="60">
+        <v>43814.450983796298</v>
+      </c>
+      <c r="K56" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="42">
+        <v>37081</v>
+      </c>
+      <c r="B57" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="42">
+        <v>2.0191215104912101E+20</v>
+      </c>
+      <c r="D57" s="43">
+        <v>3</v>
+      </c>
+      <c r="E57" s="42">
+        <v>271</v>
+      </c>
+      <c r="F57" s="42">
+        <v>271</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="54">
+        <v>43814.450694444444</v>
+      </c>
+      <c r="J57" s="54">
+        <v>43814.450729166667</v>
+      </c>
+      <c r="K57" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="46">
+        <v>37080</v>
+      </c>
+      <c r="B58" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="46">
+        <v>2.0191215104848101E+20</v>
+      </c>
+      <c r="D58" s="47">
+        <v>3</v>
+      </c>
+      <c r="E58" s="46">
+        <v>1731</v>
+      </c>
+      <c r="F58" s="46">
+        <v>1731</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="58">
+        <v>43814.45</v>
+      </c>
+      <c r="J58" s="58">
+        <v>43814.450509259259</v>
+      </c>
+      <c r="K58" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="48">
+        <v>37079</v>
+      </c>
+      <c r="B59" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="48">
+        <v>2.0191215104835099E+20</v>
+      </c>
+      <c r="D59" s="49">
+        <v>3</v>
+      </c>
+      <c r="E59" s="48">
+        <v>361</v>
+      </c>
+      <c r="F59" s="48">
+        <v>361</v>
+      </c>
+      <c r="G59" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="60">
+        <v>43814.45</v>
+      </c>
+      <c r="J59" s="60">
+        <v>43814.450300925928</v>
+      </c>
+      <c r="K59" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="48">
+        <v>37077</v>
+      </c>
+      <c r="B60" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="48">
+        <v>2.01912151048001E+20</v>
+      </c>
+      <c r="D60" s="49">
+        <v>1</v>
+      </c>
+      <c r="E60" s="48">
+        <v>233</v>
+      </c>
+      <c r="F60" s="48">
+        <v>233</v>
+      </c>
+      <c r="G60" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="60">
+        <v>43814.45</v>
+      </c>
+      <c r="J60" s="60">
+        <v>43814.44976851852</v>
+      </c>
+      <c r="K60" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="48">
+        <v>37076</v>
+      </c>
+      <c r="B61" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="48">
+        <v>2.0191215104601099E+20</v>
+      </c>
+      <c r="D61" s="49">
+        <v>2</v>
+      </c>
+      <c r="E61" s="48">
+        <v>299</v>
+      </c>
+      <c r="F61" s="48">
+        <v>299</v>
+      </c>
+      <c r="G61" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="60">
+        <v>43814.448611111111</v>
+      </c>
+      <c r="J61" s="60">
+        <v>43814.448206018518</v>
+      </c>
+      <c r="K61" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="48">
+        <v>37075</v>
+      </c>
+      <c r="B62" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="48">
+        <v>2.01912151045091E+20</v>
+      </c>
+      <c r="D62" s="49">
+        <v>1</v>
+      </c>
+      <c r="E62" s="48">
+        <v>24</v>
+      </c>
+      <c r="F62" s="48">
+        <v>24</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="60">
+        <v>43814.447916666664</v>
+      </c>
+      <c r="J62" s="60">
+        <v>43814.447974537034</v>
+      </c>
+      <c r="K62" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="48">
+        <v>37074</v>
+      </c>
+      <c r="B63" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="48">
+        <v>2.0191215104449099E+20</v>
+      </c>
+      <c r="D63" s="49">
+        <v>1</v>
+      </c>
+      <c r="E63" s="48">
+        <v>429</v>
+      </c>
+      <c r="F63" s="48">
+        <v>429</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="60">
+        <v>43814.447916666664</v>
+      </c>
+      <c r="J63" s="60">
+        <v>43814.447743055556</v>
+      </c>
+      <c r="K63" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="48">
+        <v>37073</v>
+      </c>
+      <c r="B64" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="48">
+        <v>2.0191215104433101E+20</v>
+      </c>
+      <c r="D64" s="49">
+        <v>1</v>
+      </c>
+      <c r="E64" s="48">
+        <v>200</v>
+      </c>
+      <c r="F64" s="48">
+        <v>200</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="60">
+        <v>43814.447222222225</v>
+      </c>
+      <c r="J64" s="60">
+        <v>43814.447546296295</v>
+      </c>
+      <c r="K64" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="48">
+        <v>37071</v>
+      </c>
+      <c r="B65" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="48">
+        <v>2.0191215104348101E+20</v>
+      </c>
+      <c r="D65" s="49">
+        <v>1</v>
+      </c>
+      <c r="E65" s="48">
+        <v>105</v>
+      </c>
+      <c r="F65" s="48">
+        <v>105</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="60">
+        <v>43814.446527777778</v>
+      </c>
+      <c r="J65" s="60">
+        <v>43814.441145833334</v>
+      </c>
+      <c r="K65" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="48">
+        <v>37070</v>
+      </c>
+      <c r="B66" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="48">
+        <v>2.0191215103459099E+20</v>
+      </c>
+      <c r="D66" s="49">
+        <v>2</v>
+      </c>
+      <c r="E66" s="48">
+        <v>118</v>
+      </c>
+      <c r="F66" s="48">
+        <v>118</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="60">
+        <v>43814.440972222219</v>
+      </c>
+      <c r="J66" s="60">
+        <v>43814.44090277778</v>
+      </c>
+      <c r="K66" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="48">
+        <v>37069</v>
+      </c>
+      <c r="B67" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="48">
+        <v>2.0191215103441099E+20</v>
+      </c>
+      <c r="D67" s="49">
+        <v>3</v>
+      </c>
+      <c r="E67" s="48">
+        <v>1072</v>
+      </c>
+      <c r="F67" s="48">
+        <v>1072</v>
+      </c>
+      <c r="G67" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="60">
+        <v>43814.44027777778</v>
+      </c>
+      <c r="J67" s="60">
+        <v>43814.440648148149</v>
+      </c>
+      <c r="K67" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="48">
+        <v>37068</v>
+      </c>
+      <c r="B68" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="48">
+        <v>2.0191215103420101E+20</v>
+      </c>
+      <c r="D68" s="49">
+        <v>1</v>
+      </c>
+      <c r="E68" s="48">
+        <v>39.9</v>
+      </c>
+      <c r="F68" s="48">
+        <v>39.9</v>
+      </c>
+      <c r="G68" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="60">
+        <v>43814.44027777778</v>
+      </c>
+      <c r="J68" s="60">
+        <v>43814.440462962964</v>
+      </c>
+      <c r="K68" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="48">
+        <v>37067</v>
+      </c>
+      <c r="B69" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="48">
+        <v>2.0191215103403101E+20</v>
+      </c>
+      <c r="D69" s="49">
+        <v>2</v>
+      </c>
+      <c r="E69" s="48">
+        <v>299</v>
+      </c>
+      <c r="F69" s="48">
+        <v>299</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="60">
+        <v>43814.44027777778</v>
+      </c>
+      <c r="J69" s="60">
+        <v>43814.440254629626</v>
+      </c>
+      <c r="K69" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="48">
+        <v>37066</v>
+      </c>
+      <c r="B70" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="48">
+        <v>2.01912151033381E+20</v>
+      </c>
+      <c r="D70" s="49">
+        <v>2</v>
+      </c>
+      <c r="E70" s="48">
+        <v>448</v>
+      </c>
+      <c r="F70" s="48">
+        <v>448</v>
+      </c>
+      <c r="G70" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="60">
+        <v>43814.439583333333</v>
+      </c>
+      <c r="J70" s="60">
+        <v>43814.439976851849</v>
+      </c>
+      <c r="K70" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="48">
+        <v>37065</v>
+      </c>
+      <c r="B71" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="48">
+        <v>2.0191215103323102E+20</v>
+      </c>
+      <c r="D71" s="49">
+        <v>3</v>
+      </c>
+      <c r="E71" s="48">
+        <v>377</v>
+      </c>
+      <c r="F71" s="48">
+        <v>377</v>
+      </c>
+      <c r="G71" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="60">
+        <v>43814.439583333333</v>
+      </c>
+      <c r="J71" s="60">
+        <v>43814.43922453704</v>
+      </c>
+      <c r="K71" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="48">
+        <v>37064</v>
+      </c>
+      <c r="B72" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="48">
+        <v>2.0191215103213099E+20</v>
+      </c>
+      <c r="D72" s="49">
+        <v>1</v>
+      </c>
+      <c r="E72" s="48">
+        <v>139</v>
+      </c>
+      <c r="F72" s="48">
+        <v>139</v>
+      </c>
+      <c r="G72" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="60">
+        <v>43814.438888888886</v>
+      </c>
+      <c r="J72" s="60">
+        <v>43814.438981481479</v>
+      </c>
+      <c r="K72" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="48">
+        <v>37063</v>
+      </c>
+      <c r="B73" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="48">
+        <v>2.0191215103156099E+20</v>
+      </c>
+      <c r="D73" s="49">
+        <v>3</v>
+      </c>
+      <c r="E73" s="48">
+        <v>1055</v>
+      </c>
+      <c r="F73" s="48">
+        <v>1055</v>
+      </c>
+      <c r="G73" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="60">
+        <v>43814.438888888886</v>
+      </c>
+      <c r="J73" s="60">
+        <v>43814.438530092593</v>
+      </c>
+      <c r="K73" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="48">
+        <v>37062</v>
+      </c>
+      <c r="B74" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="48">
+        <v>2.01912151031101E+20</v>
+      </c>
+      <c r="D74" s="49">
+        <v>2</v>
+      </c>
+      <c r="E74" s="48">
+        <v>543</v>
+      </c>
+      <c r="F74" s="48">
+        <v>543</v>
+      </c>
+      <c r="G74" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="60">
+        <v>43814.438194444447</v>
+      </c>
+      <c r="J74" s="60">
+        <v>43814.438263888886</v>
+      </c>
+      <c r="K74" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="48">
+        <v>37061</v>
+      </c>
+      <c r="B75" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="48">
+        <v>2.0191215103054099E+20</v>
+      </c>
+      <c r="D75" s="49">
+        <v>2</v>
+      </c>
+      <c r="E75" s="48">
+        <v>217</v>
+      </c>
+      <c r="F75" s="48">
+        <v>217</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="60">
+        <v>43814.438194444447</v>
+      </c>
+      <c r="J75" s="60">
+        <v>43814.438055555554</v>
+      </c>
+      <c r="K75" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="48">
+        <v>37060</v>
+      </c>
+      <c r="B76" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="48">
+        <v>2.0191215103037099E+20</v>
+      </c>
+      <c r="D76" s="49">
+        <v>3</v>
+      </c>
+      <c r="E76" s="48">
+        <v>814</v>
+      </c>
+      <c r="F76" s="48">
+        <v>814</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="60">
+        <v>43814.4375</v>
+      </c>
+      <c r="J76" s="60">
+        <v>43814.437627314815</v>
+      </c>
+      <c r="K76" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="42">
+        <v>37059</v>
+      </c>
+      <c r="B77" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="42">
+        <v>2.0191215102957099E+20</v>
+      </c>
+      <c r="D77" s="43">
+        <v>3</v>
+      </c>
+      <c r="E77" s="42">
+        <v>1030</v>
+      </c>
+      <c r="F77" s="42">
+        <v>1030</v>
+      </c>
+      <c r="G77" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="54">
+        <v>43814.4375</v>
+      </c>
+      <c r="J77" s="54">
+        <v>43814.437418981484</v>
+      </c>
+      <c r="K77" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="46">
+        <v>37058</v>
+      </c>
+      <c r="B78" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="46">
+        <v>2.01912151029391E+20</v>
+      </c>
+      <c r="D78" s="47">
+        <v>2</v>
+      </c>
+      <c r="E78" s="46">
+        <v>1239</v>
+      </c>
+      <c r="F78" s="46">
+        <v>1239</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="58">
+        <v>43814.436805555553</v>
+      </c>
+      <c r="J78" s="58">
+        <v>43814.437210648146</v>
+      </c>
+      <c r="K78" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="48">
+        <v>37057</v>
+      </c>
+      <c r="B79" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="48">
+        <v>2.0191215102920101E+20</v>
+      </c>
+      <c r="D79" s="49">
+        <v>2</v>
+      </c>
+      <c r="E79" s="48">
+        <v>1003</v>
+      </c>
+      <c r="F79" s="48">
+        <v>1003</v>
+      </c>
+      <c r="G79" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="60">
+        <v>43814.436805555553</v>
+      </c>
+      <c r="J79" s="60">
+        <v>43814.436990740738</v>
+      </c>
+      <c r="K79" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="48">
+        <v>37056</v>
+      </c>
+      <c r="B80" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="48">
+        <v>2.0191215102906099E+20</v>
+      </c>
+      <c r="D80" s="49">
+        <v>3</v>
+      </c>
+      <c r="E80" s="48">
+        <v>747</v>
+      </c>
+      <c r="F80" s="48">
+        <v>747</v>
+      </c>
+      <c r="G80" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="60">
+        <v>43814.436805555553</v>
+      </c>
+      <c r="J80" s="60">
+        <v>43814.436805555553</v>
+      </c>
+      <c r="K80" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="48">
+        <v>37055</v>
+      </c>
+      <c r="B81" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="48">
+        <v>2.0191215102851101E+20</v>
+      </c>
+      <c r="D81" s="49">
+        <v>3</v>
+      </c>
+      <c r="E81" s="48">
+        <v>394</v>
+      </c>
+      <c r="F81" s="48">
+        <v>394</v>
+      </c>
+      <c r="G81" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="60">
+        <v>43814.436111111114</v>
+      </c>
+      <c r="J81" s="60">
+        <v>43814.43644675926</v>
+      </c>
+      <c r="K81" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="48">
+        <v>37054</v>
+      </c>
+      <c r="B82" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="48">
+        <v>2.01912150959021E+20</v>
+      </c>
+      <c r="D82" s="49">
+        <v>6</v>
+      </c>
+      <c r="E82" s="48">
+        <v>696</v>
+      </c>
+      <c r="F82" s="48">
+        <v>696</v>
+      </c>
+      <c r="G82" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="60">
+        <v>43814.415972222225</v>
+      </c>
+      <c r="J82" s="60">
+        <v>43814.415995370371</v>
+      </c>
+      <c r="K82" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="48">
+        <v>37053</v>
+      </c>
+      <c r="B83" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="48">
+        <v>2.01912150958161E+20</v>
+      </c>
+      <c r="D83" s="49">
+        <v>1</v>
+      </c>
+      <c r="E83" s="48">
+        <v>562</v>
+      </c>
+      <c r="F83" s="48">
+        <v>562</v>
+      </c>
+      <c r="G83" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="60">
+        <v>43814.415277777778</v>
+      </c>
+      <c r="J83" s="60">
+        <v>43814.415462962963</v>
+      </c>
+      <c r="K83" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="48">
+        <v>37052</v>
+      </c>
+      <c r="B84" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C84" s="48">
+        <v>2.0191215095751098E+20</v>
+      </c>
+      <c r="D84" s="49">
+        <v>1</v>
+      </c>
+      <c r="E84" s="48">
+        <v>708</v>
+      </c>
+      <c r="F84" s="48">
+        <v>708</v>
+      </c>
+      <c r="G84" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="60">
+        <v>43814.414583333331</v>
+      </c>
+      <c r="J84" s="60">
+        <v>43814.415173611109</v>
+      </c>
+      <c r="K84" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="48">
+        <v>37051</v>
+      </c>
+      <c r="B85" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C85" s="48">
+        <v>2.0191215095721099E+20</v>
+      </c>
+      <c r="D85" s="49">
+        <v>1</v>
+      </c>
+      <c r="E85" s="48">
+        <v>562</v>
+      </c>
+      <c r="F85" s="48">
+        <v>562</v>
+      </c>
+      <c r="G85" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="60">
+        <v>43814.414583333331</v>
+      </c>
+      <c r="J85" s="60">
+        <v>43814.414826388886</v>
+      </c>
+      <c r="K85" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="48">
+        <v>37050</v>
+      </c>
+      <c r="B86" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C86" s="48">
+        <v>2.0191215095653099E+20</v>
+      </c>
+      <c r="D86" s="49">
+        <v>2</v>
+      </c>
+      <c r="E86" s="48">
+        <v>790</v>
+      </c>
+      <c r="F86" s="48">
+        <v>790</v>
+      </c>
+      <c r="G86" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="60">
+        <v>43814.414583333331</v>
+      </c>
+      <c r="J86" s="60">
+        <v>43814.414502314816</v>
+      </c>
+      <c r="K86" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="48">
+        <v>37049</v>
+      </c>
+      <c r="B87" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C87" s="48">
+        <v>2.0191215095625099E+20</v>
+      </c>
+      <c r="D87" s="49">
+        <v>2</v>
+      </c>
+      <c r="E87" s="48">
+        <v>424</v>
+      </c>
+      <c r="F87" s="48">
+        <v>424</v>
+      </c>
+      <c r="G87" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="60">
+        <v>43814.413888888892</v>
+      </c>
+      <c r="J87" s="60">
+        <v>43814.414178240739</v>
+      </c>
+      <c r="K87" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="48">
+        <v>37048</v>
+      </c>
+      <c r="B88" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C88" s="48">
+        <v>2.01912150956011E+20</v>
+      </c>
+      <c r="D88" s="49">
+        <v>1</v>
+      </c>
+      <c r="E88" s="48">
+        <v>395</v>
+      </c>
+      <c r="F88" s="48">
+        <v>395</v>
+      </c>
+      <c r="G88" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="60">
+        <v>43814.413888888892</v>
+      </c>
+      <c r="J88" s="60">
+        <v>43814.413888888892</v>
+      </c>
+      <c r="K88" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="48">
+        <v>37047</v>
+      </c>
+      <c r="B89" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C89" s="48">
+        <v>2.0191215095531101E+20</v>
+      </c>
+      <c r="D89" s="49">
+        <v>2</v>
+      </c>
+      <c r="E89" s="48">
+        <v>930</v>
+      </c>
+      <c r="F89" s="48">
+        <v>930</v>
+      </c>
+      <c r="G89" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" s="60">
+        <v>43814.413194444445</v>
+      </c>
+      <c r="J89" s="60">
+        <v>43814.413553240738</v>
+      </c>
+      <c r="K89" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="48">
+        <v>37046</v>
+      </c>
+      <c r="B90" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C90" s="48">
+        <v>2.0191215095455098E+20</v>
+      </c>
+      <c r="D90" s="49">
+        <v>3</v>
+      </c>
+      <c r="E90" s="48">
+        <v>234</v>
+      </c>
+      <c r="F90" s="48">
+        <v>234</v>
+      </c>
+      <c r="G90" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="60">
+        <v>43814.413194444445</v>
+      </c>
+      <c r="J90" s="60">
+        <v>43814.413136574076</v>
+      </c>
+      <c r="K90" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="48">
+        <v>37045</v>
+      </c>
+      <c r="B91" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C91" s="48">
+        <v>2.0191215095426099E+20</v>
+      </c>
+      <c r="D91" s="49">
+        <v>3</v>
+      </c>
+      <c r="E91" s="48">
+        <v>450</v>
+      </c>
+      <c r="F91" s="48">
+        <v>450</v>
+      </c>
+      <c r="G91" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="60">
+        <v>43814.412499999999</v>
+      </c>
+      <c r="J91" s="60">
+        <v>43814.412800925929</v>
+      </c>
+      <c r="K91" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="48">
+        <v>37044</v>
+      </c>
+      <c r="B92" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C92" s="48">
+        <v>2.01912150952591E+20</v>
+      </c>
+      <c r="D92" s="49">
+        <v>1</v>
+      </c>
+      <c r="E92" s="48">
+        <v>485</v>
+      </c>
+      <c r="F92" s="48">
+        <v>485</v>
+      </c>
+      <c r="G92" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="60">
+        <v>43814.411805555559</v>
+      </c>
+      <c r="J92" s="60">
+        <v>43814.411782407406</v>
+      </c>
+      <c r="K92" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="48">
+        <v>37043</v>
+      </c>
+      <c r="B93" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C93" s="48">
+        <v>2.0191215095235101E+20</v>
+      </c>
+      <c r="D93" s="49">
+        <v>1</v>
+      </c>
+      <c r="E93" s="48">
+        <v>465</v>
+      </c>
+      <c r="F93" s="48">
+        <v>465</v>
+      </c>
+      <c r="G93" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="60">
+        <v>43814.411111111112</v>
+      </c>
+      <c r="J93" s="60">
+        <v>43814.411516203705</v>
+      </c>
+      <c r="K93" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="48">
+        <v>37042</v>
+      </c>
+      <c r="B94" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C94" s="48">
+        <v>2.01912150952081E+20</v>
+      </c>
+      <c r="D94" s="49">
+        <v>2</v>
+      </c>
+      <c r="E94" s="48">
+        <v>660</v>
+      </c>
+      <c r="F94" s="48">
+        <v>660</v>
+      </c>
+      <c r="G94" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="60">
+        <v>43814.411111111112</v>
+      </c>
+      <c r="J94" s="60">
+        <v>43814.411192129628</v>
+      </c>
+      <c r="K94" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="48">
+        <v>37041</v>
+      </c>
+      <c r="B95" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C95" s="48">
+        <v>2.01912150951451E+20</v>
+      </c>
+      <c r="D95" s="49">
+        <v>3</v>
+      </c>
+      <c r="E95" s="48">
+        <v>264</v>
+      </c>
+      <c r="F95" s="48">
+        <v>264</v>
+      </c>
+      <c r="G95" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="60">
+        <v>43814.410416666666</v>
+      </c>
+      <c r="J95" s="60">
+        <v>43814.410937499997</v>
+      </c>
+      <c r="K95" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="48">
+        <v>37040</v>
+      </c>
+      <c r="B96" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C96" s="48">
+        <v>2.0191215095110101E+20</v>
+      </c>
+      <c r="D96" s="49">
+        <v>2</v>
+      </c>
+      <c r="E96" s="48">
+        <v>900</v>
+      </c>
+      <c r="F96" s="48">
+        <v>900</v>
+      </c>
+      <c r="G96" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="60">
+        <v>43814.410416666666</v>
+      </c>
+      <c r="J96" s="60">
+        <v>43814.410532407404</v>
+      </c>
+      <c r="K96" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="42">
+        <v>37039</v>
+      </c>
+      <c r="B97" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C97" s="42">
+        <v>2.0191215095038099E+20</v>
+      </c>
+      <c r="D97" s="43">
+        <v>2</v>
+      </c>
+      <c r="E97" s="42">
+        <v>258</v>
+      </c>
+      <c r="F97" s="42">
+        <v>258</v>
+      </c>
+      <c r="G97" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="54">
+        <v>43814.409722222219</v>
+      </c>
+      <c r="J97" s="54">
+        <v>43814.410162037035</v>
+      </c>
+      <c r="K97" s="55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="44">
+        <v>37038</v>
+      </c>
+      <c r="B98" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C98" s="44">
+        <v>2.0191215095001101E+20</v>
+      </c>
+      <c r="D98" s="45">
+        <v>1</v>
+      </c>
+      <c r="E98" s="44">
+        <v>469</v>
+      </c>
+      <c r="F98" s="44">
+        <v>469</v>
+      </c>
+      <c r="G98" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="56">
+        <v>43814.409722222219</v>
+      </c>
+      <c r="J98" s="56">
+        <v>43814.409722222219</v>
+      </c>
+      <c r="K98" s="75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="46">
+        <v>37186</v>
+      </c>
+      <c r="B99" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C99" s="46">
+        <v>2.0191215171725099E+20</v>
+      </c>
+      <c r="D99" s="47">
+        <v>3</v>
+      </c>
+      <c r="E99" s="46">
+        <v>1199</v>
+      </c>
+      <c r="F99" s="46">
+        <v>1199</v>
+      </c>
+      <c r="G99" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="58">
+        <v>43814.720138888886</v>
+      </c>
+      <c r="J99" s="58">
+        <v>43814.720381944448</v>
+      </c>
+      <c r="K99" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="48">
+        <v>37185</v>
+      </c>
+      <c r="B100" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C100" s="48">
+        <v>2.0191215171713099E+20</v>
+      </c>
+      <c r="D100" s="49">
+        <v>2</v>
+      </c>
+      <c r="E100" s="48">
+        <v>699</v>
+      </c>
+      <c r="F100" s="48">
+        <v>699</v>
+      </c>
+      <c r="G100" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="60">
+        <v>43814.720138888886</v>
+      </c>
+      <c r="J100" s="60">
+        <v>43814.712175925924</v>
+      </c>
+      <c r="K100" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="48">
+        <v>37184</v>
+      </c>
+      <c r="B101" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C101" s="48">
+        <v>2.01912151703471E+20</v>
+      </c>
+      <c r="D101" s="49">
+        <v>1</v>
+      </c>
+      <c r="E101" s="48">
+        <v>26</v>
+      </c>
+      <c r="F101" s="48">
+        <v>26</v>
+      </c>
+      <c r="G101" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="60">
+        <v>43814.710416666669</v>
+      </c>
+      <c r="J101" s="60">
+        <v>43814.710405092592</v>
+      </c>
+      <c r="K101" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="48">
+        <v>37183</v>
+      </c>
+      <c r="B102" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C102" s="48">
+        <v>2.0191215170241099E+20</v>
+      </c>
+      <c r="D102" s="49">
+        <v>1</v>
+      </c>
+      <c r="E102" s="48">
+        <v>462</v>
+      </c>
+      <c r="F102" s="48">
+        <v>462</v>
+      </c>
+      <c r="G102" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="60">
+        <v>43814.709722222222</v>
+      </c>
+      <c r="J102" s="60">
+        <v>43814.710069444445</v>
+      </c>
+      <c r="K102" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="48">
+        <v>37182</v>
+      </c>
+      <c r="B103" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C103" s="48">
+        <v>2.0191215170220101E+20</v>
+      </c>
+      <c r="D103" s="49">
+        <v>3</v>
+      </c>
+      <c r="E103" s="48">
+        <v>743</v>
+      </c>
+      <c r="F103" s="48">
+        <v>743</v>
+      </c>
+      <c r="G103" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="60">
+        <v>43814.709722222222</v>
+      </c>
+      <c r="J103" s="60">
+        <v>43814.709351851852</v>
+      </c>
+      <c r="K103" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="48">
+        <v>37181</v>
+      </c>
+      <c r="B104" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C104" s="48">
+        <v>2.0191215170117101E+20</v>
+      </c>
+      <c r="D104" s="49">
+        <v>2</v>
+      </c>
+      <c r="E104" s="48">
+        <v>133</v>
+      </c>
+      <c r="F104" s="48">
+        <v>133</v>
+      </c>
+      <c r="G104" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="60">
+        <v>43814.709027777775</v>
+      </c>
+      <c r="J104" s="60">
+        <v>43814.709062499998</v>
+      </c>
+      <c r="K104" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="48">
+        <v>37180</v>
+      </c>
+      <c r="B105" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C105" s="48">
+        <v>2.0191215170048102E+20</v>
+      </c>
+      <c r="D105" s="49">
+        <v>2</v>
+      </c>
+      <c r="E105" s="48">
+        <v>884</v>
+      </c>
+      <c r="F105" s="48">
+        <v>884</v>
+      </c>
+      <c r="G105" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="60">
+        <v>43814.708333333336</v>
+      </c>
+      <c r="J105" s="60">
+        <v>43814.706736111111</v>
+      </c>
+      <c r="K105" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="48">
+        <v>37179</v>
+      </c>
+      <c r="B106" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C106" s="48">
+        <v>2.0191215165730098E+20</v>
+      </c>
+      <c r="D106" s="49">
+        <v>3</v>
+      </c>
+      <c r="E106" s="48">
+        <v>197</v>
+      </c>
+      <c r="F106" s="48">
+        <v>197</v>
+      </c>
+      <c r="G106" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="60">
+        <v>43814.706250000003</v>
+      </c>
+      <c r="J106" s="60">
+        <v>43814.706469907411</v>
+      </c>
+      <c r="K106" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="48">
+        <v>37178</v>
+      </c>
+      <c r="B107" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C107" s="48">
+        <v>2.01912151657051E+20</v>
+      </c>
+      <c r="D107" s="49">
+        <v>2</v>
+      </c>
+      <c r="E107" s="48">
+        <v>1025</v>
+      </c>
+      <c r="F107" s="48">
+        <v>1025</v>
+      </c>
+      <c r="G107" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="60">
+        <v>43814.706250000003</v>
+      </c>
+      <c r="J107" s="60">
+        <v>43814.70590277778</v>
+      </c>
+      <c r="K107" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="48">
+        <v>37177</v>
+      </c>
+      <c r="B108" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C108" s="48">
+        <v>2.0191215165622102E+20</v>
+      </c>
+      <c r="D108" s="49">
+        <v>1</v>
+      </c>
+      <c r="E108" s="48">
+        <v>120</v>
+      </c>
+      <c r="F108" s="48">
+        <v>120</v>
+      </c>
+      <c r="G108" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="60">
+        <v>43814.705555555556</v>
+      </c>
+      <c r="J108" s="60">
+        <v>43814.705706018518</v>
+      </c>
+      <c r="K108" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="42">
+        <v>37176</v>
+      </c>
+      <c r="B109" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C109" s="42">
+        <v>2.0191215165601101E+20</v>
+      </c>
+      <c r="D109" s="43">
+        <v>3</v>
+      </c>
+      <c r="E109" s="42">
+        <v>974</v>
+      </c>
+      <c r="F109" s="42">
+        <v>974</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="54">
+        <v>43814.705555555556</v>
+      </c>
+      <c r="J109" s="54">
+        <v>43814.705150462964</v>
+      </c>
+      <c r="K109" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="46">
+        <v>37174</v>
+      </c>
+      <c r="B110" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C110" s="46">
+        <v>2.0191215165513099E+20</v>
+      </c>
+      <c r="D110" s="47">
+        <v>1</v>
+      </c>
+      <c r="E110" s="46">
+        <v>185</v>
+      </c>
+      <c r="F110" s="46">
+        <v>185</v>
+      </c>
+      <c r="G110" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="58">
+        <v>43814.704861111109</v>
+      </c>
+      <c r="J110" s="58">
+        <v>43814.702708333331</v>
+      </c>
+      <c r="K110" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="48">
+        <v>37173</v>
+      </c>
+      <c r="B111" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C111" s="48">
+        <v>2.0191215165146101E+20</v>
+      </c>
+      <c r="D111" s="49">
+        <v>1</v>
+      </c>
+      <c r="E111" s="48">
+        <v>79</v>
+      </c>
+      <c r="F111" s="48">
+        <v>79</v>
+      </c>
+      <c r="G111" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="60">
+        <v>43814.70208333333</v>
+      </c>
+      <c r="J111" s="60">
+        <v>43814.702453703707</v>
+      </c>
+      <c r="K111" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="48">
+        <v>37172</v>
+      </c>
+      <c r="B112" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C112" s="48">
+        <v>2.01912151651251E+20</v>
+      </c>
+      <c r="D112" s="49">
+        <v>1</v>
+      </c>
+      <c r="E112" s="48">
+        <v>200</v>
+      </c>
+      <c r="F112" s="48">
+        <v>200</v>
+      </c>
+      <c r="G112" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="60">
+        <v>43814.70208333333</v>
+      </c>
+      <c r="J112" s="60">
+        <v>43814.702233796299</v>
+      </c>
+      <c r="K112" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="48">
+        <v>37171</v>
+      </c>
+      <c r="B113" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C113" s="48">
+        <v>2.0191215165100101E+20</v>
+      </c>
+      <c r="D113" s="49">
+        <v>2</v>
+      </c>
+      <c r="E113" s="48">
+        <v>1288</v>
+      </c>
+      <c r="F113" s="48">
+        <v>1288</v>
+      </c>
+      <c r="G113" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="60">
+        <v>43814.70208333333</v>
+      </c>
+      <c r="J113" s="60">
+        <v>43814.701747685183</v>
+      </c>
+      <c r="K113" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="48">
+        <v>37170</v>
+      </c>
+      <c r="B114" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C114" s="48">
+        <v>2.0191215165019102E+20</v>
+      </c>
+      <c r="D114" s="49">
+        <v>2</v>
+      </c>
+      <c r="E114" s="48">
+        <v>547</v>
+      </c>
+      <c r="F114" s="48">
+        <v>547</v>
+      </c>
+      <c r="G114" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="60">
+        <v>43814.701388888891</v>
+      </c>
+      <c r="J114" s="60">
+        <v>43814.701203703706</v>
+      </c>
+      <c r="K114" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="48">
+        <v>37168</v>
+      </c>
+      <c r="B115" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C115" s="48">
+        <v>2.01912151648391E+20</v>
+      </c>
+      <c r="D115" s="49">
+        <v>3</v>
+      </c>
+      <c r="E115" s="48">
+        <v>952</v>
+      </c>
+      <c r="F115" s="48">
+        <v>952</v>
+      </c>
+      <c r="G115" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="60">
+        <v>43814.7</v>
+      </c>
+      <c r="J115" s="60">
+        <v>43814.70034722222</v>
+      </c>
+      <c r="K115" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="48">
+        <v>37167</v>
+      </c>
+      <c r="B116" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C116" s="48">
+        <v>2.0191215164818099E+20</v>
+      </c>
+      <c r="D116" s="49">
+        <v>2</v>
+      </c>
+      <c r="E116" s="48">
+        <v>1020</v>
+      </c>
+      <c r="F116" s="48">
+        <v>1020</v>
+      </c>
+      <c r="G116" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="60">
+        <v>43814.7</v>
+      </c>
+      <c r="J116" s="60">
+        <v>43814.698842592596</v>
+      </c>
+      <c r="K116" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="42">
+        <v>37166</v>
+      </c>
+      <c r="B117" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C117" s="42">
+        <v>2.01912151646011E+20</v>
+      </c>
+      <c r="D117" s="43">
+        <v>1</v>
+      </c>
+      <c r="E117" s="42">
+        <v>33</v>
+      </c>
+      <c r="F117" s="42">
+        <v>33</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="54">
+        <v>43814.698611111111</v>
+      </c>
+      <c r="J117" s="54">
+        <v>43814.698530092595</v>
+      </c>
+      <c r="K117" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="44">
+        <v>37165</v>
+      </c>
+      <c r="B118" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C118" s="44">
+        <v>2.0191215164543101E+20</v>
+      </c>
+      <c r="D118" s="45">
+        <v>2</v>
+      </c>
+      <c r="E118" s="44">
+        <v>586</v>
+      </c>
+      <c r="F118" s="44">
+        <v>586</v>
+      </c>
+      <c r="G118" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="56">
+        <v>43814.697916666664</v>
+      </c>
+      <c r="J118" s="56">
+        <v>43814.696458333332</v>
+      </c>
+      <c r="K118" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="46">
+        <v>37163</v>
+      </c>
+      <c r="B119" s="46">
+        <v>15874</v>
+      </c>
+      <c r="C119" s="46">
+        <v>2.0191215164244099E+20</v>
+      </c>
+      <c r="D119" s="47">
+        <v>2</v>
+      </c>
+      <c r="E119" s="46">
+        <v>242</v>
+      </c>
+      <c r="F119" s="46">
+        <v>242</v>
+      </c>
+      <c r="G119" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="58">
+        <v>43814.695833333331</v>
+      </c>
+      <c r="J119" s="58">
+        <v>43814.694675925923</v>
+      </c>
+      <c r="K119" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="48">
+        <v>37162</v>
+      </c>
+      <c r="B120" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C120" s="48">
+        <v>2.01912151640091E+20</v>
+      </c>
+      <c r="D120" s="49">
+        <v>3</v>
+      </c>
+      <c r="E120" s="48">
+        <v>385</v>
+      </c>
+      <c r="F120" s="48">
+        <v>385</v>
+      </c>
+      <c r="G120" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="60">
+        <v>43814.694444444445</v>
+      </c>
+      <c r="J120" s="60">
+        <v>43814.694398148145</v>
+      </c>
+      <c r="K120" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="48">
+        <v>37161</v>
+      </c>
+      <c r="B121" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C121" s="48">
+        <v>2.0191215163942099E+20</v>
+      </c>
+      <c r="D121" s="49">
+        <v>2</v>
+      </c>
+      <c r="E121" s="48">
+        <v>600</v>
+      </c>
+      <c r="F121" s="48">
+        <v>600</v>
+      </c>
+      <c r="G121" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="60">
+        <v>43814.693749999999</v>
+      </c>
+      <c r="J121" s="60">
+        <v>43814.694131944445</v>
+      </c>
+      <c r="K121" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="48">
+        <v>37160</v>
+      </c>
+      <c r="B122" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C122" s="48">
+        <v>2.0191215163921102E+20</v>
+      </c>
+      <c r="D122" s="49">
+        <v>2</v>
+      </c>
+      <c r="E122" s="48">
+        <v>515</v>
+      </c>
+      <c r="F122" s="48">
+        <v>515</v>
+      </c>
+      <c r="G122" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="60">
+        <v>43814.693749999999</v>
+      </c>
+      <c r="J122" s="60">
+        <v>43814.693865740737</v>
+      </c>
+      <c r="K122" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="48">
+        <v>37159</v>
+      </c>
+      <c r="B123" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C123" s="48">
+        <v>2.0191215163903099E+20</v>
+      </c>
+      <c r="D123" s="49">
+        <v>1</v>
+      </c>
+      <c r="E123" s="48">
+        <v>140</v>
+      </c>
+      <c r="F123" s="48">
+        <v>140</v>
+      </c>
+      <c r="G123" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="60">
+        <v>43814.693749999999</v>
+      </c>
+      <c r="J123" s="60">
+        <v>43814.692361111112</v>
+      </c>
+      <c r="K123" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="48">
+        <v>37158</v>
+      </c>
+      <c r="B124" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C124" s="48">
+        <v>2.0191215163646099E+20</v>
+      </c>
+      <c r="D124" s="49">
+        <v>1</v>
+      </c>
+      <c r="E124" s="48">
+        <v>198</v>
+      </c>
+      <c r="F124" s="48">
+        <v>198</v>
+      </c>
+      <c r="G124" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="60">
+        <v>43814.691666666666</v>
+      </c>
+      <c r="J124" s="60">
+        <v>43814.691006944442</v>
+      </c>
+      <c r="K124" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="48">
+        <v>37157</v>
+      </c>
+      <c r="B125" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C125" s="48">
+        <v>2.0191215163455101E+20</v>
+      </c>
+      <c r="D125" s="49">
+        <v>3</v>
+      </c>
+      <c r="E125" s="48">
+        <v>1860</v>
+      </c>
+      <c r="F125" s="48">
+        <v>1860</v>
+      </c>
+      <c r="G125" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="60">
+        <v>43814.690972222219</v>
+      </c>
+      <c r="J125" s="60">
+        <v>43814.690787037034</v>
+      </c>
+      <c r="K125" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="48">
+        <v>37156</v>
+      </c>
+      <c r="B126" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C126" s="48">
+        <v>2.01912151634341E+20</v>
+      </c>
+      <c r="D126" s="49">
+        <v>2</v>
+      </c>
+      <c r="E126" s="48">
+        <v>93.9</v>
+      </c>
+      <c r="F126" s="48">
+        <v>93.9</v>
+      </c>
+      <c r="G126" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="60">
+        <v>43814.69027777778</v>
+      </c>
+      <c r="J126" s="60">
+        <v>43814.689340277779</v>
+      </c>
+      <c r="K126" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="48">
+        <v>37155</v>
+      </c>
+      <c r="B127" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C127" s="48">
+        <v>2.01912151632301E+20</v>
+      </c>
+      <c r="D127" s="49">
+        <v>3</v>
+      </c>
+      <c r="E127" s="48">
+        <v>538.9</v>
+      </c>
+      <c r="F127" s="48">
+        <v>538.9</v>
+      </c>
+      <c r="G127" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="60">
+        <v>43814.688888888886</v>
+      </c>
+      <c r="J127" s="60">
+        <v>43814.689050925925</v>
+      </c>
+      <c r="K127" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="48">
+        <v>37154</v>
+      </c>
+      <c r="B128" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C128" s="48">
+        <v>2.01912151632021E+20</v>
+      </c>
+      <c r="D128" s="49">
+        <v>3</v>
+      </c>
+      <c r="E128" s="48">
+        <v>234</v>
+      </c>
+      <c r="F128" s="48">
+        <v>234</v>
+      </c>
+      <c r="G128" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="60">
+        <v>43814.688888888886</v>
+      </c>
+      <c r="J128" s="60">
+        <v>43814.688807870371</v>
+      </c>
+      <c r="K128" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="48">
+        <v>37153</v>
+      </c>
+      <c r="B129" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C129" s="48">
+        <v>2.0191215163141099E+20</v>
+      </c>
+      <c r="D129" s="49">
+        <v>1</v>
+      </c>
+      <c r="E129" s="48">
+        <v>48.9</v>
+      </c>
+      <c r="F129" s="48">
+        <v>48.9</v>
+      </c>
+      <c r="G129" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="60">
+        <v>43814.688194444447</v>
+      </c>
+      <c r="J129" s="60">
+        <v>43814.687835648147</v>
+      </c>
+      <c r="K129" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="48">
+        <v>37152</v>
+      </c>
+      <c r="B130" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C130" s="48">
+        <v>2.0191215163017101E+20</v>
+      </c>
+      <c r="D130" s="49">
+        <v>3</v>
+      </c>
+      <c r="E130" s="48">
+        <v>709</v>
+      </c>
+      <c r="F130" s="48">
+        <v>709</v>
+      </c>
+      <c r="G130" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="60">
+        <v>43814.6875</v>
+      </c>
+      <c r="J130" s="60">
+        <v>43814.682685185187</v>
+      </c>
+      <c r="K130" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="48">
+        <v>37151</v>
+      </c>
+      <c r="B131" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C131" s="48">
+        <v>2.01912151622511E+20</v>
+      </c>
+      <c r="D131" s="49">
+        <v>3</v>
+      </c>
+      <c r="E131" s="48">
+        <v>717</v>
+      </c>
+      <c r="F131" s="48">
+        <v>717</v>
+      </c>
+      <c r="G131" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="60">
+        <v>43814.681944444441</v>
+      </c>
+      <c r="J131" s="60">
+        <v>43814.682372685187</v>
+      </c>
+      <c r="K131" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="48">
+        <v>37150</v>
+      </c>
+      <c r="B132" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C132" s="48">
+        <v>2.0191215162225099E+20</v>
+      </c>
+      <c r="D132" s="49">
+        <v>1</v>
+      </c>
+      <c r="E132" s="48">
+        <v>48</v>
+      </c>
+      <c r="F132" s="48">
+        <v>48</v>
+      </c>
+      <c r="G132" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="60">
+        <v>43814.681944444441</v>
+      </c>
+      <c r="J132" s="60">
+        <v>43814.682106481479</v>
+      </c>
+      <c r="K132" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="48">
+        <v>37149</v>
+      </c>
+      <c r="B133" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C133" s="48">
+        <v>2.0191215162156099E+20</v>
+      </c>
+      <c r="D133" s="49">
+        <v>2</v>
+      </c>
+      <c r="E133" s="48">
+        <v>555</v>
+      </c>
+      <c r="F133" s="48">
+        <v>555</v>
+      </c>
+      <c r="G133" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="60">
+        <v>43814.681944444441</v>
+      </c>
+      <c r="J133" s="60">
+        <v>43814.681759259256</v>
+      </c>
+      <c r="K133" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="48">
+        <v>37148</v>
+      </c>
+      <c r="B134" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C134" s="48">
+        <v>2.01912151621371E+20</v>
+      </c>
+      <c r="D134" s="49">
+        <v>1</v>
+      </c>
+      <c r="E134" s="48">
+        <v>268</v>
+      </c>
+      <c r="F134" s="48">
+        <v>268</v>
+      </c>
+      <c r="G134" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="60">
+        <v>43814.681250000001</v>
+      </c>
+      <c r="J134" s="60">
+        <v>43814.680185185185</v>
+      </c>
+      <c r="K134" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="48">
+        <v>37147</v>
+      </c>
+      <c r="B135" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C135" s="48">
+        <v>2.0191215161914101E+20</v>
+      </c>
+      <c r="D135" s="49">
+        <v>1</v>
+      </c>
+      <c r="E135" s="48">
+        <v>105</v>
+      </c>
+      <c r="F135" s="48">
+        <v>105</v>
+      </c>
+      <c r="G135" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="60">
+        <v>43814.679861111108</v>
+      </c>
+      <c r="J135" s="60">
+        <v>43814.679872685185</v>
+      </c>
+      <c r="K135" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="42">
+        <v>37146</v>
+      </c>
+      <c r="B136" s="42">
+        <v>15874</v>
+      </c>
+      <c r="C136" s="42">
+        <v>2.01912151618531E+20</v>
+      </c>
+      <c r="D136" s="43">
+        <v>3</v>
+      </c>
+      <c r="E136" s="42">
+        <v>377</v>
+      </c>
+      <c r="F136" s="42">
+        <v>377</v>
+      </c>
+      <c r="G136" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="54">
+        <v>43814.679166666669</v>
+      </c>
+      <c r="J136" s="54">
+        <v>43814.679652777777</v>
+      </c>
+      <c r="K136" s="63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="44">
+        <v>37145</v>
+      </c>
+      <c r="B137" s="44">
+        <v>15874</v>
+      </c>
+      <c r="C137" s="44">
+        <v>2.0191215161829101E+20</v>
+      </c>
+      <c r="D137" s="45">
+        <v>1</v>
+      </c>
+      <c r="E137" s="44">
+        <v>269</v>
+      </c>
+      <c r="F137" s="44">
+        <v>269</v>
+      </c>
+      <c r="G137" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="56">
+        <v>43814.679166666669</v>
+      </c>
+      <c r="J137" s="56">
+        <v>43814.679236111115</v>
+      </c>
+      <c r="K137" s="57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="48">
+        <v>37144</v>
+      </c>
+      <c r="B138" s="48">
+        <v>15874</v>
+      </c>
+      <c r="C138" s="48">
+        <v>2.01912151605051E+20</v>
+      </c>
+      <c r="D138" s="49">
+        <v>2</v>
+      </c>
+      <c r="E138" s="48">
+        <v>276</v>
+      </c>
+      <c r="F138" s="48">
+        <v>276</v>
+      </c>
+      <c r="G138" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" s="60">
+        <v>43814.670138888891</v>
+      </c>
+      <c r="J138" s="60">
+        <v>43814.670185185183</v>
+      </c>
+      <c r="K138" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" display="javascript:;" xr:uid="{C67C233E-7738-48D4-BE5B-150A30FA1BE0}"/>
+    <hyperlink ref="K2" r:id="rId2" display="javascript:;" xr:uid="{E50B4647-3D59-4DF2-9E47-CE865A94426A}"/>
+    <hyperlink ref="K3" r:id="rId3" display="javascript:;" xr:uid="{8C18B16E-257F-4AB2-B33E-7FC622FCBA61}"/>
+    <hyperlink ref="K4" r:id="rId4" display="javascript:;" xr:uid="{15FFA421-CB5D-4591-951F-F2FA787C4C49}"/>
+    <hyperlink ref="K5" r:id="rId5" display="javascript:;" xr:uid="{D1389DC0-CFFD-45AB-8A64-AA0225712B36}"/>
+    <hyperlink ref="K6" r:id="rId6" display="javascript:;" xr:uid="{12D345B1-4CB8-47E4-974F-2A4AA924D94F}"/>
+    <hyperlink ref="K7" r:id="rId7" display="javascript:;" xr:uid="{CFB17C62-9FCD-47C0-B35D-6718443BC52C}"/>
+    <hyperlink ref="K8" r:id="rId8" display="javascript:;" xr:uid="{26AC4B2E-9CE2-46A1-9C37-F8EBA354CEBF}"/>
+    <hyperlink ref="K9" r:id="rId9" display="javascript:;" xr:uid="{8011F45A-74C3-4C40-B146-2F43F88BD7F4}"/>
+    <hyperlink ref="K10" r:id="rId10" display="javascript:;" xr:uid="{6E0B78C0-2A6E-421C-8C7F-06DDB1BC4DEE}"/>
+    <hyperlink ref="K11" r:id="rId11" display="javascript:;" xr:uid="{1FF46CB9-65BB-450D-95AF-42A1C68220EA}"/>
+    <hyperlink ref="K12" r:id="rId12" display="javascript:;" xr:uid="{838C7251-B477-41F2-B37A-A42F7EAE09CA}"/>
+    <hyperlink ref="K13" r:id="rId13" display="javascript:;" xr:uid="{36B207D5-2933-492A-BC24-C14E8816E7E8}"/>
+    <hyperlink ref="K14" r:id="rId14" display="javascript:;" xr:uid="{1DFB3E4A-0D7D-4913-9222-C1C7DA483C55}"/>
+    <hyperlink ref="K15" r:id="rId15" display="javascript:;" xr:uid="{03BD6A22-9AA1-4ADF-B23F-BD3514D08770}"/>
+    <hyperlink ref="K16" r:id="rId16" display="javascript:;" xr:uid="{FEC97565-4DCB-4C64-B0BD-BC02C90EAA83}"/>
+    <hyperlink ref="K17" r:id="rId17" display="javascript:;" xr:uid="{72983BA3-6C87-4175-8841-BD50598E8E17}"/>
+    <hyperlink ref="K18" r:id="rId18" display="javascript:;" xr:uid="{EAA1582B-B5D7-4149-9F29-D9659FBC8324}"/>
+    <hyperlink ref="K19" r:id="rId19" display="javascript:;" xr:uid="{412FA008-F670-4066-880B-FAB436EB3AFC}"/>
+    <hyperlink ref="K20" r:id="rId20" display="javascript:;" xr:uid="{6FBEA0C5-4009-4ECF-9097-9BDFEDEF70E1}"/>
+    <hyperlink ref="K21" r:id="rId21" display="javascript:;" xr:uid="{17EDDF90-54C5-4711-A054-83ED484A0946}"/>
+    <hyperlink ref="K22" r:id="rId22" display="javascript:;" xr:uid="{80436B2C-2BF9-4CEE-BE40-CF64E92D00B8}"/>
+    <hyperlink ref="K23" r:id="rId23" display="javascript:;" xr:uid="{A1306571-FAA2-47AE-B575-C0B72736804F}"/>
+    <hyperlink ref="K24" r:id="rId24" display="javascript:;" xr:uid="{35CB0EEC-7BC5-436F-AE37-82B539120384}"/>
+    <hyperlink ref="K25" r:id="rId25" display="javascript:;" xr:uid="{57227E36-6899-4576-8FA6-0CA89937CEE4}"/>
+    <hyperlink ref="K26" r:id="rId26" display="javascript:;" xr:uid="{6D20FBA0-1700-4619-BD36-3DFADFAD3A66}"/>
+    <hyperlink ref="K27" r:id="rId27" display="javascript:;" xr:uid="{B4ED489E-DB13-4A83-94E7-391425244EAB}"/>
+    <hyperlink ref="K28" r:id="rId28" display="javascript:;" xr:uid="{78590B3C-9707-4FEA-A8E0-1E892D60213B}"/>
+    <hyperlink ref="K29" r:id="rId29" display="javascript:;" xr:uid="{40A13F6E-E4E8-4BF1-BAD3-ECAC5A8FEF02}"/>
+    <hyperlink ref="K40" r:id="rId30" display="javascript:;" xr:uid="{09586D98-D7EF-482E-970B-6EC40EDB38D7}"/>
+    <hyperlink ref="K41" r:id="rId31" display="javascript:;" xr:uid="{78F072A6-6931-4521-B994-F485E3A1CA63}"/>
+    <hyperlink ref="K42" r:id="rId32" display="javascript:;" xr:uid="{4B2A0FCF-342A-4F0F-81A6-2F7F9C5845A6}"/>
+    <hyperlink ref="K43" r:id="rId33" display="javascript:;" xr:uid="{34737534-D942-45BA-B2F3-A7096713F2AC}"/>
+    <hyperlink ref="K44" r:id="rId34" display="javascript:;" xr:uid="{9A2CB24B-655F-4212-B8F2-5D703DBA6909}"/>
+    <hyperlink ref="K45" r:id="rId35" display="javascript:;" xr:uid="{126ABF48-B1C3-478F-8599-3F468A9462DB}"/>
+    <hyperlink ref="K50" r:id="rId36" display="javascript:;" xr:uid="{316804AC-51D7-4A17-BFE3-AC913F429B04}"/>
+    <hyperlink ref="K51" r:id="rId37" display="javascript:;" xr:uid="{57FA3077-AAE8-431D-ABB8-8D3ECB175C73}"/>
+    <hyperlink ref="K52" r:id="rId38" display="javascript:;" xr:uid="{DFC23342-E8CF-44DE-B5E1-5A4D494B4191}"/>
+    <hyperlink ref="K53" r:id="rId39" display="javascript:;" xr:uid="{227FA9D8-D293-483B-B459-31A7A2D2F2EB}"/>
+    <hyperlink ref="K55" r:id="rId40" display="javascript:;" xr:uid="{1848FC63-6227-44E0-A9FB-EAAA4133DC3D}"/>
+    <hyperlink ref="K56" r:id="rId41" display="javascript:;" xr:uid="{902F0557-E7D6-40C4-80D5-FBFBD9F1B0E2}"/>
+    <hyperlink ref="K57" r:id="rId42" display="javascript:;" xr:uid="{986578F1-FDDA-49AC-BD84-B5764E532FBC}"/>
+    <hyperlink ref="K58" r:id="rId43" display="javascript:;" xr:uid="{56AE9FA6-72C8-4A4A-B811-46138A6A183F}"/>
+    <hyperlink ref="K59" r:id="rId44" display="javascript:;" xr:uid="{043E5A90-2847-472E-8750-B6196C8105FA}"/>
+    <hyperlink ref="K60" r:id="rId45" display="javascript:;" xr:uid="{5486BD54-34EA-4047-83FB-55659165DC09}"/>
+    <hyperlink ref="K61" r:id="rId46" display="javascript:;" xr:uid="{848947DF-A1D0-4AFE-8110-7A786CB151F7}"/>
+    <hyperlink ref="K62" r:id="rId47" display="javascript:;" xr:uid="{CEF81D0C-F8EC-48AF-81E2-A66FB2ADE540}"/>
+    <hyperlink ref="K63" r:id="rId48" display="javascript:;" xr:uid="{20C82D61-8E75-4850-9E56-5C87EC77BEA6}"/>
+    <hyperlink ref="K64" r:id="rId49" display="javascript:;" xr:uid="{21D94519-290A-4739-B21C-D9C9EFE6999B}"/>
+    <hyperlink ref="K65" r:id="rId50" display="javascript:;" xr:uid="{2AC5A66D-D1B7-44D9-B96D-3BDABD7F8D73}"/>
+    <hyperlink ref="K66" r:id="rId51" display="javascript:;" xr:uid="{E8BA80BB-A3F2-4A57-A37E-CC344EB9FFAF}"/>
+    <hyperlink ref="K67" r:id="rId52" display="javascript:;" xr:uid="{44FDB115-2C52-4A2A-8C05-59E46CED7048}"/>
+    <hyperlink ref="K68" r:id="rId53" display="javascript:;" xr:uid="{6A51518C-2BD1-42F4-ABB9-F1E13DD3165F}"/>
+    <hyperlink ref="K69" r:id="rId54" display="javascript:;" xr:uid="{90B8C2B1-A4B1-40E7-B186-E2F936C47BCB}"/>
+    <hyperlink ref="K70" r:id="rId55" display="javascript:;" xr:uid="{9BADC6D8-4121-4C8F-9043-4A74A6F4A339}"/>
+    <hyperlink ref="K71" r:id="rId56" display="javascript:;" xr:uid="{37CB3367-B77F-4155-9E2B-EC9B9BD0F7D5}"/>
+    <hyperlink ref="K72" r:id="rId57" display="javascript:;" xr:uid="{EBE187D5-BA0C-461E-B027-4C695D282A8B}"/>
+    <hyperlink ref="K73" r:id="rId58" display="javascript:;" xr:uid="{5004A06D-DD39-487E-B23F-C9F37D19FBD7}"/>
+    <hyperlink ref="K74" r:id="rId59" display="javascript:;" xr:uid="{63A1BE7D-EDB3-48DA-BD36-BD631456C12F}"/>
+    <hyperlink ref="K75" r:id="rId60" display="javascript:;" xr:uid="{07AE3AB7-81E5-498D-A6A1-F7C378BAAEDB}"/>
+    <hyperlink ref="K76" r:id="rId61" display="javascript:;" xr:uid="{2B189205-516D-46D7-8F56-5254425BDBD3}"/>
+    <hyperlink ref="K77" r:id="rId62" display="javascript:;" xr:uid="{78B0927E-8366-459D-8844-BEEBB4BAD867}"/>
+    <hyperlink ref="K78" r:id="rId63" display="javascript:;" xr:uid="{01C3865B-5F31-4F18-A775-A2C61E90F18C}"/>
+    <hyperlink ref="K79" r:id="rId64" display="javascript:;" xr:uid="{3E688F5E-07CB-4FDB-8BB1-CF2E44636B12}"/>
+    <hyperlink ref="K80" r:id="rId65" display="javascript:;" xr:uid="{B907C7B2-84EE-49F7-9E28-737371FA305B}"/>
+    <hyperlink ref="K81" r:id="rId66" display="javascript:;" xr:uid="{E0D20372-4FD6-4F80-9EC3-8E1836890D7C}"/>
+    <hyperlink ref="K99" r:id="rId67" display="javascript:;" xr:uid="{35C67DCD-BBDC-458B-AB7B-6BD97A841D99}"/>
+    <hyperlink ref="K100" r:id="rId68" display="javascript:;" xr:uid="{D1FFE962-F744-4C76-905B-B32749C31914}"/>
+    <hyperlink ref="K101" r:id="rId69" display="javascript:;" xr:uid="{3F39149B-D8C4-4ACF-BAD4-EFFF948A6AF1}"/>
+    <hyperlink ref="K102" r:id="rId70" display="javascript:;" xr:uid="{82BC375D-94B8-4BB3-832C-13C5F01BF9BF}"/>
+    <hyperlink ref="K103" r:id="rId71" display="javascript:;" xr:uid="{2101A1B5-3EF2-485E-9389-4519C3952AF2}"/>
+    <hyperlink ref="K104" r:id="rId72" display="javascript:;" xr:uid="{66393E79-9568-4BF4-8148-A233CE41CAD6}"/>
+    <hyperlink ref="K105" r:id="rId73" display="javascript:;" xr:uid="{90342F22-A3E6-48D1-83D7-21F77FB48272}"/>
+    <hyperlink ref="K106" r:id="rId74" display="javascript:;" xr:uid="{D34C5A69-0B13-4E06-8B6B-8E703405922B}"/>
+    <hyperlink ref="K107" r:id="rId75" display="javascript:;" xr:uid="{92885ACF-096F-4FFD-91CD-8C6C389D4DB8}"/>
+    <hyperlink ref="K108" r:id="rId76" display="javascript:;" xr:uid="{91F33447-AD80-4554-BD9C-8415E6DB037F}"/>
+    <hyperlink ref="K109" r:id="rId77" display="javascript:;" xr:uid="{9F390F4A-F522-4396-8EEE-79F7871CC138}"/>
+    <hyperlink ref="K110" r:id="rId78" display="javascript:;" xr:uid="{1DC496F6-2FC4-404C-A901-55116F2C5431}"/>
+    <hyperlink ref="K111" r:id="rId79" display="javascript:;" xr:uid="{40D7FA55-DF25-42DB-A316-EC5195B0D506}"/>
+    <hyperlink ref="K112" r:id="rId80" display="javascript:;" xr:uid="{6D89E9D6-4355-4272-A6BC-1649905B3E14}"/>
+    <hyperlink ref="K113" r:id="rId81" display="javascript:;" xr:uid="{31A66FB8-6021-49CE-A0F1-DEC7B5A54545}"/>
+    <hyperlink ref="K114" r:id="rId82" display="javascript:;" xr:uid="{DADF16B7-9EB6-4722-A9DE-C4D9B9FD8E8F}"/>
+    <hyperlink ref="K115" r:id="rId83" display="javascript:;" xr:uid="{164A2922-19C0-4A99-B586-E451B3A84BBD}"/>
+    <hyperlink ref="K116" r:id="rId84" display="javascript:;" xr:uid="{702AFFA6-5698-4CD1-A821-2738E566EB5D}"/>
+    <hyperlink ref="K117" r:id="rId85" display="javascript:;" xr:uid="{743D3D95-7C43-4460-98A5-48A2A1026745}"/>
+    <hyperlink ref="K118" r:id="rId86" display="javascript:;" xr:uid="{3099B305-928A-44F7-9995-D3F5FAA37AE3}"/>
+    <hyperlink ref="K119" r:id="rId87" display="javascript:;" xr:uid="{D5A4B1FB-2AE2-4CCD-8EF4-7091C46BDFAB}"/>
+    <hyperlink ref="K120" r:id="rId88" display="javascript:;" xr:uid="{DB1D220D-EF2F-4F76-A206-3E108D7FDD76}"/>
+    <hyperlink ref="K121" r:id="rId89" display="javascript:;" xr:uid="{43BC8B40-7B41-4E66-9284-8D6AE5D3C47F}"/>
+    <hyperlink ref="K122" r:id="rId90" display="javascript:;" xr:uid="{578E56CF-A925-45DA-AD9E-CD12874C4C72}"/>
+    <hyperlink ref="K123" r:id="rId91" display="javascript:;" xr:uid="{F6682153-F972-4D2A-9E2A-1DEC99FD6023}"/>
+    <hyperlink ref="K124" r:id="rId92" display="javascript:;" xr:uid="{3AD6D889-F998-481C-9523-E5FB1627BE4F}"/>
+    <hyperlink ref="K125" r:id="rId93" display="javascript:;" xr:uid="{525146CF-F6FE-4E66-A768-46B6FB798FA1}"/>
+    <hyperlink ref="K126" r:id="rId94" display="javascript:;" xr:uid="{3CF8D65A-CDEA-4F50-A8EA-5C1B24A6EC88}"/>
+    <hyperlink ref="K127" r:id="rId95" display="javascript:;" xr:uid="{3ABF1943-2787-45B5-A5DA-8ED578924C62}"/>
+    <hyperlink ref="K128" r:id="rId96" display="javascript:;" xr:uid="{4819A606-4FDC-476A-A43A-9E104F71DFD1}"/>
+    <hyperlink ref="K129" r:id="rId97" display="javascript:;" xr:uid="{8FC6D103-A6EB-4582-9BEE-7A0914D4123A}"/>
+    <hyperlink ref="K130" r:id="rId98" display="javascript:;" xr:uid="{D5AE2BBE-F103-4C72-827A-5694993B3D5D}"/>
+    <hyperlink ref="K131" r:id="rId99" display="javascript:;" xr:uid="{BC20C0A6-86CB-4BF0-A3DF-17846400B470}"/>
+    <hyperlink ref="K132" r:id="rId100" display="javascript:;" xr:uid="{0E4BE566-F639-47E6-9ADB-AD7604AB89F0}"/>
+    <hyperlink ref="K133" r:id="rId101" display="javascript:;" xr:uid="{014CEF46-5F8A-4CC4-B5DC-EBF230A41234}"/>
+    <hyperlink ref="K134" r:id="rId102" display="javascript:;" xr:uid="{7B6F510B-EEF8-49FC-BE77-5632329A057D}"/>
+    <hyperlink ref="K135" r:id="rId103" display="javascript:;" xr:uid="{B1AE39D5-0349-4EFE-9FC7-C297828F505E}"/>
+    <hyperlink ref="K136" r:id="rId104" display="javascript:;" xr:uid="{026EFA89-BEE5-40A9-80A4-85CB9A9C9E16}"/>
+    <hyperlink ref="K137" r:id="rId105" display="javascript:;" xr:uid="{81741739-CD4C-4A7C-9177-76D9D568B0F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId106"/>
 </worksheet>
 </file>
 

--- a/s_d/麻吉12月.xlsx
+++ b/s_d/麻吉12月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2BC292-BDB0-4698-8E2D-BA3F8FB8B366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D203F99-64BD-4594-BF13-80261DCBCB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="12.18" sheetId="19" r:id="rId18"/>
     <sheet name="12.19" sheetId="20" r:id="rId19"/>
     <sheet name="12.20" sheetId="21" r:id="rId20"/>
+    <sheet name="12.21" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6448" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6789" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -49022,8 +49023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -52805,6 +52806,4086 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId98"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81807D8F-E78E-4121-A9D8-078C778A746B}">
+  <dimension ref="A1:P112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31">
+        <v>38142</v>
+      </c>
+      <c r="B1" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="31">
+        <v>2.0191221212739099E+20</v>
+      </c>
+      <c r="D1" s="32">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31">
+        <v>1066</v>
+      </c>
+      <c r="F1" s="31">
+        <v>1066</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="37">
+        <v>43820.893750000003</v>
+      </c>
+      <c r="J1" s="37">
+        <v>43820.894097222219</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <v>38141</v>
+      </c>
+      <c r="B2" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="33">
+        <v>2.0191221212717099E+20</v>
+      </c>
+      <c r="D2" s="34">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33">
+        <v>1544</v>
+      </c>
+      <c r="F2" s="33">
+        <v>1544</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="39">
+        <v>43820.893750000003</v>
+      </c>
+      <c r="J2" s="39">
+        <v>43820.893831018519</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>38140</v>
+      </c>
+      <c r="B3" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2.01912212126581E+20</v>
+      </c>
+      <c r="D3" s="34">
+        <v>3</v>
+      </c>
+      <c r="E3" s="33">
+        <v>552</v>
+      </c>
+      <c r="F3" s="33">
+        <v>552</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="39">
+        <v>43820.893750000003</v>
+      </c>
+      <c r="J3" s="39">
+        <v>43820.893692129626</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>38139</v>
+      </c>
+      <c r="B4" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="33">
+        <v>2.0191221212642099E+20</v>
+      </c>
+      <c r="D4" s="34">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33">
+        <v>747</v>
+      </c>
+      <c r="F4" s="33">
+        <v>747</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="39">
+        <v>43820.893055555556</v>
+      </c>
+      <c r="J4" s="39">
+        <v>43820.893391203703</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>20000</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>38138</v>
+      </c>
+      <c r="B5" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2.0191221212621101E+20</v>
+      </c>
+      <c r="D5" s="34">
+        <v>4</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1651</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1651</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="39">
+        <v>43820.893055555556</v>
+      </c>
+      <c r="J5" s="39">
+        <v>43820.893240740741</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>64217.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>38137</v>
+      </c>
+      <c r="B6" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="33">
+        <v>2.0191221212557099E+20</v>
+      </c>
+      <c r="D6" s="34">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33">
+        <v>370</v>
+      </c>
+      <c r="F6" s="33">
+        <v>370</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="39">
+        <v>43820.893055555556</v>
+      </c>
+      <c r="J6" s="39">
+        <v>43820.89298611111</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>-1606.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>38136</v>
+      </c>
+      <c r="B7" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2.0191221212545099E+20</v>
+      </c>
+      <c r="D7" s="34">
+        <v>2</v>
+      </c>
+      <c r="E7" s="33">
+        <v>193</v>
+      </c>
+      <c r="F7" s="33">
+        <v>193</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="39">
+        <v>43820.892361111109</v>
+      </c>
+      <c r="J7" s="39">
+        <v>43820.892835648148</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>38135</v>
+      </c>
+      <c r="B8" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2.01912212125321E+20</v>
+      </c>
+      <c r="D8" s="34">
+        <v>3</v>
+      </c>
+      <c r="E8" s="33">
+        <v>376</v>
+      </c>
+      <c r="F8" s="33">
+        <v>376</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39">
+        <v>43820.892361111109</v>
+      </c>
+      <c r="J8" s="39">
+        <v>43820.89267361111</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>38132</v>
+      </c>
+      <c r="B9" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="33">
+        <v>2.0191221212520101E+20</v>
+      </c>
+      <c r="D9" s="34">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33">
+        <v>849.9</v>
+      </c>
+      <c r="F9" s="33">
+        <v>849.9</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="39">
+        <v>43820.892361111109</v>
+      </c>
+      <c r="J9" s="39">
+        <v>43820.874166666668</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>38131</v>
+      </c>
+      <c r="B10" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2.0191221205840101E+20</v>
+      </c>
+      <c r="D10" s="34">
+        <v>3</v>
+      </c>
+      <c r="E10" s="33">
+        <v>353</v>
+      </c>
+      <c r="F10" s="33">
+        <v>353</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="39">
+        <v>43820.873611111114</v>
+      </c>
+      <c r="J10" s="39">
+        <v>43820.874039351853</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>38130</v>
+      </c>
+      <c r="B11" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2.0191221205828098E+20</v>
+      </c>
+      <c r="D11" s="34">
+        <v>3</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1398</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1398</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="39">
+        <v>43820.873611111114</v>
+      </c>
+      <c r="J11" s="39">
+        <v>43820.873900462961</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>38129</v>
+      </c>
+      <c r="B12" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="33">
+        <v>2.0191221205815099E+20</v>
+      </c>
+      <c r="D12" s="34">
+        <v>3</v>
+      </c>
+      <c r="E12" s="33">
+        <v>373.9</v>
+      </c>
+      <c r="F12" s="33">
+        <v>373.9</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="39">
+        <v>43820.873611111114</v>
+      </c>
+      <c r="J12" s="39">
+        <v>43820.873715277776</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>38125</v>
+      </c>
+      <c r="B13" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="33">
+        <v>2.0191221205801101E+20</v>
+      </c>
+      <c r="D13" s="34">
+        <v>3</v>
+      </c>
+      <c r="E13" s="33">
+        <v>554</v>
+      </c>
+      <c r="F13" s="33">
+        <v>554</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="39">
+        <v>43820.873611111114</v>
+      </c>
+      <c r="J13" s="39">
+        <v>43820.853576388887</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>38124</v>
+      </c>
+      <c r="B14" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="33">
+        <v>2.0191221202858099E+20</v>
+      </c>
+      <c r="D14" s="34">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <v>748</v>
+      </c>
+      <c r="F14" s="33">
+        <v>748</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="39">
+        <v>43820.853472222225</v>
+      </c>
+      <c r="J14" s="39">
+        <v>43820.853379629632</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>38123</v>
+      </c>
+      <c r="B15" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2.01912212028391E+20</v>
+      </c>
+      <c r="D15" s="34">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1227.9000000000001</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1227.9000000000001</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="39">
+        <v>43820.852777777778</v>
+      </c>
+      <c r="J15" s="39">
+        <v>43820.849965277775</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>38122</v>
+      </c>
+      <c r="B16" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2.0191221202348101E+20</v>
+      </c>
+      <c r="D16" s="34">
+        <v>3</v>
+      </c>
+      <c r="E16" s="33">
+        <v>516</v>
+      </c>
+      <c r="F16" s="33">
+        <v>516</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="39">
+        <v>43820.849305555559</v>
+      </c>
+      <c r="J16" s="39">
+        <v>43820.849814814814</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>38121</v>
+      </c>
+      <c r="B17" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="33">
+        <v>2.01912212023271E+20</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2</v>
+      </c>
+      <c r="E17" s="33">
+        <v>375</v>
+      </c>
+      <c r="F17" s="33">
+        <v>375</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="39">
+        <v>43820.849305555559</v>
+      </c>
+      <c r="J17" s="39">
+        <v>43820.844444444447</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>38120</v>
+      </c>
+      <c r="B18" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="33">
+        <v>2.0191221201544099E+20</v>
+      </c>
+      <c r="D18" s="34">
+        <v>3</v>
+      </c>
+      <c r="E18" s="33">
+        <v>567</v>
+      </c>
+      <c r="F18" s="33">
+        <v>567</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="39">
+        <v>43820.84375</v>
+      </c>
+      <c r="J18" s="39">
+        <v>43820.844108796293</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>38119</v>
+      </c>
+      <c r="B19" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="33">
+        <v>2.01912212015191E+20</v>
+      </c>
+      <c r="D19" s="34">
+        <v>3</v>
+      </c>
+      <c r="E19" s="33">
+        <v>587</v>
+      </c>
+      <c r="F19" s="33">
+        <v>587</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="39">
+        <v>43820.84375</v>
+      </c>
+      <c r="J19" s="39">
+        <v>43820.843935185185</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35">
+        <v>38118</v>
+      </c>
+      <c r="B20" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2.0191221201509099E+20</v>
+      </c>
+      <c r="D20" s="36">
+        <v>3</v>
+      </c>
+      <c r="E20" s="35">
+        <v>531</v>
+      </c>
+      <c r="F20" s="35">
+        <v>531</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="41">
+        <v>43820.84375</v>
+      </c>
+      <c r="J20" s="41">
+        <v>43820.836296296293</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>38117</v>
+      </c>
+      <c r="B21" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="31">
+        <v>2.0191221200406099E+20</v>
+      </c>
+      <c r="D21" s="32">
+        <v>3</v>
+      </c>
+      <c r="E21" s="31">
+        <v>618</v>
+      </c>
+      <c r="F21" s="31">
+        <v>618</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="37">
+        <v>43820.836111111108</v>
+      </c>
+      <c r="J21" s="37">
+        <v>43820.836134259262</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>38116</v>
+      </c>
+      <c r="B22" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="33">
+        <v>2.0191221200350102E+20</v>
+      </c>
+      <c r="D22" s="34">
+        <v>3</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1144</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1144</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="39">
+        <v>43820.835416666669</v>
+      </c>
+      <c r="J22" s="39">
+        <v>43820.835960648146</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>38115</v>
+      </c>
+      <c r="B23" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2.0191221200331099E+20</v>
+      </c>
+      <c r="D23" s="34">
+        <v>3</v>
+      </c>
+      <c r="E23" s="33">
+        <v>749</v>
+      </c>
+      <c r="F23" s="33">
+        <v>749</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="39">
+        <v>43820.835416666669</v>
+      </c>
+      <c r="J23" s="39">
+        <v>43820.835752314815</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>38114</v>
+      </c>
+      <c r="B24" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="33">
+        <v>2.01912212003181E+20</v>
+      </c>
+      <c r="D24" s="34">
+        <v>2</v>
+      </c>
+      <c r="E24" s="33">
+        <v>122</v>
+      </c>
+      <c r="F24" s="33">
+        <v>122</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="39">
+        <v>43820.835416666669</v>
+      </c>
+      <c r="J24" s="39">
+        <v>43820.835578703707</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>38111</v>
+      </c>
+      <c r="B25" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="33">
+        <v>2.0191221184045099E+20</v>
+      </c>
+      <c r="D25" s="34">
+        <v>3</v>
+      </c>
+      <c r="E25" s="33">
+        <v>163</v>
+      </c>
+      <c r="F25" s="33">
+        <v>163</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="39">
+        <v>43820.777777777781</v>
+      </c>
+      <c r="J25" s="39">
+        <v>43820.778229166666</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>38110</v>
+      </c>
+      <c r="B26" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="33">
+        <v>2.0191221184030101E+20</v>
+      </c>
+      <c r="D26" s="34">
+        <v>4</v>
+      </c>
+      <c r="E26" s="33">
+        <v>741</v>
+      </c>
+      <c r="F26" s="33">
+        <v>741</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="39">
+        <v>43820.777777777781</v>
+      </c>
+      <c r="J26" s="39">
+        <v>43820.777303240742</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>38109</v>
+      </c>
+      <c r="B27" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2.0191221183845099E+20</v>
+      </c>
+      <c r="D27" s="34">
+        <v>3</v>
+      </c>
+      <c r="E27" s="33">
+        <v>501</v>
+      </c>
+      <c r="F27" s="33">
+        <v>501</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="39">
+        <v>43820.776388888888</v>
+      </c>
+      <c r="J27" s="39">
+        <v>43820.776863425926</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>38108</v>
+      </c>
+      <c r="B28" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2.01912211838321E+20</v>
+      </c>
+      <c r="D28" s="34">
+        <v>3</v>
+      </c>
+      <c r="E28" s="33">
+        <v>652</v>
+      </c>
+      <c r="F28" s="33">
+        <v>652</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="39">
+        <v>43820.776388888888</v>
+      </c>
+      <c r="J28" s="39">
+        <v>43820.776678240742</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>38107</v>
+      </c>
+      <c r="B29" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="33">
+        <v>2.01912211838091E+20</v>
+      </c>
+      <c r="D29" s="34">
+        <v>3</v>
+      </c>
+      <c r="E29" s="33">
+        <v>878</v>
+      </c>
+      <c r="F29" s="33">
+        <v>878</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="39">
+        <v>43820.776388888888</v>
+      </c>
+      <c r="J29" s="39">
+        <v>43820.776435185187</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>38105</v>
+      </c>
+      <c r="B30" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="33">
+        <v>2.01912211837471E+20</v>
+      </c>
+      <c r="D30" s="34">
+        <v>2</v>
+      </c>
+      <c r="E30" s="33">
+        <v>836</v>
+      </c>
+      <c r="F30" s="33">
+        <v>836</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="39">
+        <v>43820.775694444441</v>
+      </c>
+      <c r="J30" s="39">
+        <v>43820.769282407404</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>38104</v>
+      </c>
+      <c r="B31" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="33">
+        <v>2.0191221182738101E+20</v>
+      </c>
+      <c r="D31" s="34">
+        <v>2</v>
+      </c>
+      <c r="E31" s="33">
+        <v>376</v>
+      </c>
+      <c r="F31" s="33">
+        <v>376</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="39">
+        <v>43820.768750000003</v>
+      </c>
+      <c r="J31" s="39">
+        <v>43820.769143518519</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>38103</v>
+      </c>
+      <c r="B32" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="33">
+        <v>2.0191221182724099E+20</v>
+      </c>
+      <c r="D32" s="34">
+        <v>3</v>
+      </c>
+      <c r="E32" s="33">
+        <v>675</v>
+      </c>
+      <c r="F32" s="33">
+        <v>675</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="39">
+        <v>43820.768750000003</v>
+      </c>
+      <c r="J32" s="39">
+        <v>43820.768900462965</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
+        <v>38102</v>
+      </c>
+      <c r="B33" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="33">
+        <v>2.0191221182702099E+20</v>
+      </c>
+      <c r="D33" s="34">
+        <v>3</v>
+      </c>
+      <c r="E33" s="33">
+        <v>765</v>
+      </c>
+      <c r="F33" s="33">
+        <v>765</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="39">
+        <v>43820.768750000003</v>
+      </c>
+      <c r="J33" s="39">
+        <v>43820.768726851849</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
+        <v>38101</v>
+      </c>
+      <c r="B34" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="33">
+        <v>2.01912211826491E+20</v>
+      </c>
+      <c r="D34" s="34">
+        <v>3</v>
+      </c>
+      <c r="E34" s="33">
+        <v>1322</v>
+      </c>
+      <c r="F34" s="33">
+        <v>1322</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="39">
+        <v>43820.768055555556</v>
+      </c>
+      <c r="J34" s="39">
+        <v>43820.768553240741</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33">
+        <v>38098</v>
+      </c>
+      <c r="B35" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="33">
+        <v>2.01912211809131E+20</v>
+      </c>
+      <c r="D35" s="34">
+        <v>3</v>
+      </c>
+      <c r="E35" s="33">
+        <v>755.9</v>
+      </c>
+      <c r="F35" s="33">
+        <v>755.9</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="39">
+        <v>43820.756249999999</v>
+      </c>
+      <c r="J35" s="39">
+        <v>43820.756342592591</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>38097</v>
+      </c>
+      <c r="B36" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="33">
+        <v>2.0191221180853099E+20</v>
+      </c>
+      <c r="D36" s="34">
+        <v>2</v>
+      </c>
+      <c r="E36" s="33">
+        <v>920</v>
+      </c>
+      <c r="F36" s="33">
+        <v>920</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="39">
+        <v>43820.756249999999</v>
+      </c>
+      <c r="J36" s="39">
+        <v>43820.75613425926</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>38096</v>
+      </c>
+      <c r="B37" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="33">
+        <v>2.0191221180842099E+20</v>
+      </c>
+      <c r="D37" s="34">
+        <v>3</v>
+      </c>
+      <c r="E37" s="33">
+        <v>1136</v>
+      </c>
+      <c r="F37" s="33">
+        <v>1136</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="39">
+        <v>43820.755555555559</v>
+      </c>
+      <c r="J37" s="39">
+        <v>43820.755972222221</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>38093</v>
+      </c>
+      <c r="B38" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="33">
+        <v>2.01912211805381E+20</v>
+      </c>
+      <c r="D38" s="34">
+        <v>3</v>
+      </c>
+      <c r="E38" s="33">
+        <v>445</v>
+      </c>
+      <c r="F38" s="33">
+        <v>445</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="39">
+        <v>43820.753472222219</v>
+      </c>
+      <c r="J38" s="39">
+        <v>43820.748495370368</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>38092</v>
+      </c>
+      <c r="B39" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="33">
+        <v>2.0191221175738099E+20</v>
+      </c>
+      <c r="D39" s="34">
+        <v>3</v>
+      </c>
+      <c r="E39" s="33">
+        <v>178</v>
+      </c>
+      <c r="F39" s="33">
+        <v>178</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="39">
+        <v>43820.747916666667</v>
+      </c>
+      <c r="J39" s="39">
+        <v>43820.74832175926</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35">
+        <v>38091</v>
+      </c>
+      <c r="B40" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="35">
+        <v>2.0191221175722099E+20</v>
+      </c>
+      <c r="D40" s="36">
+        <v>3</v>
+      </c>
+      <c r="E40" s="35">
+        <v>887</v>
+      </c>
+      <c r="F40" s="35">
+        <v>887</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="41">
+        <v>43820.747916666667</v>
+      </c>
+      <c r="J40" s="41">
+        <v>43820.748136574075</v>
+      </c>
+      <c r="K40" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
+        <v>38090</v>
+      </c>
+      <c r="B41" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="31">
+        <v>2.01912211757091E+20</v>
+      </c>
+      <c r="D41" s="32">
+        <v>2</v>
+      </c>
+      <c r="E41" s="31">
+        <v>228</v>
+      </c>
+      <c r="F41" s="31">
+        <v>228</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="37">
+        <v>43820.747916666667</v>
+      </c>
+      <c r="J41" s="37">
+        <v>43820.747986111113</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>38089</v>
+      </c>
+      <c r="B42" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="33">
+        <v>2.01912211756571E+20</v>
+      </c>
+      <c r="D42" s="34">
+        <v>3</v>
+      </c>
+      <c r="E42" s="33">
+        <v>1056</v>
+      </c>
+      <c r="F42" s="33">
+        <v>1056</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="39">
+        <v>43820.747916666667</v>
+      </c>
+      <c r="J42" s="39">
+        <v>43820.747800925928</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33">
+        <v>38088</v>
+      </c>
+      <c r="B43" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="33">
+        <v>2.01912211756401E+20</v>
+      </c>
+      <c r="D43" s="34">
+        <v>3</v>
+      </c>
+      <c r="E43" s="33">
+        <v>261</v>
+      </c>
+      <c r="F43" s="33">
+        <v>261</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="39">
+        <v>43820.74722222222</v>
+      </c>
+      <c r="J43" s="39">
+        <v>43820.747650462959</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>38087</v>
+      </c>
+      <c r="B44" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="33">
+        <v>2.0191221175627101E+20</v>
+      </c>
+      <c r="D44" s="34">
+        <v>3</v>
+      </c>
+      <c r="E44" s="33">
+        <v>1128</v>
+      </c>
+      <c r="F44" s="33">
+        <v>1128</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="39">
+        <v>43820.74722222222</v>
+      </c>
+      <c r="J44" s="39">
+        <v>43820.734710648147</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>38086</v>
+      </c>
+      <c r="B45" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="33">
+        <v>2.0191221173749101E+20</v>
+      </c>
+      <c r="D45" s="34">
+        <v>3</v>
+      </c>
+      <c r="E45" s="33">
+        <v>315</v>
+      </c>
+      <c r="F45" s="33">
+        <v>315</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="39">
+        <v>43820.734027777777</v>
+      </c>
+      <c r="J45" s="39">
+        <v>43820.734560185185</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
+        <v>38085</v>
+      </c>
+      <c r="B46" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="33">
+        <v>2.0191221173736099E+20</v>
+      </c>
+      <c r="D46" s="34">
+        <v>3</v>
+      </c>
+      <c r="E46" s="33">
+        <v>439</v>
+      </c>
+      <c r="F46" s="33">
+        <v>439</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="39">
+        <v>43820.734027777777</v>
+      </c>
+      <c r="J46" s="39">
+        <v>43820.734386574077</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>38083</v>
+      </c>
+      <c r="B47" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="33">
+        <v>2.0191221173720098E+20</v>
+      </c>
+      <c r="D47" s="34">
+        <v>3</v>
+      </c>
+      <c r="E47" s="33">
+        <v>784</v>
+      </c>
+      <c r="F47" s="33">
+        <v>784</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="39">
+        <v>43820.734027777777</v>
+      </c>
+      <c r="J47" s="39">
+        <v>43820.726458333331</v>
+      </c>
+      <c r="K47" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>38082</v>
+      </c>
+      <c r="B48" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="33">
+        <v>2.0191221172552099E+20</v>
+      </c>
+      <c r="D48" s="34">
+        <v>3</v>
+      </c>
+      <c r="E48" s="33">
+        <v>263</v>
+      </c>
+      <c r="F48" s="33">
+        <v>263</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="39">
+        <v>43820.725694444445</v>
+      </c>
+      <c r="J48" s="39">
+        <v>43820.726261574076</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
+        <v>38081</v>
+      </c>
+      <c r="B49" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="33">
+        <v>2.0191221172538101E+20</v>
+      </c>
+      <c r="D49" s="34">
+        <v>3</v>
+      </c>
+      <c r="E49" s="33">
+        <v>1003</v>
+      </c>
+      <c r="F49" s="33">
+        <v>1003</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="39">
+        <v>43820.725694444445</v>
+      </c>
+      <c r="J49" s="39">
+        <v>43820.726099537038</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33">
+        <v>38080</v>
+      </c>
+      <c r="B50" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="33">
+        <v>2.0191221172520101E+20</v>
+      </c>
+      <c r="D50" s="34">
+        <v>3</v>
+      </c>
+      <c r="E50" s="33">
+        <v>809</v>
+      </c>
+      <c r="F50" s="33">
+        <v>809</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="39">
+        <v>43820.725694444445</v>
+      </c>
+      <c r="J50" s="39">
+        <v>43820.725844907407</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
+        <v>38079</v>
+      </c>
+      <c r="B51" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="33">
+        <v>2.01912211724481E+20</v>
+      </c>
+      <c r="D51" s="34">
+        <v>2</v>
+      </c>
+      <c r="E51" s="33">
+        <v>300</v>
+      </c>
+      <c r="F51" s="33">
+        <v>300</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="39">
+        <v>43820.724999999999</v>
+      </c>
+      <c r="J51" s="39">
+        <v>43820.725497685184</v>
+      </c>
+      <c r="K51" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="33">
+        <v>38078</v>
+      </c>
+      <c r="B52" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="33">
+        <v>2.0191221172433099E+20</v>
+      </c>
+      <c r="D52" s="34">
+        <v>3</v>
+      </c>
+      <c r="E52" s="33">
+        <v>726</v>
+      </c>
+      <c r="F52" s="33">
+        <v>726</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="39">
+        <v>43820.724999999999</v>
+      </c>
+      <c r="J52" s="39">
+        <v>43820.725312499999</v>
+      </c>
+      <c r="K52" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
+        <v>38077</v>
+      </c>
+      <c r="B53" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="33">
+        <v>2.0191221172413101E+20</v>
+      </c>
+      <c r="D53" s="34">
+        <v>3</v>
+      </c>
+      <c r="E53" s="33">
+        <v>944</v>
+      </c>
+      <c r="F53" s="33">
+        <v>944</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="39">
+        <v>43820.724999999999</v>
+      </c>
+      <c r="J53" s="39">
+        <v>43820.715416666666</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33">
+        <v>38076</v>
+      </c>
+      <c r="B54" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="33">
+        <v>2.0191221170954099E+20</v>
+      </c>
+      <c r="D54" s="34">
+        <v>3</v>
+      </c>
+      <c r="E54" s="33">
+        <v>556.70000000000005</v>
+      </c>
+      <c r="F54" s="33">
+        <v>556.70000000000005</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="39">
+        <v>43820.715277777781</v>
+      </c>
+      <c r="J54" s="39">
+        <v>43820.715173611112</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33">
+        <v>38075</v>
+      </c>
+      <c r="B55" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="33">
+        <v>2.01912211709411E+20</v>
+      </c>
+      <c r="D55" s="34">
+        <v>3</v>
+      </c>
+      <c r="E55" s="33">
+        <v>506</v>
+      </c>
+      <c r="F55" s="33">
+        <v>506</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="39">
+        <v>43820.714583333334</v>
+      </c>
+      <c r="J55" s="39">
+        <v>43820.714965277781</v>
+      </c>
+      <c r="K55" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33">
+        <v>38074</v>
+      </c>
+      <c r="B56" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="33">
+        <v>2.0191221170914099E+20</v>
+      </c>
+      <c r="D56" s="34">
+        <v>3</v>
+      </c>
+      <c r="E56" s="33">
+        <v>1109</v>
+      </c>
+      <c r="F56" s="33">
+        <v>1109</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="39">
+        <v>43820.714583333334</v>
+      </c>
+      <c r="J56" s="39">
+        <v>43820.71465277778</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
+        <v>38073</v>
+      </c>
+      <c r="B57" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="33">
+        <v>2.01912211708551E+20</v>
+      </c>
+      <c r="D57" s="34">
+        <v>3</v>
+      </c>
+      <c r="E57" s="33">
+        <v>1539</v>
+      </c>
+      <c r="F57" s="33">
+        <v>1539</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="39">
+        <v>43820.714583333334</v>
+      </c>
+      <c r="J57" s="39">
+        <v>43820.714456018519</v>
+      </c>
+      <c r="K57" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="33">
+        <v>38071</v>
+      </c>
+      <c r="B58" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="33">
+        <v>2.0191221170835099E+20</v>
+      </c>
+      <c r="D58" s="34">
+        <v>3</v>
+      </c>
+      <c r="E58" s="33">
+        <v>514</v>
+      </c>
+      <c r="F58" s="33">
+        <v>514</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="39">
+        <v>43820.713888888888</v>
+      </c>
+      <c r="J58" s="39">
+        <v>43820.708807870367</v>
+      </c>
+      <c r="K58" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33">
+        <v>38070</v>
+      </c>
+      <c r="B59" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="33">
+        <v>2.0191221170029101E+20</v>
+      </c>
+      <c r="D59" s="34">
+        <v>3</v>
+      </c>
+      <c r="E59" s="33">
+        <v>1043</v>
+      </c>
+      <c r="F59" s="33">
+        <v>1043</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="39">
+        <v>43820.708333333336</v>
+      </c>
+      <c r="J59" s="39">
+        <v>43820.708333333336</v>
+      </c>
+      <c r="K59" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35">
+        <v>38069</v>
+      </c>
+      <c r="B60" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="35">
+        <v>2.0191221165950101E+20</v>
+      </c>
+      <c r="D60" s="36">
+        <v>3</v>
+      </c>
+      <c r="E60" s="35">
+        <v>231</v>
+      </c>
+      <c r="F60" s="35">
+        <v>231</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="41">
+        <v>43820.707638888889</v>
+      </c>
+      <c r="J60" s="41">
+        <v>43820.707604166666</v>
+      </c>
+      <c r="K60" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
+        <v>38068</v>
+      </c>
+      <c r="B61" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="31">
+        <v>2.0191221165847101E+20</v>
+      </c>
+      <c r="D61" s="32">
+        <v>3</v>
+      </c>
+      <c r="E61" s="31">
+        <v>792</v>
+      </c>
+      <c r="F61" s="31">
+        <v>792</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="37">
+        <v>43820.706944444442</v>
+      </c>
+      <c r="J61" s="37">
+        <v>43820.707407407404</v>
+      </c>
+      <c r="K61" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33">
+        <v>38066</v>
+      </c>
+      <c r="B62" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="33">
+        <v>2.0191221165756101E+20</v>
+      </c>
+      <c r="D62" s="34">
+        <v>2</v>
+      </c>
+      <c r="E62" s="33">
+        <v>397</v>
+      </c>
+      <c r="F62" s="33">
+        <v>397</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="39">
+        <v>43820.706944444442</v>
+      </c>
+      <c r="J62" s="39">
+        <v>43820.706863425927</v>
+      </c>
+      <c r="K62" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33">
+        <v>38065</v>
+      </c>
+      <c r="B63" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="33">
+        <v>2.0191221165743099E+20</v>
+      </c>
+      <c r="D63" s="34">
+        <v>2</v>
+      </c>
+      <c r="E63" s="33">
+        <v>204.9</v>
+      </c>
+      <c r="F63" s="33">
+        <v>204.9</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="39">
+        <v>43820.706250000003</v>
+      </c>
+      <c r="J63" s="39">
+        <v>43820.706712962965</v>
+      </c>
+      <c r="K63" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="33">
+        <v>38064</v>
+      </c>
+      <c r="B64" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="33">
+        <v>2.0191221165731099E+20</v>
+      </c>
+      <c r="D64" s="34">
+        <v>2</v>
+      </c>
+      <c r="E64" s="33">
+        <v>643</v>
+      </c>
+      <c r="F64" s="33">
+        <v>643</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="39">
+        <v>43820.706250000003</v>
+      </c>
+      <c r="J64" s="39">
+        <v>43820.706550925926</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="33">
+        <v>38060</v>
+      </c>
+      <c r="B65" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="33">
+        <v>2.0191221133711101E+20</v>
+      </c>
+      <c r="D65" s="34">
+        <v>2</v>
+      </c>
+      <c r="E65" s="33">
+        <v>718</v>
+      </c>
+      <c r="F65" s="33">
+        <v>718</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="39">
+        <v>43820.567361111112</v>
+      </c>
+      <c r="J65" s="39">
+        <v>43820.567453703705</v>
+      </c>
+      <c r="K65" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="33">
+        <v>38059</v>
+      </c>
+      <c r="B66" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="33">
+        <v>2.0191221133658099E+20</v>
+      </c>
+      <c r="D66" s="34">
+        <v>2</v>
+      </c>
+      <c r="E66" s="33">
+        <v>649</v>
+      </c>
+      <c r="F66" s="33">
+        <v>649</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="39">
+        <v>43820.567361111112</v>
+      </c>
+      <c r="J66" s="39">
+        <v>43820.56726851852</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33">
+        <v>38058</v>
+      </c>
+      <c r="B67" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="33">
+        <v>2.0191221133642102E+20</v>
+      </c>
+      <c r="D67" s="34">
+        <v>2</v>
+      </c>
+      <c r="E67" s="33">
+        <v>234</v>
+      </c>
+      <c r="F67" s="33">
+        <v>234</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="39">
+        <v>43820.566666666666</v>
+      </c>
+      <c r="J67" s="39">
+        <v>43820.567129629628</v>
+      </c>
+      <c r="K67" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
+        <v>38057</v>
+      </c>
+      <c r="B68" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="33">
+        <v>2.0191221133631101E+20</v>
+      </c>
+      <c r="D68" s="34">
+        <v>2</v>
+      </c>
+      <c r="E68" s="33">
+        <v>639</v>
+      </c>
+      <c r="F68" s="33">
+        <v>639</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="39">
+        <v>43820.566666666666</v>
+      </c>
+      <c r="J68" s="39">
+        <v>43820.566990740743</v>
+      </c>
+      <c r="K68" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
+        <v>38056</v>
+      </c>
+      <c r="B69" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="33">
+        <v>2.0191221133619098E+20</v>
+      </c>
+      <c r="D69" s="34">
+        <v>2</v>
+      </c>
+      <c r="E69" s="33">
+        <v>770</v>
+      </c>
+      <c r="F69" s="33">
+        <v>770</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="39">
+        <v>43820.566666666666</v>
+      </c>
+      <c r="J69" s="39">
+        <v>43820.566851851851</v>
+      </c>
+      <c r="K69" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="33">
+        <v>38055</v>
+      </c>
+      <c r="B70" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="33">
+        <v>2.0191221133607099E+20</v>
+      </c>
+      <c r="D70" s="34">
+        <v>2</v>
+      </c>
+      <c r="E70" s="33">
+        <v>177</v>
+      </c>
+      <c r="F70" s="33">
+        <v>177</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="39">
+        <v>43820.566666666666</v>
+      </c>
+      <c r="J70" s="39">
+        <v>43820.559537037036</v>
+      </c>
+      <c r="K70" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="33">
+        <v>38054</v>
+      </c>
+      <c r="B71" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="33">
+        <v>2.0191221132533101E+20</v>
+      </c>
+      <c r="D71" s="34">
+        <v>1</v>
+      </c>
+      <c r="E71" s="33">
+        <v>169</v>
+      </c>
+      <c r="F71" s="33">
+        <v>169</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="39">
+        <v>43820.559027777781</v>
+      </c>
+      <c r="J71" s="39">
+        <v>43820.559374999997</v>
+      </c>
+      <c r="K71" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="33">
+        <v>38053</v>
+      </c>
+      <c r="B72" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="33">
+        <v>2.0191221132520099E+20</v>
+      </c>
+      <c r="D72" s="34">
+        <v>2</v>
+      </c>
+      <c r="E72" s="33">
+        <v>489</v>
+      </c>
+      <c r="F72" s="33">
+        <v>489</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="39">
+        <v>43820.559027777781</v>
+      </c>
+      <c r="J72" s="39">
+        <v>43820.559224537035</v>
+      </c>
+      <c r="K72" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="33">
+        <v>38052</v>
+      </c>
+      <c r="B73" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="33">
+        <v>2.0191221132509099E+20</v>
+      </c>
+      <c r="D73" s="34">
+        <v>1</v>
+      </c>
+      <c r="E73" s="33">
+        <v>108</v>
+      </c>
+      <c r="F73" s="33">
+        <v>108</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="39">
+        <v>43820.559027777781</v>
+      </c>
+      <c r="J73" s="39">
+        <v>43820.559062499997</v>
+      </c>
+      <c r="K73" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="33">
+        <v>38051</v>
+      </c>
+      <c r="B74" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="33">
+        <v>2.0191221132453102E+20</v>
+      </c>
+      <c r="D74" s="34">
+        <v>2</v>
+      </c>
+      <c r="E74" s="33">
+        <v>447</v>
+      </c>
+      <c r="F74" s="33">
+        <v>447</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="39">
+        <v>43820.559027777781</v>
+      </c>
+      <c r="J74" s="39">
+        <v>43820.558912037035</v>
+      </c>
+      <c r="K74" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="33">
+        <v>38050</v>
+      </c>
+      <c r="B75" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="33">
+        <v>2.0191221132442101E+20</v>
+      </c>
+      <c r="D75" s="34">
+        <v>2</v>
+      </c>
+      <c r="E75" s="33">
+        <v>296</v>
+      </c>
+      <c r="F75" s="33">
+        <v>296</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="39">
+        <v>43820.558333333334</v>
+      </c>
+      <c r="J75" s="39">
+        <v>43820.55878472222</v>
+      </c>
+      <c r="K75" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="33">
+        <v>38049</v>
+      </c>
+      <c r="B76" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="33">
+        <v>2.0191221132432101E+20</v>
+      </c>
+      <c r="D76" s="34">
+        <v>2</v>
+      </c>
+      <c r="E76" s="33">
+        <v>229</v>
+      </c>
+      <c r="F76" s="33">
+        <v>229</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="39">
+        <v>43820.558333333334</v>
+      </c>
+      <c r="J76" s="39">
+        <v>43820.549629629626</v>
+      </c>
+      <c r="K76" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="33">
+        <v>38048</v>
+      </c>
+      <c r="B77" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="33">
+        <v>2.01912211311191E+20</v>
+      </c>
+      <c r="D77" s="34">
+        <v>2</v>
+      </c>
+      <c r="E77" s="33">
+        <v>85</v>
+      </c>
+      <c r="F77" s="33">
+        <v>85</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="39">
+        <v>43820.549305555556</v>
+      </c>
+      <c r="J77" s="39">
+        <v>43820.549328703702</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="33">
+        <v>38047</v>
+      </c>
+      <c r="B78" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="33">
+        <v>2.0191221131048101E+20</v>
+      </c>
+      <c r="D78" s="34">
+        <v>2</v>
+      </c>
+      <c r="E78" s="33">
+        <v>1520</v>
+      </c>
+      <c r="F78" s="33">
+        <v>1520</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="39">
+        <v>43820.548611111109</v>
+      </c>
+      <c r="J78" s="39">
+        <v>43820.549050925925</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33">
+        <v>38046</v>
+      </c>
+      <c r="B79" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="33">
+        <v>2.01912211310281E+20</v>
+      </c>
+      <c r="D79" s="34">
+        <v>2</v>
+      </c>
+      <c r="E79" s="33">
+        <v>538</v>
+      </c>
+      <c r="F79" s="33">
+        <v>538</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="39">
+        <v>43820.548611111109</v>
+      </c>
+      <c r="J79" s="39">
+        <v>43820.548900462964</v>
+      </c>
+      <c r="K79" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35">
+        <v>38045</v>
+      </c>
+      <c r="B80" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="35">
+        <v>2.01912211310161E+20</v>
+      </c>
+      <c r="D80" s="36">
+        <v>2</v>
+      </c>
+      <c r="E80" s="35">
+        <v>297</v>
+      </c>
+      <c r="F80" s="35">
+        <v>297</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="41">
+        <v>43820.548611111109</v>
+      </c>
+      <c r="J80" s="41">
+        <v>43820.548773148148</v>
+      </c>
+      <c r="K80" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31">
+        <v>38044</v>
+      </c>
+      <c r="B81" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="31">
+        <v>2.0191221131004101E+20</v>
+      </c>
+      <c r="D81" s="32">
+        <v>2</v>
+      </c>
+      <c r="E81" s="31">
+        <v>358</v>
+      </c>
+      <c r="F81" s="31">
+        <v>358</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="37">
+        <v>43820.548611111109</v>
+      </c>
+      <c r="J81" s="37">
+        <v>43820.548622685186</v>
+      </c>
+      <c r="K81" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="33">
+        <v>38043</v>
+      </c>
+      <c r="B82" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="33">
+        <v>2.01912211309491E+20</v>
+      </c>
+      <c r="D82" s="34">
+        <v>2</v>
+      </c>
+      <c r="E82" s="33">
+        <v>112.9</v>
+      </c>
+      <c r="F82" s="33">
+        <v>112.9</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="39">
+        <v>43820.54791666667</v>
+      </c>
+      <c r="J82" s="39">
+        <v>43820.54111111111</v>
+      </c>
+      <c r="K82" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="33">
+        <v>38042</v>
+      </c>
+      <c r="B83" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="33">
+        <v>2.01912211258571E+20</v>
+      </c>
+      <c r="D83" s="34">
+        <v>2</v>
+      </c>
+      <c r="E83" s="33">
+        <v>305</v>
+      </c>
+      <c r="F83" s="33">
+        <v>305</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="39">
+        <v>43820.540972222225</v>
+      </c>
+      <c r="J83" s="39">
+        <v>43820.540891203702</v>
+      </c>
+      <c r="K83" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="33">
+        <v>38041</v>
+      </c>
+      <c r="B84" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C84" s="33">
+        <v>2.0191221125844101E+20</v>
+      </c>
+      <c r="D84" s="34">
+        <v>2</v>
+      </c>
+      <c r="E84" s="33">
+        <v>691</v>
+      </c>
+      <c r="F84" s="33">
+        <v>691</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="39">
+        <v>43820.540277777778</v>
+      </c>
+      <c r="J84" s="39">
+        <v>43820.540752314817</v>
+      </c>
+      <c r="K84" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="33">
+        <v>38040</v>
+      </c>
+      <c r="B85" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C85" s="33">
+        <v>2.0191221125832101E+20</v>
+      </c>
+      <c r="D85" s="34">
+        <v>2</v>
+      </c>
+      <c r="E85" s="33">
+        <v>221</v>
+      </c>
+      <c r="F85" s="33">
+        <v>221</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="39">
+        <v>43820.540277777778</v>
+      </c>
+      <c r="J85" s="39">
+        <v>43820.516122685185</v>
+      </c>
+      <c r="K85" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="33">
+        <v>38039</v>
+      </c>
+      <c r="B86" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C86" s="33">
+        <v>2.0191221122305101E+20</v>
+      </c>
+      <c r="D86" s="34">
+        <v>1</v>
+      </c>
+      <c r="E86" s="33">
+        <v>119</v>
+      </c>
+      <c r="F86" s="33">
+        <v>119</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="39">
+        <v>43820.515972222223</v>
+      </c>
+      <c r="J86" s="39">
+        <v>43820.515983796293</v>
+      </c>
+      <c r="K86" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="33">
+        <v>38038</v>
+      </c>
+      <c r="B87" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C87" s="33">
+        <v>2.0191221122252099E+20</v>
+      </c>
+      <c r="D87" s="34">
+        <v>2</v>
+      </c>
+      <c r="E87" s="33">
+        <v>409</v>
+      </c>
+      <c r="F87" s="33">
+        <v>409</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="39">
+        <v>43820.515277777777</v>
+      </c>
+      <c r="J87" s="39">
+        <v>43820.515787037039</v>
+      </c>
+      <c r="K87" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="33">
+        <v>38037</v>
+      </c>
+      <c r="B88" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C88" s="33">
+        <v>2.0191221122235099E+20</v>
+      </c>
+      <c r="D88" s="34">
+        <v>2</v>
+      </c>
+      <c r="E88" s="33">
+        <v>278</v>
+      </c>
+      <c r="F88" s="33">
+        <v>278</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="39">
+        <v>43820.515277777777</v>
+      </c>
+      <c r="J88" s="39">
+        <v>43820.515648148146</v>
+      </c>
+      <c r="K88" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="33">
+        <v>38036</v>
+      </c>
+      <c r="B89" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C89" s="33">
+        <v>2.01912211222221E+20</v>
+      </c>
+      <c r="D89" s="34">
+        <v>2</v>
+      </c>
+      <c r="E89" s="33">
+        <v>178</v>
+      </c>
+      <c r="F89" s="33">
+        <v>178</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="39">
+        <v>43820.515277777777</v>
+      </c>
+      <c r="J89" s="39">
+        <v>43820.50105324074</v>
+      </c>
+      <c r="K89" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="33">
+        <v>38035</v>
+      </c>
+      <c r="B90" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C90" s="33">
+        <v>2.01912211201231E+20</v>
+      </c>
+      <c r="D90" s="34">
+        <v>2</v>
+      </c>
+      <c r="E90" s="33">
+        <v>96</v>
+      </c>
+      <c r="F90" s="33">
+        <v>96</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="39">
+        <v>43820.500694444447</v>
+      </c>
+      <c r="J90" s="39">
+        <v>43820.500856481478</v>
+      </c>
+      <c r="K90" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="33">
+        <v>38034</v>
+      </c>
+      <c r="B91" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C91" s="33">
+        <v>2.0191221120101099E+20</v>
+      </c>
+      <c r="D91" s="34">
+        <v>2</v>
+      </c>
+      <c r="E91" s="33">
+        <v>899</v>
+      </c>
+      <c r="F91" s="33">
+        <v>899</v>
+      </c>
+      <c r="G91" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="39">
+        <v>43820.500694444447</v>
+      </c>
+      <c r="J91" s="39">
+        <v>43820.500671296293</v>
+      </c>
+      <c r="K91" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="33">
+        <v>38033</v>
+      </c>
+      <c r="B92" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C92" s="33">
+        <v>2.01912211200491E+20</v>
+      </c>
+      <c r="D92" s="34">
+        <v>2</v>
+      </c>
+      <c r="E92" s="33">
+        <v>604</v>
+      </c>
+      <c r="F92" s="33">
+        <v>604</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="39">
+        <v>43820.5</v>
+      </c>
+      <c r="J92" s="39">
+        <v>43820.500532407408</v>
+      </c>
+      <c r="K92" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="33">
+        <v>38032</v>
+      </c>
+      <c r="B93" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C93" s="33">
+        <v>2.0191221120036101E+20</v>
+      </c>
+      <c r="D93" s="34">
+        <v>2</v>
+      </c>
+      <c r="E93" s="33">
+        <v>484</v>
+      </c>
+      <c r="F93" s="33">
+        <v>484</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="39">
+        <v>43820.5</v>
+      </c>
+      <c r="J93" s="39">
+        <v>43820.500381944446</v>
+      </c>
+      <c r="K93" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="33">
+        <v>38031</v>
+      </c>
+      <c r="B94" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C94" s="33">
+        <v>2.01912211200261E+20</v>
+      </c>
+      <c r="D94" s="34">
+        <v>2</v>
+      </c>
+      <c r="E94" s="33">
+        <v>288</v>
+      </c>
+      <c r="F94" s="33">
+        <v>288</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="39">
+        <v>43820.5</v>
+      </c>
+      <c r="J94" s="39">
+        <v>43820.500162037039</v>
+      </c>
+      <c r="K94" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="33">
+        <v>38029</v>
+      </c>
+      <c r="B95" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C95" s="33">
+        <v>2.01912211120151E+20</v>
+      </c>
+      <c r="D95" s="34">
+        <v>1</v>
+      </c>
+      <c r="E95" s="33">
+        <v>110</v>
+      </c>
+      <c r="F95" s="33">
+        <v>110</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="39">
+        <v>43820.472222222219</v>
+      </c>
+      <c r="J95" s="39">
+        <v>43820.472361111111</v>
+      </c>
+      <c r="K95" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="33">
+        <v>38028</v>
+      </c>
+      <c r="B96" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C96" s="33">
+        <v>2.0191221111957101E+20</v>
+      </c>
+      <c r="D96" s="34">
+        <v>2</v>
+      </c>
+      <c r="E96" s="33">
+        <v>666</v>
+      </c>
+      <c r="F96" s="33">
+        <v>666</v>
+      </c>
+      <c r="G96" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="39">
+        <v>43820.472222222219</v>
+      </c>
+      <c r="J96" s="39">
+        <v>43820.472141203703</v>
+      </c>
+      <c r="K96" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="33">
+        <v>38027</v>
+      </c>
+      <c r="B97" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C97" s="33">
+        <v>2.0191221111940101E+20</v>
+      </c>
+      <c r="D97" s="34">
+        <v>2</v>
+      </c>
+      <c r="E97" s="33">
+        <v>524</v>
+      </c>
+      <c r="F97" s="33">
+        <v>524</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="39">
+        <v>43820.47152777778</v>
+      </c>
+      <c r="J97" s="39">
+        <v>43820.464953703704</v>
+      </c>
+      <c r="K97" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="33">
+        <v>38026</v>
+      </c>
+      <c r="B98" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C98" s="33">
+        <v>2.01912211109231E+20</v>
+      </c>
+      <c r="D98" s="34">
+        <v>2</v>
+      </c>
+      <c r="E98" s="33">
+        <v>358</v>
+      </c>
+      <c r="F98" s="33">
+        <v>358</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="39">
+        <v>43820.464583333334</v>
+      </c>
+      <c r="J98" s="39">
+        <v>43820.464803240742</v>
+      </c>
+      <c r="K98" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="33">
+        <v>38025</v>
+      </c>
+      <c r="B99" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C99" s="33">
+        <v>2.0191221110908099E+20</v>
+      </c>
+      <c r="D99" s="34">
+        <v>2</v>
+      </c>
+      <c r="E99" s="33">
+        <v>1053</v>
+      </c>
+      <c r="F99" s="33">
+        <v>1053</v>
+      </c>
+      <c r="G99" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="39">
+        <v>43820.464583333334</v>
+      </c>
+      <c r="J99" s="39">
+        <v>43820.464629629627</v>
+      </c>
+      <c r="K99" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="35">
+        <v>38024</v>
+      </c>
+      <c r="B100" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C100" s="35">
+        <v>2.0191221110852098E+20</v>
+      </c>
+      <c r="D100" s="36">
+        <v>1</v>
+      </c>
+      <c r="E100" s="35">
+        <v>298</v>
+      </c>
+      <c r="F100" s="35">
+        <v>298</v>
+      </c>
+      <c r="G100" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="41">
+        <v>43820.464583333334</v>
+      </c>
+      <c r="J100" s="41">
+        <v>43820.464317129627</v>
+      </c>
+      <c r="K100" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="31">
+        <v>38022</v>
+      </c>
+      <c r="B101" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C101" s="31">
+        <v>2.0191221110056101E+20</v>
+      </c>
+      <c r="D101" s="32">
+        <v>1</v>
+      </c>
+      <c r="E101" s="31">
+        <v>85</v>
+      </c>
+      <c r="F101" s="31">
+        <v>85</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="37">
+        <v>43820.459027777775</v>
+      </c>
+      <c r="J101" s="37">
+        <v>43820.458043981482</v>
+      </c>
+      <c r="K101" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="33">
+        <v>38021</v>
+      </c>
+      <c r="B102" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C102" s="33">
+        <v>2.01912211059221E+20</v>
+      </c>
+      <c r="D102" s="34">
+        <v>2</v>
+      </c>
+      <c r="E102" s="33">
+        <v>359</v>
+      </c>
+      <c r="F102" s="33">
+        <v>359</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="39">
+        <v>43820.457638888889</v>
+      </c>
+      <c r="J102" s="39">
+        <v>43820.457870370374</v>
+      </c>
+      <c r="K102" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="33">
+        <v>38020</v>
+      </c>
+      <c r="B103" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C103" s="33">
+        <v>2.0191221105910101E+20</v>
+      </c>
+      <c r="D103" s="34">
+        <v>3</v>
+      </c>
+      <c r="E103" s="33">
+        <v>325</v>
+      </c>
+      <c r="F103" s="33">
+        <v>325</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="39">
+        <v>43820.457638888889</v>
+      </c>
+      <c r="J103" s="39">
+        <v>43820.457719907405</v>
+      </c>
+      <c r="K103" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="33">
+        <v>38019</v>
+      </c>
+      <c r="B104" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C104" s="33">
+        <v>2.0191221105856099E+20</v>
+      </c>
+      <c r="D104" s="34">
+        <v>1</v>
+      </c>
+      <c r="E104" s="33">
+        <v>22</v>
+      </c>
+      <c r="F104" s="33">
+        <v>22</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="39">
+        <v>43820.457638888889</v>
+      </c>
+      <c r="J104" s="39">
+        <v>43820.457557870373</v>
+      </c>
+      <c r="K104" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="33">
+        <v>38018</v>
+      </c>
+      <c r="B105" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C105" s="33">
+        <v>2.01912211058431E+20</v>
+      </c>
+      <c r="D105" s="34">
+        <v>2</v>
+      </c>
+      <c r="E105" s="33">
+        <v>569</v>
+      </c>
+      <c r="F105" s="33">
+        <v>569</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="39">
+        <v>43820.456944444442</v>
+      </c>
+      <c r="J105" s="39">
+        <v>43820.457361111112</v>
+      </c>
+      <c r="K105" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="33">
+        <v>38016</v>
+      </c>
+      <c r="B106" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C106" s="33">
+        <v>2.0191221104816099E+20</v>
+      </c>
+      <c r="D106" s="34">
+        <v>1</v>
+      </c>
+      <c r="E106" s="33">
+        <v>163</v>
+      </c>
+      <c r="F106" s="33">
+        <v>163</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="39">
+        <v>43820.45</v>
+      </c>
+      <c r="J106" s="39">
+        <v>43820.450127314813</v>
+      </c>
+      <c r="K106" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="33">
+        <v>38015</v>
+      </c>
+      <c r="B107" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C107" s="33">
+        <v>2.0191221104800101E+20</v>
+      </c>
+      <c r="D107" s="34">
+        <v>2</v>
+      </c>
+      <c r="E107" s="33">
+        <v>571</v>
+      </c>
+      <c r="F107" s="33">
+        <v>571</v>
+      </c>
+      <c r="G107" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="39">
+        <v>43820.45</v>
+      </c>
+      <c r="J107" s="39">
+        <v>43820.449907407405</v>
+      </c>
+      <c r="K107" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="35">
+        <v>38014</v>
+      </c>
+      <c r="B108" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C108" s="35">
+        <v>2.01912211047331E+20</v>
+      </c>
+      <c r="D108" s="36">
+        <v>3</v>
+      </c>
+      <c r="E108" s="35">
+        <v>561</v>
+      </c>
+      <c r="F108" s="35">
+        <v>561</v>
+      </c>
+      <c r="G108" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="41">
+        <v>43820.449305555558</v>
+      </c>
+      <c r="J108" s="41">
+        <v>43820.44939814815</v>
+      </c>
+      <c r="K108" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31">
+        <v>38100</v>
+      </c>
+      <c r="B109" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C109" s="31">
+        <v>2.0191221182623098E+20</v>
+      </c>
+      <c r="D109" s="32">
+        <v>3</v>
+      </c>
+      <c r="E109" s="31">
+        <v>448</v>
+      </c>
+      <c r="F109" s="31">
+        <v>448</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="37">
+        <v>43820.768055555556</v>
+      </c>
+      <c r="J109" s="37">
+        <v>43820.758703703701</v>
+      </c>
+      <c r="K109" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="35">
+        <v>38095</v>
+      </c>
+      <c r="B110" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C110" s="35">
+        <v>2.01912211808001E+20</v>
+      </c>
+      <c r="D110" s="36">
+        <v>3</v>
+      </c>
+      <c r="E110" s="35">
+        <v>553</v>
+      </c>
+      <c r="F110" s="35">
+        <v>553</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="41">
+        <v>43820.755555555559</v>
+      </c>
+      <c r="J110" s="41">
+        <v>43820.75545138889</v>
+      </c>
+      <c r="K110" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="31">
+        <v>38030</v>
+      </c>
+      <c r="B111" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C111" s="31">
+        <v>2.01912211141211E+20</v>
+      </c>
+      <c r="D111" s="32">
+        <v>2</v>
+      </c>
+      <c r="E111" s="31">
+        <v>536</v>
+      </c>
+      <c r="F111" s="31">
+        <v>536</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="37">
+        <v>43820.486805555556</v>
+      </c>
+      <c r="J111" s="37">
+        <v>43820.47252314815</v>
+      </c>
+      <c r="K111" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="35">
+        <v>38017</v>
+      </c>
+      <c r="B112" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C112" s="35">
+        <v>2.01912211051321E+20</v>
+      </c>
+      <c r="D112" s="36">
+        <v>1</v>
+      </c>
+      <c r="E112" s="35">
+        <v>373</v>
+      </c>
+      <c r="F112" s="35">
+        <v>373</v>
+      </c>
+      <c r="G112" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="41">
+        <v>43820.45208333333</v>
+      </c>
+      <c r="J112" s="41">
+        <v>43820.450277777774</v>
+      </c>
+      <c r="K112" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" display="javascript:;" xr:uid="{E127733C-27E8-4E4B-B031-A0629F4D1B6E}"/>
+    <hyperlink ref="K2" r:id="rId2" display="javascript:;" xr:uid="{F0D4AF48-EF89-4205-9E4C-448FDD80AF54}"/>
+    <hyperlink ref="K3" r:id="rId3" display="javascript:;" xr:uid="{5DE64B7E-3B31-48C3-A677-7A6C2C7B646F}"/>
+    <hyperlink ref="K4" r:id="rId4" display="javascript:;" xr:uid="{6C7A2139-92CE-4E78-BF51-A88587A0F763}"/>
+    <hyperlink ref="K5" r:id="rId5" display="javascript:;" xr:uid="{C04AA272-C3B4-472B-8890-3679A396C919}"/>
+    <hyperlink ref="K6" r:id="rId6" display="javascript:;" xr:uid="{9448035E-C322-4625-B0E3-E0A8C2D314D1}"/>
+    <hyperlink ref="K7" r:id="rId7" display="javascript:;" xr:uid="{EB99F2FC-D1A6-4207-B456-DCC835DCFD9F}"/>
+    <hyperlink ref="K8" r:id="rId8" display="javascript:;" xr:uid="{20EA0165-A7C1-4230-A60C-28C28E5DD5FB}"/>
+    <hyperlink ref="K9" r:id="rId9" display="javascript:;" xr:uid="{51307BE6-AD49-4359-9527-FC50273D5112}"/>
+    <hyperlink ref="K10" r:id="rId10" display="javascript:;" xr:uid="{BD5B00BD-1F6E-424D-9E93-4E3B41046A90}"/>
+    <hyperlink ref="K11" r:id="rId11" display="javascript:;" xr:uid="{9F5EEC17-9031-4833-8A21-8F0A6BB2525E}"/>
+    <hyperlink ref="K12" r:id="rId12" display="javascript:;" xr:uid="{F7E389C0-D813-46AC-92A4-58E3ED8C9D40}"/>
+    <hyperlink ref="K13" r:id="rId13" display="javascript:;" xr:uid="{41EF2AA9-6739-4E21-8DA0-CDD3702FD020}"/>
+    <hyperlink ref="K14" r:id="rId14" display="javascript:;" xr:uid="{C0A84DDB-626D-4373-AECC-CEFD5C2CBC80}"/>
+    <hyperlink ref="K15" r:id="rId15" display="javascript:;" xr:uid="{B0DBCFF2-38E7-40AB-BF4F-CFE332FA0766}"/>
+    <hyperlink ref="K16" r:id="rId16" display="javascript:;" xr:uid="{65F71D60-88C3-4E40-BBCE-95E044A4F0DC}"/>
+    <hyperlink ref="K17" r:id="rId17" display="javascript:;" xr:uid="{FF70E2A9-1CBF-4DEB-811B-37216B322E3B}"/>
+    <hyperlink ref="K18" r:id="rId18" display="javascript:;" xr:uid="{7ABEE32B-3ED3-42C0-91D8-7AA809A60ADB}"/>
+    <hyperlink ref="K19" r:id="rId19" display="javascript:;" xr:uid="{80AEF8FA-90BE-4DA2-8AB6-79FA08A714CF}"/>
+    <hyperlink ref="K20" r:id="rId20" display="javascript:;" xr:uid="{408D2E0E-52FF-4B5D-835A-95A0BA8B048F}"/>
+    <hyperlink ref="K21" r:id="rId21" display="javascript:;" xr:uid="{29EA91F6-19F5-4901-9634-8928077FE3A4}"/>
+    <hyperlink ref="K22" r:id="rId22" display="javascript:;" xr:uid="{22F87B9E-31D4-4CE1-9CCF-300246C5A8B3}"/>
+    <hyperlink ref="K23" r:id="rId23" display="javascript:;" xr:uid="{728A4780-521A-4F26-83E4-71F89B8FA172}"/>
+    <hyperlink ref="K24" r:id="rId24" display="javascript:;" xr:uid="{05F18B58-6CC1-4630-AEA4-C9200A176BCD}"/>
+    <hyperlink ref="K25" r:id="rId25" display="javascript:;" xr:uid="{4645FEBA-B91D-40C3-B23F-60BE0D8C7A3B}"/>
+    <hyperlink ref="K26" r:id="rId26" display="javascript:;" xr:uid="{B2C13469-40E7-49B0-9C1B-949414F574FF}"/>
+    <hyperlink ref="K27" r:id="rId27" display="javascript:;" xr:uid="{AC6A0748-4BA7-493F-AEAB-93FB25D3BB4D}"/>
+    <hyperlink ref="K28" r:id="rId28" display="javascript:;" xr:uid="{7323F4E9-FB7D-454E-8122-378BB63609A9}"/>
+    <hyperlink ref="K29" r:id="rId29" display="javascript:;" xr:uid="{15CBFFFC-EA73-4F10-9C5B-11AF06DB30DB}"/>
+    <hyperlink ref="K30" r:id="rId30" display="javascript:;" xr:uid="{13B9E336-6A7F-41E5-949E-8BEF77BA4E0C}"/>
+    <hyperlink ref="K31" r:id="rId31" display="javascript:;" xr:uid="{2BAD6882-3FAF-41F3-A535-A68C36F7E67F}"/>
+    <hyperlink ref="K32" r:id="rId32" display="javascript:;" xr:uid="{70514153-4769-46DD-98F0-164338C95EF7}"/>
+    <hyperlink ref="K33" r:id="rId33" display="javascript:;" xr:uid="{604DF335-4E9E-4731-AE47-069B608D5977}"/>
+    <hyperlink ref="K34" r:id="rId34" display="javascript:;" xr:uid="{E4E8C5D2-408B-4677-B740-0C0C5F229B91}"/>
+    <hyperlink ref="K35" r:id="rId35" display="javascript:;" xr:uid="{7EB9DDBD-3B13-4A67-8629-1AED0285C427}"/>
+    <hyperlink ref="K36" r:id="rId36" display="javascript:;" xr:uid="{6771B23B-BA1B-49A8-ACC5-BB6D2292F187}"/>
+    <hyperlink ref="K37" r:id="rId37" display="javascript:;" xr:uid="{35BCDE01-27CE-4E1D-8D0C-7905A721151B}"/>
+    <hyperlink ref="K38" r:id="rId38" display="javascript:;" xr:uid="{4A11E012-AD2B-4157-8A03-D788D5145DFA}"/>
+    <hyperlink ref="K39" r:id="rId39" display="javascript:;" xr:uid="{31ED592F-DB4B-4AD7-9A49-AF449FBE6368}"/>
+    <hyperlink ref="K40" r:id="rId40" display="javascript:;" xr:uid="{49A51056-C0A8-45FF-98E6-4DE709757622}"/>
+    <hyperlink ref="K41" r:id="rId41" display="javascript:;" xr:uid="{71DA7335-FD96-4AE2-A368-35142B8067D0}"/>
+    <hyperlink ref="K42" r:id="rId42" display="javascript:;" xr:uid="{2DCCEC41-01B7-4EA3-A5EE-4CB31744A843}"/>
+    <hyperlink ref="K43" r:id="rId43" display="javascript:;" xr:uid="{0B522BDB-77ED-4F89-8A49-9F7122836685}"/>
+    <hyperlink ref="K44" r:id="rId44" display="javascript:;" xr:uid="{661FB1F9-44CB-4BA7-B02E-54C4CADCF222}"/>
+    <hyperlink ref="K45" r:id="rId45" display="javascript:;" xr:uid="{1FA21603-A1B2-4905-BB9E-E680AB081DFA}"/>
+    <hyperlink ref="K46" r:id="rId46" display="javascript:;" xr:uid="{EC15F438-3C49-4A84-B055-E1C5031935F3}"/>
+    <hyperlink ref="K47" r:id="rId47" display="javascript:;" xr:uid="{777E3D91-72EA-418D-A3D8-1D61462FF539}"/>
+    <hyperlink ref="K48" r:id="rId48" display="javascript:;" xr:uid="{4DB5903E-EDE4-49FD-834F-925586E6EB93}"/>
+    <hyperlink ref="K49" r:id="rId49" display="javascript:;" xr:uid="{ED5EFAFB-A2A3-4CD7-8509-4647F6A858FC}"/>
+    <hyperlink ref="K50" r:id="rId50" display="javascript:;" xr:uid="{DDD97D9F-56E9-430D-95A2-B90A511E8A6C}"/>
+    <hyperlink ref="K51" r:id="rId51" display="javascript:;" xr:uid="{9E3880D5-94D0-40CD-ADF1-1F2FB07000A4}"/>
+    <hyperlink ref="K52" r:id="rId52" display="javascript:;" xr:uid="{0AC44FCF-598E-4A55-8954-F98D37B66057}"/>
+    <hyperlink ref="K53" r:id="rId53" display="javascript:;" xr:uid="{C18637B7-2CC5-468E-9FB8-6CEE86D230D2}"/>
+    <hyperlink ref="K54" r:id="rId54" display="javascript:;" xr:uid="{13553B70-26C0-4547-8794-32F5E1147289}"/>
+    <hyperlink ref="K55" r:id="rId55" display="javascript:;" xr:uid="{789FF0AE-8303-4780-BA5A-0B3676137F49}"/>
+    <hyperlink ref="K56" r:id="rId56" display="javascript:;" xr:uid="{3FE7CAA9-BFE6-47C7-A92A-6CD48AC91870}"/>
+    <hyperlink ref="K57" r:id="rId57" display="javascript:;" xr:uid="{BD66A058-0FB9-4100-81B0-3C4A9757D193}"/>
+    <hyperlink ref="K58" r:id="rId58" display="javascript:;" xr:uid="{3386A87E-6E82-49C4-A4A2-F0DA52A57AAD}"/>
+    <hyperlink ref="K59" r:id="rId59" display="javascript:;" xr:uid="{0214664D-28C4-4DC7-846F-1F80E1E5E6C8}"/>
+    <hyperlink ref="K60" r:id="rId60" display="javascript:;" xr:uid="{F5FEB655-A7AA-484D-AEC9-5F9E33EB6BD4}"/>
+    <hyperlink ref="K61" r:id="rId61" display="javascript:;" xr:uid="{80329185-580D-440F-8D97-AB260D0FE70B}"/>
+    <hyperlink ref="K62" r:id="rId62" display="javascript:;" xr:uid="{8BFAFB46-9AEF-4E36-8FED-FDCC03EAA28B}"/>
+    <hyperlink ref="K63" r:id="rId63" display="javascript:;" xr:uid="{BEE6D3A6-EA8B-4990-BDC8-EA3554561127}"/>
+    <hyperlink ref="K64" r:id="rId64" display="javascript:;" xr:uid="{6D2E52EE-8AAB-46D3-81F4-70CF0D1C4C4F}"/>
+    <hyperlink ref="K65" r:id="rId65" display="javascript:;" xr:uid="{000C36BD-BF92-4712-B384-9C168D42C748}"/>
+    <hyperlink ref="K66" r:id="rId66" display="javascript:;" xr:uid="{81F5CFB7-E759-4D95-9425-81DE8BB05BA8}"/>
+    <hyperlink ref="K67" r:id="rId67" display="javascript:;" xr:uid="{42600C44-40B2-4DFF-93F5-1C0C17FDCE05}"/>
+    <hyperlink ref="K68" r:id="rId68" display="javascript:;" xr:uid="{A09E25F4-B3C0-4CEB-977B-5F5B1BA20E01}"/>
+    <hyperlink ref="K69" r:id="rId69" display="javascript:;" xr:uid="{28B22983-EE56-4B2F-BA9D-EE5991F4E75A}"/>
+    <hyperlink ref="K70" r:id="rId70" display="javascript:;" xr:uid="{B2031305-F309-4AE0-8DF2-EF52D85095FB}"/>
+    <hyperlink ref="K71" r:id="rId71" display="javascript:;" xr:uid="{83DB5041-E1E3-4C3B-A00C-2F145C573A5D}"/>
+    <hyperlink ref="K72" r:id="rId72" display="javascript:;" xr:uid="{8E7B667E-8358-42E5-936F-90E620975C14}"/>
+    <hyperlink ref="K73" r:id="rId73" display="javascript:;" xr:uid="{F7866750-A5FF-4D98-BF33-565ED6A91318}"/>
+    <hyperlink ref="K74" r:id="rId74" display="javascript:;" xr:uid="{D6EB86BC-F532-4E5D-AC63-8134B774DCA0}"/>
+    <hyperlink ref="K75" r:id="rId75" display="javascript:;" xr:uid="{76D6434F-55B9-4461-BC05-648AD75C48DA}"/>
+    <hyperlink ref="K76" r:id="rId76" display="javascript:;" xr:uid="{F0C0B1CF-93D9-44FC-84DE-7FDE80345DA0}"/>
+    <hyperlink ref="K77" r:id="rId77" display="javascript:;" xr:uid="{63B997CB-9169-458A-A160-E77928E91939}"/>
+    <hyperlink ref="K78" r:id="rId78" display="javascript:;" xr:uid="{39E72F84-32DA-41B3-885B-0692C0029938}"/>
+    <hyperlink ref="K79" r:id="rId79" display="javascript:;" xr:uid="{96AB50BB-F04E-4217-96CB-68553550170A}"/>
+    <hyperlink ref="K80" r:id="rId80" display="javascript:;" xr:uid="{EB7B6BC0-83BF-4F71-A250-22D550E889CD}"/>
+    <hyperlink ref="K81" r:id="rId81" display="javascript:;" xr:uid="{1F80C567-961C-4DF6-A7EB-A9DEDFC3B53D}"/>
+    <hyperlink ref="K82" r:id="rId82" display="javascript:;" xr:uid="{A2653D01-719B-4741-A980-717F37DE9D90}"/>
+    <hyperlink ref="K83" r:id="rId83" display="javascript:;" xr:uid="{9F44F75F-22F3-4240-BC5D-18C0DBA17531}"/>
+    <hyperlink ref="K84" r:id="rId84" display="javascript:;" xr:uid="{F8A758BD-824A-4B9C-AB2D-1697BD2B1ED2}"/>
+    <hyperlink ref="K85" r:id="rId85" display="javascript:;" xr:uid="{31C64746-3C04-40FA-8D7E-1A5E900A03BA}"/>
+    <hyperlink ref="K86" r:id="rId86" display="javascript:;" xr:uid="{D040B2B9-F2A2-4081-A765-83300E23615E}"/>
+    <hyperlink ref="K87" r:id="rId87" display="javascript:;" xr:uid="{A919C4CE-1B99-4285-BA05-AD01C09EF100}"/>
+    <hyperlink ref="K88" r:id="rId88" display="javascript:;" xr:uid="{5FB9456F-1C23-45F1-8254-75FAAA458321}"/>
+    <hyperlink ref="K89" r:id="rId89" display="javascript:;" xr:uid="{781E538D-D6FB-41F3-87A6-96E83E804483}"/>
+    <hyperlink ref="K90" r:id="rId90" display="javascript:;" xr:uid="{6654D21A-B71F-413C-8797-7309607F9C3A}"/>
+    <hyperlink ref="K91" r:id="rId91" display="javascript:;" xr:uid="{A5E5454F-6E08-4016-B37A-5FC3DE4AA28B}"/>
+    <hyperlink ref="K92" r:id="rId92" display="javascript:;" xr:uid="{44C2589A-78AF-4CE4-9E75-09552612B726}"/>
+    <hyperlink ref="K93" r:id="rId93" display="javascript:;" xr:uid="{1B63161B-6550-4135-B1CE-9123BD8FAE95}"/>
+    <hyperlink ref="K94" r:id="rId94" display="javascript:;" xr:uid="{D4DCD2CB-1652-4DBB-9C51-638D4E9D3029}"/>
+    <hyperlink ref="K95" r:id="rId95" display="javascript:;" xr:uid="{2F9AA60C-2D8D-4560-9FC8-C2A4390D2783}"/>
+    <hyperlink ref="K96" r:id="rId96" display="javascript:;" xr:uid="{EB9EAADF-6A9F-4256-BBF2-1A1FFEBAF85C}"/>
+    <hyperlink ref="K97" r:id="rId97" display="javascript:;" xr:uid="{9A7DD6C9-AF93-4729-8668-2F3C773A2FA6}"/>
+    <hyperlink ref="K98" r:id="rId98" display="javascript:;" xr:uid="{B8E5C86D-6C04-4E46-B114-E856D52356F7}"/>
+    <hyperlink ref="K99" r:id="rId99" display="javascript:;" xr:uid="{74A1440E-CC8F-4DC0-9C16-0138CC84CF55}"/>
+    <hyperlink ref="K100" r:id="rId100" display="javascript:;" xr:uid="{CC76785B-24B5-45FD-8786-AC3EE5761B84}"/>
+    <hyperlink ref="K101" r:id="rId101" display="javascript:;" xr:uid="{B40AFF63-A7AC-490B-B5C9-87B80A575BA9}"/>
+    <hyperlink ref="K102" r:id="rId102" display="javascript:;" xr:uid="{DA15F9F3-460C-41AE-8803-D5F414C2E572}"/>
+    <hyperlink ref="K103" r:id="rId103" display="javascript:;" xr:uid="{C9C1613F-282C-4807-9687-83996B219697}"/>
+    <hyperlink ref="K104" r:id="rId104" display="javascript:;" xr:uid="{444EABCE-4E9B-4082-B354-7BC4142C5B5E}"/>
+    <hyperlink ref="K105" r:id="rId105" display="javascript:;" xr:uid="{BBF03E40-AF48-461F-9219-34E75C03931B}"/>
+    <hyperlink ref="K106" r:id="rId106" display="javascript:;" xr:uid="{09114B65-1B0E-4C7A-BDF5-8AD098DD5E69}"/>
+    <hyperlink ref="K107" r:id="rId107" display="javascript:;" xr:uid="{02A35282-005C-49F0-993A-4AD9D7EC399C}"/>
+    <hyperlink ref="K108" r:id="rId108" display="javascript:;" xr:uid="{82B8EA0A-BE56-4FC8-8E30-64127C10F4B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId109"/>
 </worksheet>
 </file>
 

--- a/s_d/麻吉12月.xlsx
+++ b/s_d/麻吉12月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D203F99-64BD-4594-BF13-80261DCBCB96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA124BE-80FF-4DE7-A799-A44F174F2ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12.1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="12.19" sheetId="20" r:id="rId19"/>
     <sheet name="12.20" sheetId="21" r:id="rId20"/>
     <sheet name="12.21" sheetId="22" r:id="rId21"/>
+    <sheet name="12.22" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6789" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7145" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -219,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +309,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -52813,8 +52820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81807D8F-E78E-4121-A9D8-078C778A746B}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -56886,6 +56893,4260 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId109"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4046F19-70A7-4745-B1E9-6DE7826CD739}">
+  <dimension ref="A1:P117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31">
+        <v>38299</v>
+      </c>
+      <c r="B1" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="31">
+        <v>2.0191222204059101E+20</v>
+      </c>
+      <c r="D1" s="32">
+        <v>2</v>
+      </c>
+      <c r="E1" s="31">
+        <v>200</v>
+      </c>
+      <c r="F1" s="31">
+        <v>200</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="37">
+        <v>43821.861805555556</v>
+      </c>
+      <c r="J1" s="37">
+        <v>43821.861724537041</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35">
+        <v>38295</v>
+      </c>
+      <c r="B2" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="35">
+        <v>2.01912222034011E+20</v>
+      </c>
+      <c r="D2" s="36">
+        <v>2</v>
+      </c>
+      <c r="E2" s="35">
+        <v>299</v>
+      </c>
+      <c r="F2" s="35">
+        <v>299</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="41">
+        <v>43821.856944444444</v>
+      </c>
+      <c r="J2" s="41">
+        <v>43821.856828703705</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>38231</v>
+      </c>
+      <c r="B3" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2.0191222181525101E+20</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
+        <v>540</v>
+      </c>
+      <c r="F3" s="31">
+        <v>540</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="37">
+        <v>43821.760416666664</v>
+      </c>
+      <c r="J3" s="37">
+        <v>43821.760706018518</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35">
+        <v>38230</v>
+      </c>
+      <c r="B4" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2.0191222181431099E+20</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="35">
+        <v>540</v>
+      </c>
+      <c r="F4" s="35">
+        <v>540</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="41">
+        <v>43821.759722222225</v>
+      </c>
+      <c r="J4" s="41">
+        <v>43821.760081018518</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53">
+        <v>38224</v>
+      </c>
+      <c r="B5" s="53">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="53">
+        <v>2.0191222174235099E+20</v>
+      </c>
+      <c r="D5" s="54">
+        <v>2</v>
+      </c>
+      <c r="E5" s="53">
+        <v>164</v>
+      </c>
+      <c r="F5" s="53">
+        <v>164</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="59">
+        <v>43821.737500000003</v>
+      </c>
+      <c r="J5" s="59">
+        <v>43821.737905092596</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>20000</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>38222</v>
+      </c>
+      <c r="B6" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="31">
+        <v>2.01912221740001E+20</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1380</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1380</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="37">
+        <v>43821.736111111109</v>
+      </c>
+      <c r="J6" s="37">
+        <v>43821.736111111109</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>68710.600000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35">
+        <v>38221</v>
+      </c>
+      <c r="B7" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="35">
+        <v>2.0191222173934099E+20</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1</v>
+      </c>
+      <c r="E7" s="35">
+        <v>540</v>
+      </c>
+      <c r="F7" s="35">
+        <v>540</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="41">
+        <v>43821.73541666667</v>
+      </c>
+      <c r="J7" s="41">
+        <v>43821.735810185186</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7">
+        <v>-326.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53">
+        <v>8217</v>
+      </c>
+      <c r="B8" s="53">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="53">
+        <v>2.0191222173916099E+20</v>
+      </c>
+      <c r="D8" s="54">
+        <v>2</v>
+      </c>
+      <c r="E8" s="53">
+        <v>337</v>
+      </c>
+      <c r="F8" s="53">
+        <v>337</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="59">
+        <v>43821.73541666667</v>
+      </c>
+      <c r="J8" s="59">
+        <v>43821.714189814818</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>38170</v>
+      </c>
+      <c r="B9" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2.0191222121347101E+20</v>
+      </c>
+      <c r="D9" s="32">
+        <v>3</v>
+      </c>
+      <c r="E9" s="31">
+        <v>345</v>
+      </c>
+      <c r="F9" s="31">
+        <v>345</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="37">
+        <v>43821.509027777778</v>
+      </c>
+      <c r="J9" s="37">
+        <v>43821.508055555554</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
+        <v>38169</v>
+      </c>
+      <c r="B10" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="35">
+        <v>2.0191222121102098E+20</v>
+      </c>
+      <c r="D10" s="36">
+        <v>3</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1782</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1782</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="41">
+        <v>43821.507638888892</v>
+      </c>
+      <c r="J10" s="41">
+        <v>43821.507627314815</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>38301</v>
+      </c>
+      <c r="B11" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="31">
+        <v>2.0191222204421099E+20</v>
+      </c>
+      <c r="D11" s="32">
+        <v>2</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1136</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1136</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="37">
+        <v>43821.863888888889</v>
+      </c>
+      <c r="J11" s="37">
+        <v>43821.864085648151</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>38300</v>
+      </c>
+      <c r="B12" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="33">
+        <v>2.0191222204409099E+20</v>
+      </c>
+      <c r="D12" s="34">
+        <v>3</v>
+      </c>
+      <c r="E12" s="33">
+        <v>743</v>
+      </c>
+      <c r="F12" s="33">
+        <v>743</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="39">
+        <v>43821.863888888889</v>
+      </c>
+      <c r="J12" s="39">
+        <v>43821.862233796295</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>38298</v>
+      </c>
+      <c r="B13" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="33">
+        <v>2.0191222204045099E+20</v>
+      </c>
+      <c r="D13" s="34">
+        <v>3</v>
+      </c>
+      <c r="E13" s="33">
+        <v>867</v>
+      </c>
+      <c r="F13" s="33">
+        <v>867</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="39">
+        <v>43821.861111111109</v>
+      </c>
+      <c r="J13" s="39">
+        <v>43821.858298611114</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>38297</v>
+      </c>
+      <c r="B14" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="33">
+        <v>2.0191222203547101E+20</v>
+      </c>
+      <c r="D14" s="34">
+        <v>3</v>
+      </c>
+      <c r="E14" s="33">
+        <v>1155</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1155</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="39">
+        <v>43821.857638888891</v>
+      </c>
+      <c r="J14" s="39">
+        <v>43821.858124999999</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>38296</v>
+      </c>
+      <c r="B15" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2.0191222203535101E+20</v>
+      </c>
+      <c r="D15" s="34">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33">
+        <v>282</v>
+      </c>
+      <c r="F15" s="33">
+        <v>282</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="39">
+        <v>43821.857638888891</v>
+      </c>
+      <c r="J15" s="39">
+        <v>43821.857511574075</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>38294</v>
+      </c>
+      <c r="B16" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2.01912222033371E+20</v>
+      </c>
+      <c r="D16" s="34">
+        <v>3</v>
+      </c>
+      <c r="E16" s="33">
+        <v>303</v>
+      </c>
+      <c r="F16" s="33">
+        <v>303</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="39">
+        <v>43821.856249999997</v>
+      </c>
+      <c r="J16" s="39">
+        <v>43821.856388888889</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>38293</v>
+      </c>
+      <c r="B17" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="33">
+        <v>2.0191222203254099E+20</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2</v>
+      </c>
+      <c r="E17" s="33">
+        <v>229</v>
+      </c>
+      <c r="F17" s="33">
+        <v>229</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="39">
+        <v>43821.856249999997</v>
+      </c>
+      <c r="J17" s="39">
+        <v>43821.855833333335</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>38292</v>
+      </c>
+      <c r="B18" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="33">
+        <v>2.0191222203215099E+20</v>
+      </c>
+      <c r="D18" s="34">
+        <v>3</v>
+      </c>
+      <c r="E18" s="33">
+        <v>637</v>
+      </c>
+      <c r="F18" s="33">
+        <v>637</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="39">
+        <v>43821.855555555558</v>
+      </c>
+      <c r="J18" s="39">
+        <v>43821.855416666665</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>38291</v>
+      </c>
+      <c r="B19" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="33">
+        <v>2.0191222203136102E+20</v>
+      </c>
+      <c r="D19" s="34">
+        <v>4</v>
+      </c>
+      <c r="E19" s="33">
+        <v>854</v>
+      </c>
+      <c r="F19" s="33">
+        <v>854</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="39">
+        <v>43821.854861111111</v>
+      </c>
+      <c r="J19" s="39">
+        <v>43821.855208333334</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>38290</v>
+      </c>
+      <c r="B20" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="33">
+        <v>2.01912222026271E+20</v>
+      </c>
+      <c r="D20" s="34">
+        <v>3</v>
+      </c>
+      <c r="E20" s="33">
+        <v>695</v>
+      </c>
+      <c r="F20" s="33">
+        <v>695</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="39">
+        <v>43821.851388888892</v>
+      </c>
+      <c r="J20" s="39">
+        <v>43821.845509259256</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>38289</v>
+      </c>
+      <c r="B21" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="33">
+        <v>2.0191222201724099E+20</v>
+      </c>
+      <c r="D21" s="34">
+        <v>3</v>
+      </c>
+      <c r="E21" s="33">
+        <v>589</v>
+      </c>
+      <c r="F21" s="33">
+        <v>589</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="39">
+        <v>43821.845138888886</v>
+      </c>
+      <c r="J21" s="39">
+        <v>43821.840879629628</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>38288</v>
+      </c>
+      <c r="B22" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="33">
+        <v>2.01912222010341E+20</v>
+      </c>
+      <c r="D22" s="34">
+        <v>2</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1029</v>
+      </c>
+      <c r="F22" s="33">
+        <v>1029</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="39">
+        <v>43821.840277777781</v>
+      </c>
+      <c r="J22" s="39">
+        <v>43821.840613425928</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>38287</v>
+      </c>
+      <c r="B23" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2.0191222200950099E+20</v>
+      </c>
+      <c r="D23" s="34">
+        <v>2</v>
+      </c>
+      <c r="E23" s="33">
+        <v>319</v>
+      </c>
+      <c r="F23" s="33">
+        <v>319</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="39">
+        <v>43821.839583333334</v>
+      </c>
+      <c r="J23" s="39">
+        <v>43821.827256944445</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>38286</v>
+      </c>
+      <c r="B24" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="33">
+        <v>2.0191222195051099E+20</v>
+      </c>
+      <c r="D24" s="34">
+        <v>2</v>
+      </c>
+      <c r="E24" s="33">
+        <v>346</v>
+      </c>
+      <c r="F24" s="33">
+        <v>346</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="39">
+        <v>43821.826388888891</v>
+      </c>
+      <c r="J24" s="39">
+        <v>43821.825520833336</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>38285</v>
+      </c>
+      <c r="B25" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="33">
+        <v>2.0191222194818099E+20</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1</v>
+      </c>
+      <c r="E25" s="33">
+        <v>68</v>
+      </c>
+      <c r="F25" s="33">
+        <v>68</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="39">
+        <v>43821.824999999997</v>
+      </c>
+      <c r="J25" s="39">
+        <v>43821.825115740743</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>38284</v>
+      </c>
+      <c r="B26" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="33">
+        <v>2.0191222194801099E+20</v>
+      </c>
+      <c r="D26" s="34">
+        <v>3</v>
+      </c>
+      <c r="E26" s="33">
+        <v>264</v>
+      </c>
+      <c r="F26" s="33">
+        <v>264</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="39">
+        <v>43821.824999999997</v>
+      </c>
+      <c r="J26" s="39">
+        <v>43821.824965277781</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>38283</v>
+      </c>
+      <c r="B27" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2.0191222194749099E+20</v>
+      </c>
+      <c r="D27" s="34">
+        <v>2</v>
+      </c>
+      <c r="E27" s="33">
+        <v>527</v>
+      </c>
+      <c r="F27" s="33">
+        <v>527</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="39">
+        <v>43821.824305555558</v>
+      </c>
+      <c r="J27" s="39">
+        <v>43821.82130787037</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>38282</v>
+      </c>
+      <c r="B28" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2.01912221941281E+20</v>
+      </c>
+      <c r="D28" s="34">
+        <v>3</v>
+      </c>
+      <c r="E28" s="33">
+        <v>732</v>
+      </c>
+      <c r="F28" s="33">
+        <v>732</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="39">
+        <v>43821.820138888892</v>
+      </c>
+      <c r="J28" s="39">
+        <v>43821.820416666669</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>38281</v>
+      </c>
+      <c r="B29" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="33">
+        <v>2.0191222194106099E+20</v>
+      </c>
+      <c r="D29" s="34">
+        <v>2</v>
+      </c>
+      <c r="E29" s="33">
+        <v>85</v>
+      </c>
+      <c r="F29" s="33">
+        <v>85</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="39">
+        <v>43821.820138888892</v>
+      </c>
+      <c r="J29" s="39">
+        <v>43821.820104166669</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35">
+        <v>38279</v>
+      </c>
+      <c r="B30" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="35">
+        <v>2.0191222194010099E+20</v>
+      </c>
+      <c r="D30" s="36">
+        <v>3</v>
+      </c>
+      <c r="E30" s="35">
+        <v>1161</v>
+      </c>
+      <c r="F30" s="35">
+        <v>1161</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="41">
+        <v>43821.819444444445</v>
+      </c>
+      <c r="J30" s="41">
+        <v>43821.817650462966</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>38277</v>
+      </c>
+      <c r="B31" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="31">
+        <v>2.0191222193646099E+20</v>
+      </c>
+      <c r="D31" s="32">
+        <v>3</v>
+      </c>
+      <c r="E31" s="31">
+        <v>665</v>
+      </c>
+      <c r="F31" s="31">
+        <v>665</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="37">
+        <v>43821.816666666666</v>
+      </c>
+      <c r="J31" s="37">
+        <v>43821.814710648148</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>38276</v>
+      </c>
+      <c r="B32" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="33">
+        <v>2.0191222193300102E+20</v>
+      </c>
+      <c r="D32" s="34">
+        <v>3</v>
+      </c>
+      <c r="E32" s="33">
+        <v>550</v>
+      </c>
+      <c r="F32" s="33">
+        <v>550</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="39">
+        <v>43821.814583333333</v>
+      </c>
+      <c r="J32" s="39">
+        <v>43821.814525462964</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
+        <v>38275</v>
+      </c>
+      <c r="B33" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="33">
+        <v>2.0191222193236099E+20</v>
+      </c>
+      <c r="D33" s="34">
+        <v>3</v>
+      </c>
+      <c r="E33" s="33">
+        <v>321</v>
+      </c>
+      <c r="F33" s="33">
+        <v>321</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="39">
+        <v>43821.813888888886</v>
+      </c>
+      <c r="J33" s="39">
+        <v>43821.812025462961</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
+        <v>38274</v>
+      </c>
+      <c r="B34" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="33">
+        <v>2.01912221929041E+20</v>
+      </c>
+      <c r="D34" s="34">
+        <v>3</v>
+      </c>
+      <c r="E34" s="33">
+        <v>296.7</v>
+      </c>
+      <c r="F34" s="33">
+        <v>296.7</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="39">
+        <v>43821.811805555553</v>
+      </c>
+      <c r="J34" s="39">
+        <v>43821.811793981484</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33">
+        <v>38273</v>
+      </c>
+      <c r="B35" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="33">
+        <v>2.0191222192851101E+20</v>
+      </c>
+      <c r="D35" s="34">
+        <v>3</v>
+      </c>
+      <c r="E35" s="33">
+        <v>203</v>
+      </c>
+      <c r="F35" s="33">
+        <v>203</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="39">
+        <v>43821.811111111114</v>
+      </c>
+      <c r="J35" s="39">
+        <v>43821.806805555556</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>38272</v>
+      </c>
+      <c r="B36" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="33">
+        <v>2.01912221921361E+20</v>
+      </c>
+      <c r="D36" s="34">
+        <v>3</v>
+      </c>
+      <c r="E36" s="33">
+        <v>336</v>
+      </c>
+      <c r="F36" s="33">
+        <v>336</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="39">
+        <v>43821.806250000001</v>
+      </c>
+      <c r="J36" s="39">
+        <v>43821.806539351855</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>38271</v>
+      </c>
+      <c r="B37" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="33">
+        <v>2.0191222192118101E+20</v>
+      </c>
+      <c r="D37" s="34">
+        <v>3</v>
+      </c>
+      <c r="E37" s="33">
+        <v>1128</v>
+      </c>
+      <c r="F37" s="33">
+        <v>1128</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="39">
+        <v>43821.806250000001</v>
+      </c>
+      <c r="J37" s="39">
+        <v>43821.806354166663</v>
+      </c>
+      <c r="K37" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>38270</v>
+      </c>
+      <c r="B38" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="33">
+        <v>2.01912221920561E+20</v>
+      </c>
+      <c r="D38" s="34">
+        <v>2</v>
+      </c>
+      <c r="E38" s="33">
+        <v>348</v>
+      </c>
+      <c r="F38" s="33">
+        <v>348</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="39">
+        <v>43821.806250000001</v>
+      </c>
+      <c r="J38" s="39">
+        <v>43821.806157407409</v>
+      </c>
+      <c r="K38" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>38267</v>
+      </c>
+      <c r="B39" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="33">
+        <v>2.0191222192009101E+20</v>
+      </c>
+      <c r="D39" s="34">
+        <v>3</v>
+      </c>
+      <c r="E39" s="33">
+        <v>230</v>
+      </c>
+      <c r="F39" s="33">
+        <v>230</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="39">
+        <v>43821.805555555555</v>
+      </c>
+      <c r="J39" s="39">
+        <v>43821.805625000001</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33">
+        <v>38266</v>
+      </c>
+      <c r="B40" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="33">
+        <v>2.0191222191957098E+20</v>
+      </c>
+      <c r="D40" s="34">
+        <v>2</v>
+      </c>
+      <c r="E40" s="33">
+        <v>208</v>
+      </c>
+      <c r="F40" s="33">
+        <v>208</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="39">
+        <v>43821.805555555555</v>
+      </c>
+      <c r="J40" s="39">
+        <v>43821.802777777775</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
+        <v>38262</v>
+      </c>
+      <c r="B41" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="33">
+        <v>2.0191222191445098E+20</v>
+      </c>
+      <c r="D41" s="34">
+        <v>3</v>
+      </c>
+      <c r="E41" s="33">
+        <v>743.8</v>
+      </c>
+      <c r="F41" s="33">
+        <v>743.8</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="39">
+        <v>43821.801388888889</v>
+      </c>
+      <c r="J41" s="39">
+        <v>43821.797523148147</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>38261</v>
+      </c>
+      <c r="B42" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="33">
+        <v>2.01912221908161E+20</v>
+      </c>
+      <c r="D42" s="34">
+        <v>3</v>
+      </c>
+      <c r="E42" s="33">
+        <v>481</v>
+      </c>
+      <c r="F42" s="33">
+        <v>481</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="39">
+        <v>43821.797222222223</v>
+      </c>
+      <c r="J42" s="39">
+        <v>43821.797372685185</v>
+      </c>
+      <c r="K42" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33">
+        <v>38260</v>
+      </c>
+      <c r="B43" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="33">
+        <v>2.01912221908051E+20</v>
+      </c>
+      <c r="D43" s="34">
+        <v>3</v>
+      </c>
+      <c r="E43" s="33">
+        <v>749</v>
+      </c>
+      <c r="F43" s="33">
+        <v>749</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="39">
+        <v>43821.797222222223</v>
+      </c>
+      <c r="J43" s="39">
+        <v>43821.79346064815</v>
+      </c>
+      <c r="K43" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>38259</v>
+      </c>
+      <c r="B44" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="33">
+        <v>2.01912221902251E+20</v>
+      </c>
+      <c r="D44" s="34">
+        <v>3</v>
+      </c>
+      <c r="E44" s="33">
+        <v>437.6</v>
+      </c>
+      <c r="F44" s="33">
+        <v>437.6</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="39">
+        <v>43821.793055555558</v>
+      </c>
+      <c r="J44" s="39">
+        <v>43821.793217592596</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>38257</v>
+      </c>
+      <c r="B45" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="33">
+        <v>2.0191222190159099E+20</v>
+      </c>
+      <c r="D45" s="34">
+        <v>3</v>
+      </c>
+      <c r="E45" s="33">
+        <v>731</v>
+      </c>
+      <c r="F45" s="33">
+        <v>731</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="39">
+        <v>43821.793055555558</v>
+      </c>
+      <c r="J45" s="39">
+        <v>43821.793009259258</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
+        <v>38256</v>
+      </c>
+      <c r="B46" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="33">
+        <v>2.01912221901451E+20</v>
+      </c>
+      <c r="D46" s="34">
+        <v>3</v>
+      </c>
+      <c r="E46" s="33">
+        <v>682</v>
+      </c>
+      <c r="F46" s="33">
+        <v>682</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="39">
+        <v>43821.792361111111</v>
+      </c>
+      <c r="J46" s="39">
+        <v>43821.79283564815</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>38253</v>
+      </c>
+      <c r="B47" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="33">
+        <v>2.01912221901061E+20</v>
+      </c>
+      <c r="D47" s="34">
+        <v>3</v>
+      </c>
+      <c r="E47" s="33">
+        <v>840</v>
+      </c>
+      <c r="F47" s="33">
+        <v>840</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="39">
+        <v>43821.792361111111</v>
+      </c>
+      <c r="J47" s="39">
+        <v>43821.789398148147</v>
+      </c>
+      <c r="K47" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>38252</v>
+      </c>
+      <c r="B48" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="33">
+        <v>2.0191222185633101E+20</v>
+      </c>
+      <c r="D48" s="34">
+        <v>3</v>
+      </c>
+      <c r="E48" s="33">
+        <v>755</v>
+      </c>
+      <c r="F48" s="33">
+        <v>755</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="39">
+        <v>43821.788888888892</v>
+      </c>
+      <c r="J48" s="39">
+        <v>43821.789201388892</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
+        <v>38251</v>
+      </c>
+      <c r="B49" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="33">
+        <v>2.01912221856171E+20</v>
+      </c>
+      <c r="D49" s="34">
+        <v>3</v>
+      </c>
+      <c r="E49" s="33">
+        <v>210</v>
+      </c>
+      <c r="F49" s="33">
+        <v>210</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="39">
+        <v>43821.788888888892</v>
+      </c>
+      <c r="J49" s="39">
+        <v>43821.788935185185</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="35">
+        <v>38250</v>
+      </c>
+      <c r="B50" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="35">
+        <v>2.0191222185556099E+20</v>
+      </c>
+      <c r="D50" s="36">
+        <v>3</v>
+      </c>
+      <c r="E50" s="35">
+        <v>246</v>
+      </c>
+      <c r="F50" s="35">
+        <v>246</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="41">
+        <v>43821.788888888892</v>
+      </c>
+      <c r="J50" s="41">
+        <v>43821.788229166668</v>
+      </c>
+      <c r="K50" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31">
+        <v>38249</v>
+      </c>
+      <c r="B51" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="31">
+        <v>2.0191222185454099E+20</v>
+      </c>
+      <c r="D51" s="32">
+        <v>3</v>
+      </c>
+      <c r="E51" s="31">
+        <v>305</v>
+      </c>
+      <c r="F51" s="31">
+        <v>305</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="37">
+        <v>43821.788194444445</v>
+      </c>
+      <c r="J51" s="37">
+        <v>43821.787905092591</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="33">
+        <v>38248</v>
+      </c>
+      <c r="B52" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="33">
+        <v>2.01912221854231E+20</v>
+      </c>
+      <c r="D52" s="34">
+        <v>3</v>
+      </c>
+      <c r="E52" s="33">
+        <v>424</v>
+      </c>
+      <c r="F52" s="33">
+        <v>424</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="39">
+        <v>43821.787499999999</v>
+      </c>
+      <c r="J52" s="39">
+        <v>43821.787731481483</v>
+      </c>
+      <c r="K52" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
+        <v>38247</v>
+      </c>
+      <c r="B53" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="33">
+        <v>2.0191222185403099E+20</v>
+      </c>
+      <c r="D53" s="34">
+        <v>3</v>
+      </c>
+      <c r="E53" s="33">
+        <v>697</v>
+      </c>
+      <c r="F53" s="33">
+        <v>697</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="39">
+        <v>43821.787499999999</v>
+      </c>
+      <c r="J53" s="39">
+        <v>43821.787476851852</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33">
+        <v>38245</v>
+      </c>
+      <c r="B54" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="33">
+        <v>2.0191222185336101E+20</v>
+      </c>
+      <c r="D54" s="34">
+        <v>3</v>
+      </c>
+      <c r="E54" s="33">
+        <v>928</v>
+      </c>
+      <c r="F54" s="33">
+        <v>928</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="39">
+        <v>43821.786805555559</v>
+      </c>
+      <c r="J54" s="39">
+        <v>43821.783784722225</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33">
+        <v>38244</v>
+      </c>
+      <c r="B55" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="33">
+        <v>2.0191222184828099E+20</v>
+      </c>
+      <c r="D55" s="34">
+        <v>3</v>
+      </c>
+      <c r="E55" s="33">
+        <v>523</v>
+      </c>
+      <c r="F55" s="33">
+        <v>523</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="39">
+        <v>43821.783333333333</v>
+      </c>
+      <c r="J55" s="39">
+        <v>43821.783622685187</v>
+      </c>
+      <c r="K55" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33">
+        <v>38243</v>
+      </c>
+      <c r="B56" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="33">
+        <v>2.01912221848151E+20</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1</v>
+      </c>
+      <c r="E56" s="33">
+        <v>119</v>
+      </c>
+      <c r="F56" s="33">
+        <v>119</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="39">
+        <v>43821.783333333333</v>
+      </c>
+      <c r="J56" s="39">
+        <v>43821.783460648148</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
+        <v>38242</v>
+      </c>
+      <c r="B57" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="33">
+        <v>2.0191222184801101E+20</v>
+      </c>
+      <c r="D57" s="34">
+        <v>3</v>
+      </c>
+      <c r="E57" s="33">
+        <v>384</v>
+      </c>
+      <c r="F57" s="33">
+        <v>384</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="39">
+        <v>43821.783333333333</v>
+      </c>
+      <c r="J57" s="39">
+        <v>43821.782060185185</v>
+      </c>
+      <c r="K57" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="33">
+        <v>38240</v>
+      </c>
+      <c r="B58" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="33">
+        <v>2.0191222184550099E+20</v>
+      </c>
+      <c r="D58" s="34">
+        <v>3</v>
+      </c>
+      <c r="E58" s="33">
+        <v>769</v>
+      </c>
+      <c r="F58" s="33">
+        <v>769</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="39">
+        <v>43821.78125</v>
+      </c>
+      <c r="J58" s="39">
+        <v>43821.781793981485</v>
+      </c>
+      <c r="K58" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33">
+        <v>38239</v>
+      </c>
+      <c r="B59" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="33">
+        <v>2.0191222184533098E+20</v>
+      </c>
+      <c r="D59" s="34">
+        <v>3</v>
+      </c>
+      <c r="E59" s="33">
+        <v>731</v>
+      </c>
+      <c r="F59" s="33">
+        <v>731</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="39">
+        <v>43821.78125</v>
+      </c>
+      <c r="J59" s="39">
+        <v>43821.781608796293</v>
+      </c>
+      <c r="K59" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="33">
+        <v>38238</v>
+      </c>
+      <c r="B60" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="33">
+        <v>2.0191222184522102E+20</v>
+      </c>
+      <c r="D60" s="34">
+        <v>3</v>
+      </c>
+      <c r="E60" s="33">
+        <v>155</v>
+      </c>
+      <c r="F60" s="33">
+        <v>155</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="39">
+        <v>43821.78125</v>
+      </c>
+      <c r="J60" s="39">
+        <v>43821.781469907408</v>
+      </c>
+      <c r="K60" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
+        <v>38237</v>
+      </c>
+      <c r="B61" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="33">
+        <v>2.0191222184510099E+20</v>
+      </c>
+      <c r="D61" s="34">
+        <v>3</v>
+      </c>
+      <c r="E61" s="33">
+        <v>787</v>
+      </c>
+      <c r="F61" s="33">
+        <v>787</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="39">
+        <v>43821.78125</v>
+      </c>
+      <c r="J61" s="39">
+        <v>43821.781331018516</v>
+      </c>
+      <c r="K61" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33">
+        <v>38215</v>
+      </c>
+      <c r="B62" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="33">
+        <v>2.01912221708081E+20</v>
+      </c>
+      <c r="D62" s="34">
+        <v>3</v>
+      </c>
+      <c r="E62" s="33">
+        <v>337</v>
+      </c>
+      <c r="F62" s="33">
+        <v>337</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="39">
+        <v>43821.713888888888</v>
+      </c>
+      <c r="J62" s="39">
+        <v>43821.713935185187</v>
+      </c>
+      <c r="K62" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33">
+        <v>38214</v>
+      </c>
+      <c r="B63" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="33">
+        <v>2.0191222170749098E+20</v>
+      </c>
+      <c r="D63" s="34">
+        <v>3</v>
+      </c>
+      <c r="E63" s="33">
+        <v>1056</v>
+      </c>
+      <c r="F63" s="33">
+        <v>1056</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="39">
+        <v>43821.713888888888</v>
+      </c>
+      <c r="J63" s="39">
+        <v>43821.713703703703</v>
+      </c>
+      <c r="K63" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="33">
+        <v>38213</v>
+      </c>
+      <c r="B64" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="33">
+        <v>2.0191222170728101E+20</v>
+      </c>
+      <c r="D64" s="34">
+        <v>2</v>
+      </c>
+      <c r="E64" s="33">
+        <v>728.9</v>
+      </c>
+      <c r="F64" s="33">
+        <v>728.9</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="39">
+        <v>43821.713194444441</v>
+      </c>
+      <c r="J64" s="39">
+        <v>43821.713472222225</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="33">
+        <v>38211</v>
+      </c>
+      <c r="B65" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="33">
+        <v>2.0191222170714099E+20</v>
+      </c>
+      <c r="D65" s="34">
+        <v>3</v>
+      </c>
+      <c r="E65" s="33">
+        <v>719</v>
+      </c>
+      <c r="F65" s="33">
+        <v>719</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="39">
+        <v>43821.713194444441</v>
+      </c>
+      <c r="J65" s="39">
+        <v>43821.705381944441</v>
+      </c>
+      <c r="K65" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="33">
+        <v>38210</v>
+      </c>
+      <c r="B66" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="33">
+        <v>2.0191222165521102E+20</v>
+      </c>
+      <c r="D66" s="34">
+        <v>3</v>
+      </c>
+      <c r="E66" s="33">
+        <v>495</v>
+      </c>
+      <c r="F66" s="33">
+        <v>495</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="39">
+        <v>43821.704861111109</v>
+      </c>
+      <c r="J66" s="39">
+        <v>43821.705023148148</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33">
+        <v>38208</v>
+      </c>
+      <c r="B67" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="33">
+        <v>2.0191222165454101E+20</v>
+      </c>
+      <c r="D67" s="34">
+        <v>3</v>
+      </c>
+      <c r="E67" s="33">
+        <v>1269</v>
+      </c>
+      <c r="F67" s="33">
+        <v>1269</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="39">
+        <v>43821.704861111109</v>
+      </c>
+      <c r="J67" s="39">
+        <v>43821.704722222225</v>
+      </c>
+      <c r="K67" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
+        <v>38207</v>
+      </c>
+      <c r="B68" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="33">
+        <v>2.0191222165431101E+20</v>
+      </c>
+      <c r="D68" s="34">
+        <v>3</v>
+      </c>
+      <c r="E68" s="33">
+        <v>711</v>
+      </c>
+      <c r="F68" s="33">
+        <v>711</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="39">
+        <v>43821.70416666667</v>
+      </c>
+      <c r="J68" s="39">
+        <v>43821.704432870371</v>
+      </c>
+      <c r="K68" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
+        <v>38206</v>
+      </c>
+      <c r="B69" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="33">
+        <v>2.01912221654101E+20</v>
+      </c>
+      <c r="D69" s="34">
+        <v>3</v>
+      </c>
+      <c r="E69" s="33">
+        <v>341</v>
+      </c>
+      <c r="F69" s="33">
+        <v>341</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="39">
+        <v>43821.70416666667</v>
+      </c>
+      <c r="J69" s="39">
+        <v>43821.698738425926</v>
+      </c>
+      <c r="K69" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35">
+        <v>38205</v>
+      </c>
+      <c r="B70" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="35">
+        <v>2.01912221645571E+20</v>
+      </c>
+      <c r="D70" s="36">
+        <v>3</v>
+      </c>
+      <c r="E70" s="35">
+        <v>340</v>
+      </c>
+      <c r="F70" s="35">
+        <v>340</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="41">
+        <v>43821.698611111111</v>
+      </c>
+      <c r="J70" s="41">
+        <v>43821.698530092595</v>
+      </c>
+      <c r="K70" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>38204</v>
+      </c>
+      <c r="B71" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="31">
+        <v>2.0191222164542099E+20</v>
+      </c>
+      <c r="D71" s="32">
+        <v>3</v>
+      </c>
+      <c r="E71" s="31">
+        <v>392</v>
+      </c>
+      <c r="F71" s="31">
+        <v>392</v>
+      </c>
+      <c r="G71" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="37">
+        <v>43821.697916666664</v>
+      </c>
+      <c r="J71" s="37">
+        <v>43821.698287037034</v>
+      </c>
+      <c r="K71" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="33">
+        <v>38203</v>
+      </c>
+      <c r="B72" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="33">
+        <v>2.01912221645171E+20</v>
+      </c>
+      <c r="D72" s="34">
+        <v>2</v>
+      </c>
+      <c r="E72" s="33">
+        <v>690</v>
+      </c>
+      <c r="F72" s="33">
+        <v>690</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="39">
+        <v>43821.697916666664</v>
+      </c>
+      <c r="J72" s="39">
+        <v>43821.698078703703</v>
+      </c>
+      <c r="K72" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="33">
+        <v>38202</v>
+      </c>
+      <c r="B73" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="33">
+        <v>2.0191222164503101E+20</v>
+      </c>
+      <c r="D73" s="34">
+        <v>3</v>
+      </c>
+      <c r="E73" s="33">
+        <v>863</v>
+      </c>
+      <c r="F73" s="33">
+        <v>863</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="39">
+        <v>43821.697916666664</v>
+      </c>
+      <c r="J73" s="39">
+        <v>43821.697905092595</v>
+      </c>
+      <c r="K73" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="33">
+        <v>38201</v>
+      </c>
+      <c r="B74" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C74" s="33">
+        <v>2.0191222164446102E+20</v>
+      </c>
+      <c r="D74" s="34">
+        <v>1</v>
+      </c>
+      <c r="E74" s="33">
+        <v>150</v>
+      </c>
+      <c r="F74" s="33">
+        <v>150</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="39">
+        <v>43821.697222222225</v>
+      </c>
+      <c r="J74" s="39">
+        <v>43821.697696759256</v>
+      </c>
+      <c r="K74" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="33">
+        <v>38197</v>
+      </c>
+      <c r="B75" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C75" s="33">
+        <v>2.0191222132140101E+20</v>
+      </c>
+      <c r="D75" s="34">
+        <v>3</v>
+      </c>
+      <c r="E75" s="33">
+        <v>515</v>
+      </c>
+      <c r="F75" s="33">
+        <v>515</v>
+      </c>
+      <c r="G75" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="39">
+        <v>43821.556250000001</v>
+      </c>
+      <c r="J75" s="39">
+        <v>43821.556666666664</v>
+      </c>
+      <c r="K75" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="33">
+        <v>38195</v>
+      </c>
+      <c r="B76" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C76" s="33">
+        <v>2.0191222132031101E+20</v>
+      </c>
+      <c r="D76" s="34">
+        <v>3</v>
+      </c>
+      <c r="E76" s="33">
+        <v>187.9</v>
+      </c>
+      <c r="F76" s="33">
+        <v>187.9</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="39">
+        <v>43821.555555555555</v>
+      </c>
+      <c r="J76" s="39">
+        <v>43821.555879629632</v>
+      </c>
+      <c r="K76" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="33">
+        <v>38194</v>
+      </c>
+      <c r="B77" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C77" s="33">
+        <v>2.0191222132018099E+20</v>
+      </c>
+      <c r="D77" s="34">
+        <v>3</v>
+      </c>
+      <c r="E77" s="33">
+        <v>847</v>
+      </c>
+      <c r="F77" s="33">
+        <v>847</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="39">
+        <v>43821.555555555555</v>
+      </c>
+      <c r="J77" s="39">
+        <v>43821.555671296293</v>
+      </c>
+      <c r="K77" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="33">
+        <v>38193</v>
+      </c>
+      <c r="B78" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C78" s="33">
+        <v>2.0191222132001099E+20</v>
+      </c>
+      <c r="D78" s="34">
+        <v>3</v>
+      </c>
+      <c r="E78" s="33">
+        <v>628</v>
+      </c>
+      <c r="F78" s="33">
+        <v>628</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="39">
+        <v>43821.555555555555</v>
+      </c>
+      <c r="J78" s="39">
+        <v>43821.555486111109</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33">
+        <v>38192</v>
+      </c>
+      <c r="B79" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C79" s="33">
+        <v>2.01912221319371E+20</v>
+      </c>
+      <c r="D79" s="34">
+        <v>3</v>
+      </c>
+      <c r="E79" s="33">
+        <v>780</v>
+      </c>
+      <c r="F79" s="33">
+        <v>780</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="39">
+        <v>43821.554861111108</v>
+      </c>
+      <c r="J79" s="39">
+        <v>43821.54246527778</v>
+      </c>
+      <c r="K79" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="33">
+        <v>38191</v>
+      </c>
+      <c r="B80" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C80" s="33">
+        <v>2.0191222130100099E+20</v>
+      </c>
+      <c r="D80" s="34">
+        <v>3</v>
+      </c>
+      <c r="E80" s="33">
+        <v>887</v>
+      </c>
+      <c r="F80" s="33">
+        <v>887</v>
+      </c>
+      <c r="G80" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="39">
+        <v>43821.542361111111</v>
+      </c>
+      <c r="J80" s="39">
+        <v>43821.542291666665</v>
+      </c>
+      <c r="K80" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="33">
+        <v>38189</v>
+      </c>
+      <c r="B81" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C81" s="33">
+        <v>2.0191222130040101E+20</v>
+      </c>
+      <c r="D81" s="34">
+        <v>3</v>
+      </c>
+      <c r="E81" s="33">
+        <v>687</v>
+      </c>
+      <c r="F81" s="33">
+        <v>687</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="39">
+        <v>43821.541666666664</v>
+      </c>
+      <c r="J81" s="39">
+        <v>43821.542083333334</v>
+      </c>
+      <c r="K81" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="33">
+        <v>38188</v>
+      </c>
+      <c r="B82" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C82" s="33">
+        <v>2.01912221300261E+20</v>
+      </c>
+      <c r="D82" s="34">
+        <v>3</v>
+      </c>
+      <c r="E82" s="33">
+        <v>771</v>
+      </c>
+      <c r="F82" s="33">
+        <v>771</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="39">
+        <v>43821.541666666664</v>
+      </c>
+      <c r="J82" s="39">
+        <v>43821.541932870372</v>
+      </c>
+      <c r="K82" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="33">
+        <v>38187</v>
+      </c>
+      <c r="B83" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C83" s="33">
+        <v>2.01912221300131E+20</v>
+      </c>
+      <c r="D83" s="34">
+        <v>2</v>
+      </c>
+      <c r="E83" s="33">
+        <v>170</v>
+      </c>
+      <c r="F83" s="33">
+        <v>170</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="39">
+        <v>43821.541666666664</v>
+      </c>
+      <c r="J83" s="39">
+        <v>43821.54178240741</v>
+      </c>
+      <c r="K83" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="33">
+        <v>38184</v>
+      </c>
+      <c r="B84" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C84" s="33">
+        <v>2.01912221259471E+20</v>
+      </c>
+      <c r="D84" s="34">
+        <v>3</v>
+      </c>
+      <c r="E84" s="33">
+        <v>956</v>
+      </c>
+      <c r="F84" s="33">
+        <v>956</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="39">
+        <v>43821.540972222225</v>
+      </c>
+      <c r="J84" s="39">
+        <v>43821.529421296298</v>
+      </c>
+      <c r="K84" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="33">
+        <v>38183</v>
+      </c>
+      <c r="B85" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C85" s="33">
+        <v>2.0191222124213099E+20</v>
+      </c>
+      <c r="D85" s="34">
+        <v>3</v>
+      </c>
+      <c r="E85" s="33">
+        <v>473</v>
+      </c>
+      <c r="F85" s="33">
+        <v>473</v>
+      </c>
+      <c r="G85" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="39">
+        <v>43821.529166666667</v>
+      </c>
+      <c r="J85" s="39">
+        <v>43821.529224537036</v>
+      </c>
+      <c r="K85" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="33">
+        <v>38182</v>
+      </c>
+      <c r="B86" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C86" s="33">
+        <v>2.0191222124156099E+20</v>
+      </c>
+      <c r="D86" s="34">
+        <v>3</v>
+      </c>
+      <c r="E86" s="33">
+        <v>133</v>
+      </c>
+      <c r="F86" s="33">
+        <v>133</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="39">
+        <v>43821.529166666667</v>
+      </c>
+      <c r="J86" s="39">
+        <v>43821.529050925928</v>
+      </c>
+      <c r="K86" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="33">
+        <v>38180</v>
+      </c>
+      <c r="B87" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C87" s="33">
+        <v>2.0191222124128099E+20</v>
+      </c>
+      <c r="D87" s="34">
+        <v>3</v>
+      </c>
+      <c r="E87" s="33">
+        <v>296</v>
+      </c>
+      <c r="F87" s="33">
+        <v>296</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="39">
+        <v>43821.52847222222</v>
+      </c>
+      <c r="J87" s="39">
+        <v>43821.528761574074</v>
+      </c>
+      <c r="K87" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="33">
+        <v>38179</v>
+      </c>
+      <c r="B88" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C88" s="33">
+        <v>2.0191222124116099E+20</v>
+      </c>
+      <c r="D88" s="34">
+        <v>3</v>
+      </c>
+      <c r="E88" s="33">
+        <v>1324</v>
+      </c>
+      <c r="F88" s="33">
+        <v>1324</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="39">
+        <v>43821.52847222222</v>
+      </c>
+      <c r="J88" s="39">
+        <v>43821.528599537036</v>
+      </c>
+      <c r="K88" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="33">
+        <v>38178</v>
+      </c>
+      <c r="B89" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C89" s="33">
+        <v>2.0191222124102101E+20</v>
+      </c>
+      <c r="D89" s="34">
+        <v>3</v>
+      </c>
+      <c r="E89" s="33">
+        <v>476</v>
+      </c>
+      <c r="F89" s="33">
+        <v>476</v>
+      </c>
+      <c r="G89" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="39">
+        <v>43821.52847222222</v>
+      </c>
+      <c r="J89" s="39">
+        <v>43821.528425925928</v>
+      </c>
+      <c r="K89" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="35">
+        <v>38176</v>
+      </c>
+      <c r="B90" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C90" s="35">
+        <v>2.0191222122552099E+20</v>
+      </c>
+      <c r="D90" s="36">
+        <v>3</v>
+      </c>
+      <c r="E90" s="35">
+        <v>1129</v>
+      </c>
+      <c r="F90" s="35">
+        <v>1129</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="41">
+        <v>43821.517361111109</v>
+      </c>
+      <c r="J90" s="41">
+        <v>43821.517916666664</v>
+      </c>
+      <c r="K90" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="31">
+        <v>38175</v>
+      </c>
+      <c r="B91" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C91" s="31">
+        <v>2.01912221225381E+20</v>
+      </c>
+      <c r="D91" s="32">
+        <v>3</v>
+      </c>
+      <c r="E91" s="31">
+        <v>528</v>
+      </c>
+      <c r="F91" s="31">
+        <v>528</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="37">
+        <v>43821.517361111109</v>
+      </c>
+      <c r="J91" s="37">
+        <v>43821.517766203702</v>
+      </c>
+      <c r="K91" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="33">
+        <v>38174</v>
+      </c>
+      <c r="B92" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C92" s="33">
+        <v>2.0191222122526101E+20</v>
+      </c>
+      <c r="D92" s="34">
+        <v>3</v>
+      </c>
+      <c r="E92" s="33">
+        <v>802</v>
+      </c>
+      <c r="F92" s="33">
+        <v>802</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="39">
+        <v>43821.517361111109</v>
+      </c>
+      <c r="J92" s="39">
+        <v>43821.517581018517</v>
+      </c>
+      <c r="K92" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="33">
+        <v>38173</v>
+      </c>
+      <c r="B93" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C93" s="33">
+        <v>2.0191222122509101E+20</v>
+      </c>
+      <c r="D93" s="34">
+        <v>3</v>
+      </c>
+      <c r="E93" s="33">
+        <v>127</v>
+      </c>
+      <c r="F93" s="33">
+        <v>127</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="39">
+        <v>43821.517361111109</v>
+      </c>
+      <c r="J93" s="39">
+        <v>43821.517430555556</v>
+      </c>
+      <c r="K93" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="33">
+        <v>38171</v>
+      </c>
+      <c r="B94" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C94" s="33">
+        <v>2.0191222121335099E+20</v>
+      </c>
+      <c r="D94" s="34">
+        <v>3</v>
+      </c>
+      <c r="E94" s="33">
+        <v>621</v>
+      </c>
+      <c r="F94" s="33">
+        <v>621</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="39">
+        <v>43821.509027777778</v>
+      </c>
+      <c r="J94" s="39">
+        <v>43821.509328703702</v>
+      </c>
+      <c r="K94" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="33">
+        <v>38168</v>
+      </c>
+      <c r="B95" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C95" s="33">
+        <v>2.0191222121050099E+20</v>
+      </c>
+      <c r="D95" s="34">
+        <v>3</v>
+      </c>
+      <c r="E95" s="33">
+        <v>511</v>
+      </c>
+      <c r="F95" s="33">
+        <v>511</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="39">
+        <v>43821.506944444445</v>
+      </c>
+      <c r="J95" s="39">
+        <v>43821.5075</v>
+      </c>
+      <c r="K95" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="33">
+        <v>38167</v>
+      </c>
+      <c r="B96" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C96" s="33">
+        <v>2.0191222121035101E+20</v>
+      </c>
+      <c r="D96" s="34">
+        <v>3</v>
+      </c>
+      <c r="E96" s="33">
+        <v>355</v>
+      </c>
+      <c r="F96" s="33">
+        <v>355</v>
+      </c>
+      <c r="G96" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="39">
+        <v>43821.506944444445</v>
+      </c>
+      <c r="J96" s="39">
+        <v>43821.507314814815</v>
+      </c>
+      <c r="K96" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="33">
+        <v>38166</v>
+      </c>
+      <c r="B97" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C97" s="33">
+        <v>2.0191222121022099E+20</v>
+      </c>
+      <c r="D97" s="34">
+        <v>3</v>
+      </c>
+      <c r="E97" s="33">
+        <v>798</v>
+      </c>
+      <c r="F97" s="33">
+        <v>798</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="39">
+        <v>43821.506944444445</v>
+      </c>
+      <c r="J97" s="39">
+        <v>43821.499363425923</v>
+      </c>
+      <c r="K97" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="33">
+        <v>38165</v>
+      </c>
+      <c r="B98" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C98" s="33">
+        <v>2.0191222115855099E+20</v>
+      </c>
+      <c r="D98" s="34">
+        <v>3</v>
+      </c>
+      <c r="E98" s="33">
+        <v>318</v>
+      </c>
+      <c r="F98" s="33">
+        <v>318</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="39">
+        <v>43821.499305555553</v>
+      </c>
+      <c r="J98" s="39">
+        <v>43821.499108796299</v>
+      </c>
+      <c r="K98" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="33">
+        <v>38164</v>
+      </c>
+      <c r="B99" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C99" s="33">
+        <v>2.0191222115830101E+20</v>
+      </c>
+      <c r="D99" s="34">
+        <v>3</v>
+      </c>
+      <c r="E99" s="33">
+        <v>402</v>
+      </c>
+      <c r="F99" s="33">
+        <v>402</v>
+      </c>
+      <c r="G99" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="39">
+        <v>43821.498611111114</v>
+      </c>
+      <c r="J99" s="39">
+        <v>43821.498854166668</v>
+      </c>
+      <c r="K99" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="33">
+        <v>38163</v>
+      </c>
+      <c r="B100" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C100" s="33">
+        <v>2.0191222115804099E+20</v>
+      </c>
+      <c r="D100" s="34">
+        <v>3</v>
+      </c>
+      <c r="E100" s="33">
+        <v>525</v>
+      </c>
+      <c r="F100" s="33">
+        <v>525</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="39">
+        <v>43821.498611111114</v>
+      </c>
+      <c r="J100" s="39">
+        <v>43821.498576388891</v>
+      </c>
+      <c r="K100" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="33">
+        <v>38162</v>
+      </c>
+      <c r="B101" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C101" s="33">
+        <v>2.0191222115739101E+20</v>
+      </c>
+      <c r="D101" s="34">
+        <v>3</v>
+      </c>
+      <c r="E101" s="33">
+        <v>278</v>
+      </c>
+      <c r="F101" s="33">
+        <v>278</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="39">
+        <v>43821.497916666667</v>
+      </c>
+      <c r="J101" s="39">
+        <v>43821.49832175926</v>
+      </c>
+      <c r="K101" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="33">
+        <v>38161</v>
+      </c>
+      <c r="B102" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C102" s="33">
+        <v>2.01912221157231E+20</v>
+      </c>
+      <c r="D102" s="34">
+        <v>3</v>
+      </c>
+      <c r="E102" s="33">
+        <v>685</v>
+      </c>
+      <c r="F102" s="33">
+        <v>685</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="39">
+        <v>43821.497916666667</v>
+      </c>
+      <c r="J102" s="39">
+        <v>43821.487719907411</v>
+      </c>
+      <c r="K102" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="33">
+        <v>38160</v>
+      </c>
+      <c r="B103" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C103" s="33">
+        <v>2.01912221142101E+20</v>
+      </c>
+      <c r="D103" s="34">
+        <v>2</v>
+      </c>
+      <c r="E103" s="33">
+        <v>737.9</v>
+      </c>
+      <c r="F103" s="33">
+        <v>737.9</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="39">
+        <v>43821.487500000003</v>
+      </c>
+      <c r="J103" s="39">
+        <v>43821.487569444442</v>
+      </c>
+      <c r="K103" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="33">
+        <v>38159</v>
+      </c>
+      <c r="B104" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C104" s="33">
+        <v>2.0191222114151101E+20</v>
+      </c>
+      <c r="D104" s="34">
+        <v>2</v>
+      </c>
+      <c r="E104" s="33">
+        <v>290</v>
+      </c>
+      <c r="F104" s="33">
+        <v>290</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="39">
+        <v>43821.487500000003</v>
+      </c>
+      <c r="J104" s="39">
+        <v>43821.487361111111</v>
+      </c>
+      <c r="K104" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="33">
+        <v>38158</v>
+      </c>
+      <c r="B105" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C105" s="33">
+        <v>2.0191222114137099E+20</v>
+      </c>
+      <c r="D105" s="34">
+        <v>3</v>
+      </c>
+      <c r="E105" s="33">
+        <v>890</v>
+      </c>
+      <c r="F105" s="33">
+        <v>890</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="39">
+        <v>43821.486805555556</v>
+      </c>
+      <c r="J105" s="39">
+        <v>43821.487187500003</v>
+      </c>
+      <c r="K105" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="33">
+        <v>38157</v>
+      </c>
+      <c r="B106" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C106" s="33">
+        <v>2.01912221141241E+20</v>
+      </c>
+      <c r="D106" s="34">
+        <v>3</v>
+      </c>
+      <c r="E106" s="33">
+        <v>871</v>
+      </c>
+      <c r="F106" s="33">
+        <v>871</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="39">
+        <v>43821.486805555556</v>
+      </c>
+      <c r="J106" s="39">
+        <v>43821.471689814818</v>
+      </c>
+      <c r="K106" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="33">
+        <v>38156</v>
+      </c>
+      <c r="B107" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C107" s="33">
+        <v>2.0191222111858101E+20</v>
+      </c>
+      <c r="D107" s="34">
+        <v>3</v>
+      </c>
+      <c r="E107" s="33">
+        <v>1083</v>
+      </c>
+      <c r="F107" s="33">
+        <v>1083</v>
+      </c>
+      <c r="G107" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="39">
+        <v>43821.47152777778</v>
+      </c>
+      <c r="J107" s="39">
+        <v>43821.470763888887</v>
+      </c>
+      <c r="K107" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="33">
+        <v>38155</v>
+      </c>
+      <c r="B108" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C108" s="33">
+        <v>2.01912221117411E+20</v>
+      </c>
+      <c r="D108" s="34">
+        <v>3</v>
+      </c>
+      <c r="E108" s="33">
+        <v>231.9</v>
+      </c>
+      <c r="F108" s="33">
+        <v>231.9</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="39">
+        <v>43821.470138888886</v>
+      </c>
+      <c r="J108" s="39">
+        <v>43821.470370370371</v>
+      </c>
+      <c r="K108" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="33">
+        <v>38154</v>
+      </c>
+      <c r="B109" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C109" s="33">
+        <v>2.0191222111703099E+20</v>
+      </c>
+      <c r="D109" s="34">
+        <v>3</v>
+      </c>
+      <c r="E109" s="33">
+        <v>465.9</v>
+      </c>
+      <c r="F109" s="33">
+        <v>465.9</v>
+      </c>
+      <c r="G109" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="39">
+        <v>43821.470138888886</v>
+      </c>
+      <c r="J109" s="39">
+        <v>43821.47011574074</v>
+      </c>
+      <c r="K109" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="35">
+        <v>38153</v>
+      </c>
+      <c r="B110" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C110" s="35">
+        <v>2.01912221116441E+20</v>
+      </c>
+      <c r="D110" s="36">
+        <v>3</v>
+      </c>
+      <c r="E110" s="35">
+        <v>1009</v>
+      </c>
+      <c r="F110" s="35">
+        <v>1009</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="41">
+        <v>43821.469444444447</v>
+      </c>
+      <c r="J110" s="41">
+        <v>43821.469375000001</v>
+      </c>
+      <c r="K110" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="31">
+        <v>38308</v>
+      </c>
+      <c r="B111" s="31">
+        <v>15874</v>
+      </c>
+      <c r="C111" s="31">
+        <v>2.0191222205114099E+20</v>
+      </c>
+      <c r="D111" s="32">
+        <v>3</v>
+      </c>
+      <c r="E111" s="31">
+        <v>1233</v>
+      </c>
+      <c r="F111" s="31">
+        <v>1233</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="37">
+        <v>43821.868750000001</v>
+      </c>
+      <c r="J111" s="37">
+        <v>43821.868877314817</v>
+      </c>
+      <c r="K111" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="33">
+        <v>38307</v>
+      </c>
+      <c r="B112" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C112" s="33">
+        <v>2.0191222205103099E+20</v>
+      </c>
+      <c r="D112" s="34">
+        <v>2</v>
+      </c>
+      <c r="E112" s="33">
+        <v>115</v>
+      </c>
+      <c r="F112" s="33">
+        <v>115</v>
+      </c>
+      <c r="G112" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="39">
+        <v>43821.868750000001</v>
+      </c>
+      <c r="J112" s="39">
+        <v>43821.868391203701</v>
+      </c>
+      <c r="K112" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="33">
+        <v>38306</v>
+      </c>
+      <c r="B113" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C113" s="33">
+        <v>2.0191222205015101E+20</v>
+      </c>
+      <c r="D113" s="34">
+        <v>2</v>
+      </c>
+      <c r="E113" s="33">
+        <v>519</v>
+      </c>
+      <c r="F113" s="33">
+        <v>519</v>
+      </c>
+      <c r="G113" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="39">
+        <v>43821.868055555555</v>
+      </c>
+      <c r="J113" s="39">
+        <v>43821.868136574078</v>
+      </c>
+      <c r="K113" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="33">
+        <v>38305</v>
+      </c>
+      <c r="B114" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C114" s="33">
+        <v>2.0191222204956099E+20</v>
+      </c>
+      <c r="D114" s="34">
+        <v>2</v>
+      </c>
+      <c r="E114" s="33">
+        <v>1194</v>
+      </c>
+      <c r="F114" s="33">
+        <v>1194</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="39">
+        <v>43821.868055555555</v>
+      </c>
+      <c r="J114" s="39">
+        <v>43821.86791666667</v>
+      </c>
+      <c r="K114" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="33">
+        <v>38304</v>
+      </c>
+      <c r="B115" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C115" s="33">
+        <v>2.0191222204935101E+20</v>
+      </c>
+      <c r="D115" s="34">
+        <v>2</v>
+      </c>
+      <c r="E115" s="33">
+        <v>709</v>
+      </c>
+      <c r="F115" s="33">
+        <v>709</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="39">
+        <v>43821.867361111108</v>
+      </c>
+      <c r="J115" s="39">
+        <v>43821.867546296293</v>
+      </c>
+      <c r="K115" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="33">
+        <v>38303</v>
+      </c>
+      <c r="B116" s="33">
+        <v>15874</v>
+      </c>
+      <c r="C116" s="33">
+        <v>2.01912222049021E+20</v>
+      </c>
+      <c r="D116" s="34">
+        <v>2</v>
+      </c>
+      <c r="E116" s="33">
+        <v>490</v>
+      </c>
+      <c r="F116" s="33">
+        <v>490</v>
+      </c>
+      <c r="G116" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="39">
+        <v>43821.867361111108</v>
+      </c>
+      <c r="J116" s="39">
+        <v>43821.867268518516</v>
+      </c>
+      <c r="K116" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="35">
+        <v>38302</v>
+      </c>
+      <c r="B117" s="35">
+        <v>15874</v>
+      </c>
+      <c r="C117" s="35">
+        <v>2.0191222204844101E+20</v>
+      </c>
+      <c r="D117" s="36">
+        <v>2</v>
+      </c>
+      <c r="E117" s="35">
+        <v>439</v>
+      </c>
+      <c r="F117" s="35">
+        <v>439</v>
+      </c>
+      <c r="G117" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="41">
+        <v>43821.866666666669</v>
+      </c>
+      <c r="J117" s="41">
+        <v>43821.864247685182</v>
+      </c>
+      <c r="K117" s="42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K11" r:id="rId1" display="javascript:;" xr:uid="{AFFC5D74-7DB8-480D-A245-0A0E44095640}"/>
+    <hyperlink ref="K12" r:id="rId2" display="javascript:;" xr:uid="{F2B4B542-9402-435E-AFCC-010D2EC2866E}"/>
+    <hyperlink ref="K13" r:id="rId3" display="javascript:;" xr:uid="{64C5C9DA-F2CE-4E15-9B15-5158CA5E8A5C}"/>
+    <hyperlink ref="K14" r:id="rId4" display="javascript:;" xr:uid="{C59ABD3F-B40B-4F75-88FB-8BA01DA4E69B}"/>
+    <hyperlink ref="K15" r:id="rId5" display="javascript:;" xr:uid="{2FBE9599-4DD1-4E06-9065-7D29C801D53B}"/>
+    <hyperlink ref="K16" r:id="rId6" display="javascript:;" xr:uid="{08FC2B2B-2FFA-472C-B036-255A0A750F9B}"/>
+    <hyperlink ref="K17" r:id="rId7" display="javascript:;" xr:uid="{87441346-2141-4A5D-B867-93112FEEF64C}"/>
+    <hyperlink ref="K18" r:id="rId8" display="javascript:;" xr:uid="{2BD0C806-7FB6-422C-BAAB-4C84AB15B4D6}"/>
+    <hyperlink ref="K19" r:id="rId9" display="javascript:;" xr:uid="{2E6458CF-E903-4FE0-940C-AABE1C1E170E}"/>
+    <hyperlink ref="K20" r:id="rId10" display="javascript:;" xr:uid="{1BE6F798-6CB2-4A95-ABBF-E694031152D0}"/>
+    <hyperlink ref="K21" r:id="rId11" display="javascript:;" xr:uid="{0182B48F-06E0-44D7-A337-FA47E9D62BFD}"/>
+    <hyperlink ref="K22" r:id="rId12" display="javascript:;" xr:uid="{885B6835-AA99-4A17-96BD-539D5B929D9F}"/>
+    <hyperlink ref="K23" r:id="rId13" display="javascript:;" xr:uid="{4F25E1CC-FB72-43A1-896F-D2745850C480}"/>
+    <hyperlink ref="K24" r:id="rId14" display="javascript:;" xr:uid="{991822D9-4CA6-40A2-8E7B-AC8CC7243AEE}"/>
+    <hyperlink ref="K25" r:id="rId15" display="javascript:;" xr:uid="{80DB0051-9C17-4BE4-9818-64C370C7B341}"/>
+    <hyperlink ref="K26" r:id="rId16" display="javascript:;" xr:uid="{CC86376D-C79A-4F0B-80A6-E13531D866EB}"/>
+    <hyperlink ref="K27" r:id="rId17" display="javascript:;" xr:uid="{27E7E071-21CF-48C5-A4C9-A5F7728FB627}"/>
+    <hyperlink ref="K28" r:id="rId18" display="javascript:;" xr:uid="{EF69C37D-4CD6-46E0-BC01-4411860699C6}"/>
+    <hyperlink ref="K29" r:id="rId19" display="javascript:;" xr:uid="{46711275-B947-4E9F-B5B1-E8F11515E243}"/>
+    <hyperlink ref="K30" r:id="rId20" display="javascript:;" xr:uid="{B464BC1B-B5CE-4829-AB81-276DE91D14A0}"/>
+    <hyperlink ref="K31" r:id="rId21" display="javascript:;" xr:uid="{7D97CED6-04AC-4BB4-8C96-EAD1FB140727}"/>
+    <hyperlink ref="K32" r:id="rId22" display="javascript:;" xr:uid="{0DE5702C-9DAF-400D-A27F-C5EF278A81C0}"/>
+    <hyperlink ref="K33" r:id="rId23" display="javascript:;" xr:uid="{326B2E12-14E4-4E01-B655-00CA929B738E}"/>
+    <hyperlink ref="K34" r:id="rId24" display="javascript:;" xr:uid="{0C67FC1B-CD35-4190-8E7A-F15133ECE71E}"/>
+    <hyperlink ref="K35" r:id="rId25" display="javascript:;" xr:uid="{733C53D1-47C2-4F12-8FE4-64206FB04EED}"/>
+    <hyperlink ref="K36" r:id="rId26" display="javascript:;" xr:uid="{FF5F577E-D4EE-47ED-90C9-B72242160813}"/>
+    <hyperlink ref="K37" r:id="rId27" display="javascript:;" xr:uid="{101B415B-849F-4947-BAD2-73D613777C10}"/>
+    <hyperlink ref="K38" r:id="rId28" display="javascript:;" xr:uid="{AF6B9084-17EB-4710-B047-8970DA19F980}"/>
+    <hyperlink ref="K39" r:id="rId29" display="javascript:;" xr:uid="{F0D9F5D5-BCCF-4B7B-996D-AAE2F74F650F}"/>
+    <hyperlink ref="K40" r:id="rId30" display="javascript:;" xr:uid="{4742C43C-F8F6-4609-945F-5B3A0A90680C}"/>
+    <hyperlink ref="K41" r:id="rId31" display="javascript:;" xr:uid="{D556C17D-5D2F-4BCE-A5A6-06FBDD909626}"/>
+    <hyperlink ref="K42" r:id="rId32" display="javascript:;" xr:uid="{1072EBA3-71E2-456F-868D-2B25FDB05653}"/>
+    <hyperlink ref="K43" r:id="rId33" display="javascript:;" xr:uid="{4D0C63DE-FEE0-4325-9DEF-967852A43EEF}"/>
+    <hyperlink ref="K44" r:id="rId34" display="javascript:;" xr:uid="{D5175E66-A596-495B-ABDF-4AC6106793E6}"/>
+    <hyperlink ref="K45" r:id="rId35" display="javascript:;" xr:uid="{3087990F-8E74-4AA4-AB2F-A128D15839E3}"/>
+    <hyperlink ref="K46" r:id="rId36" display="javascript:;" xr:uid="{3F0E111E-2318-4F94-854A-14725528EE6E}"/>
+    <hyperlink ref="K47" r:id="rId37" display="javascript:;" xr:uid="{E13C2022-AB9C-42EF-A712-170597B7279F}"/>
+    <hyperlink ref="K48" r:id="rId38" display="javascript:;" xr:uid="{67A4F2C8-87BF-4899-8D96-13BED4288F18}"/>
+    <hyperlink ref="K49" r:id="rId39" display="javascript:;" xr:uid="{87521046-DC07-48BF-B468-E9CEE69E86ED}"/>
+    <hyperlink ref="K50" r:id="rId40" display="javascript:;" xr:uid="{46E52B24-67D6-4166-B28E-B8614ADF20C6}"/>
+    <hyperlink ref="K51" r:id="rId41" display="javascript:;" xr:uid="{1C737C51-8735-48D4-85D0-5026A78E9837}"/>
+    <hyperlink ref="K52" r:id="rId42" display="javascript:;" xr:uid="{1AFA30EE-71B2-46E2-A70C-9D4D2280A46C}"/>
+    <hyperlink ref="K53" r:id="rId43" display="javascript:;" xr:uid="{4D6B43EC-535C-485E-B82E-47C0102E5FCC}"/>
+    <hyperlink ref="K54" r:id="rId44" display="javascript:;" xr:uid="{07E189B6-96B7-4271-80D7-D8CAC6BAA424}"/>
+    <hyperlink ref="K55" r:id="rId45" display="javascript:;" xr:uid="{5B68E115-1432-4C1B-9BC6-D0945DFE81F5}"/>
+    <hyperlink ref="K56" r:id="rId46" display="javascript:;" xr:uid="{6E2BA6F6-4F57-4BEE-898C-00A49133D52C}"/>
+    <hyperlink ref="K57" r:id="rId47" display="javascript:;" xr:uid="{B793CFF7-CF2E-4DF5-AFF0-0E063B5078F9}"/>
+    <hyperlink ref="K58" r:id="rId48" display="javascript:;" xr:uid="{4C4296BE-661D-492A-98D5-FB0FBD1DB785}"/>
+    <hyperlink ref="K59" r:id="rId49" display="javascript:;" xr:uid="{C3264CE9-E8A4-4322-AC4D-D917FC169830}"/>
+    <hyperlink ref="K60" r:id="rId50" display="javascript:;" xr:uid="{622FCF29-0985-49DE-80BD-D0A3CE209A2F}"/>
+    <hyperlink ref="K61" r:id="rId51" display="javascript:;" xr:uid="{D9ED484F-2770-48F8-9621-4B9933C2CE96}"/>
+    <hyperlink ref="K62" r:id="rId52" display="javascript:;" xr:uid="{7B6A8722-FFC1-44DD-A1CF-BFB16F512ED5}"/>
+    <hyperlink ref="K63" r:id="rId53" display="javascript:;" xr:uid="{5772A840-5ADF-45C8-A108-349B27177969}"/>
+    <hyperlink ref="K64" r:id="rId54" display="javascript:;" xr:uid="{9714E29D-C1DF-4E33-9F8A-D51AE50AC901}"/>
+    <hyperlink ref="K65" r:id="rId55" display="javascript:;" xr:uid="{907D437A-58DD-4A89-A7E3-A83B835AAB6F}"/>
+    <hyperlink ref="K66" r:id="rId56" display="javascript:;" xr:uid="{268A48FB-8BDC-46C5-81DE-9824E49541DD}"/>
+    <hyperlink ref="K67" r:id="rId57" display="javascript:;" xr:uid="{8225131A-03ED-494A-B300-E66DDA7EE216}"/>
+    <hyperlink ref="K68" r:id="rId58" display="javascript:;" xr:uid="{21F892E7-6AA8-4275-A5DF-AA45D6CC670F}"/>
+    <hyperlink ref="K69" r:id="rId59" display="javascript:;" xr:uid="{9F95DF56-C72A-45A8-965A-3C23031675BA}"/>
+    <hyperlink ref="K70" r:id="rId60" display="javascript:;" xr:uid="{8E489452-A7B6-414C-BD9F-774345A4BF85}"/>
+    <hyperlink ref="K71" r:id="rId61" display="javascript:;" xr:uid="{A3E73358-6A9D-49C2-96A6-B84348E29A5E}"/>
+    <hyperlink ref="K72" r:id="rId62" display="javascript:;" xr:uid="{84FACA8F-875F-4051-B08C-03994B25C0A5}"/>
+    <hyperlink ref="K73" r:id="rId63" display="javascript:;" xr:uid="{0D2EE61E-9766-4BAA-A41A-182855A1254A}"/>
+    <hyperlink ref="K74" r:id="rId64" display="javascript:;" xr:uid="{8336356A-8BB2-4D69-AF8D-0D45E2448054}"/>
+    <hyperlink ref="K75" r:id="rId65" display="javascript:;" xr:uid="{3242482F-038D-40A4-A032-279922854882}"/>
+    <hyperlink ref="K76" r:id="rId66" display="javascript:;" xr:uid="{92BBAAC8-8865-49A1-BC4A-6F41813BC32D}"/>
+    <hyperlink ref="K77" r:id="rId67" display="javascript:;" xr:uid="{CBA80EF6-ED58-4ACA-BB25-58E47772545E}"/>
+    <hyperlink ref="K78" r:id="rId68" display="javascript:;" xr:uid="{15F23F98-A668-47D3-BE82-312B2FC11575}"/>
+    <hyperlink ref="K79" r:id="rId69" display="javascript:;" xr:uid="{3742C84F-EC00-4DE0-9C5F-065A18AFE0FE}"/>
+    <hyperlink ref="K80" r:id="rId70" display="javascript:;" xr:uid="{7C77DA05-083A-44A0-9F97-74E05E95829F}"/>
+    <hyperlink ref="K81" r:id="rId71" display="javascript:;" xr:uid="{9B14317A-8648-4DBF-9155-16B9DC4B7031}"/>
+    <hyperlink ref="K82" r:id="rId72" display="javascript:;" xr:uid="{519D4BBA-C62A-4E68-AC10-B55BEEC3497B}"/>
+    <hyperlink ref="K83" r:id="rId73" display="javascript:;" xr:uid="{61738FE6-9796-4ADF-AA99-A0C1C116998C}"/>
+    <hyperlink ref="K84" r:id="rId74" display="javascript:;" xr:uid="{9311981E-6EAD-4BB7-8977-AEC183C5B875}"/>
+    <hyperlink ref="K85" r:id="rId75" display="javascript:;" xr:uid="{D00F00BC-1B78-45FC-83D1-12380187BE79}"/>
+    <hyperlink ref="K86" r:id="rId76" display="javascript:;" xr:uid="{E19C6A57-CD93-4C0F-9FA7-5EE792859117}"/>
+    <hyperlink ref="K87" r:id="rId77" display="javascript:;" xr:uid="{0262E032-F95E-4A20-883A-D4CBEBF9D3AC}"/>
+    <hyperlink ref="K88" r:id="rId78" display="javascript:;" xr:uid="{402E3321-00CC-4384-B299-F4B25A8EAC79}"/>
+    <hyperlink ref="K89" r:id="rId79" display="javascript:;" xr:uid="{F1839618-F12F-463D-A6F4-939BEF04BE1F}"/>
+    <hyperlink ref="K90" r:id="rId80" display="javascript:;" xr:uid="{A426EAC6-B8E2-4789-A41C-356DA3A29611}"/>
+    <hyperlink ref="K91" r:id="rId81" display="javascript:;" xr:uid="{496C1078-DB54-405D-A73E-14B161FDABA9}"/>
+    <hyperlink ref="K92" r:id="rId82" display="javascript:;" xr:uid="{09D7F308-44D4-4E1A-999D-36FC4D277BB3}"/>
+    <hyperlink ref="K93" r:id="rId83" display="javascript:;" xr:uid="{A663D5B3-8DC0-4C6D-B3A2-A2FE7D79A93F}"/>
+    <hyperlink ref="K94" r:id="rId84" display="javascript:;" xr:uid="{97DC8AF1-7E65-4253-8F96-62C963B63D42}"/>
+    <hyperlink ref="K95" r:id="rId85" display="javascript:;" xr:uid="{EA5D209F-44FB-4DF9-8F87-63E9DAAF4143}"/>
+    <hyperlink ref="K96" r:id="rId86" display="javascript:;" xr:uid="{9ACF0B02-F6C4-44B0-A584-6E5C91592BAF}"/>
+    <hyperlink ref="K97" r:id="rId87" display="javascript:;" xr:uid="{53D1EE55-7B4C-4DB3-B792-CF9BD33E26E1}"/>
+    <hyperlink ref="K98" r:id="rId88" display="javascript:;" xr:uid="{F606E526-B00A-4D76-A4C6-007360FAF3A9}"/>
+    <hyperlink ref="K99" r:id="rId89" display="javascript:;" xr:uid="{F62251D8-8EA6-4C10-A8E8-33397208D3DF}"/>
+    <hyperlink ref="K100" r:id="rId90" display="javascript:;" xr:uid="{C151DD4E-46E6-438B-BAB7-6630D7C11EF0}"/>
+    <hyperlink ref="K101" r:id="rId91" display="javascript:;" xr:uid="{00705EAB-2025-43EA-A052-7BF04B94AC7B}"/>
+    <hyperlink ref="K102" r:id="rId92" display="javascript:;" xr:uid="{8F894546-5E96-4668-9739-A3F61DB1BCEE}"/>
+    <hyperlink ref="K103" r:id="rId93" display="javascript:;" xr:uid="{F0BB913C-A523-4B97-921A-E76468D9DAEE}"/>
+    <hyperlink ref="K104" r:id="rId94" display="javascript:;" xr:uid="{FF20DF04-A111-443E-A5E7-862353CF8DDD}"/>
+    <hyperlink ref="K105" r:id="rId95" display="javascript:;" xr:uid="{5464650B-7EFE-4617-936E-5EF2E9EC936F}"/>
+    <hyperlink ref="K106" r:id="rId96" display="javascript:;" xr:uid="{CE18ED83-DAB9-46CF-95B9-5589650B5091}"/>
+    <hyperlink ref="K107" r:id="rId97" display="javascript:;" xr:uid="{F25C4207-8013-4B49-A63A-B425FCF02CDC}"/>
+    <hyperlink ref="K108" r:id="rId98" display="javascript:;" xr:uid="{F66AF7F1-A354-40D4-AF1D-C513091EC195}"/>
+    <hyperlink ref="K109" r:id="rId99" display="javascript:;" xr:uid="{C118DB0B-BB47-4041-8A1D-DBB6E4392B3B}"/>
+    <hyperlink ref="K110" r:id="rId100" display="javascript:;" xr:uid="{6AFCB247-F667-4439-A6FF-117FE180189B}"/>
+    <hyperlink ref="K111" r:id="rId101" display="javascript:;" xr:uid="{AF455F46-1E5A-4693-AE03-24AFB26C357C}"/>
+    <hyperlink ref="K112" r:id="rId102" display="javascript:;" xr:uid="{EAD8C525-7A47-4336-B6A4-4047FB05B637}"/>
+    <hyperlink ref="K113" r:id="rId103" display="javascript:;" xr:uid="{BF04C2BD-0F75-4EAE-ABF3-F8831A8156C0}"/>
+    <hyperlink ref="K114" r:id="rId104" display="javascript:;" xr:uid="{FCA88671-828F-4F8C-86BB-AA2949ED97A4}"/>
+    <hyperlink ref="K115" r:id="rId105" display="javascript:;" xr:uid="{943744A7-64FF-42E1-8859-AF60D1B8CB86}"/>
+    <hyperlink ref="K116" r:id="rId106" display="javascript:;" xr:uid="{273AA693-174F-43CA-964E-A768BC0BA045}"/>
+    <hyperlink ref="K117" r:id="rId107" display="javascript:;" xr:uid="{216FA8F2-60B6-4769-A468-1ED35378F50F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
 
